--- a/exe/TSV/Excel/TH66S_Enohara-Inspection-Indicater_UIList.xlsx
+++ b/exe/TSV/Excel/TH66S_Enohara-Inspection-Indicater_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4BFD85-CC22-45FB-A7C2-22AE87EB6F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E51A4AA-5DA5-4C0C-A29B-43370A704751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="4980" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH66_江ノ原検車区表示盤_UIList" sheetId="1" r:id="rId1"/>

--- a/exe/TSV/Excel/TH66S_Enohara-Inspection-Indicater_UIList.xlsx
+++ b/exe/TSV/Excel/TH66S_Enohara-Inspection-Indicater_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E51A4AA-5DA5-4C0C-A29B-43370A704751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E7DED4-45F8-4A55-B075-9530A76EEA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="4980" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6720" yWindow="4590" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH66_江ノ原検車区表示盤_UIList" sheetId="1" r:id="rId1"/>
@@ -546,7 +546,7 @@
     <t>1RA_G</t>
   </si>
   <si>
-    <t>信号機</t>
+    <t>信号機表示灯</t>
   </si>
   <si>
     <t>1RA</t>
@@ -732,7 +732,7 @@
     <t>TH67_1RT_1</t>
   </si>
   <si>
-    <t>軌道回路</t>
+    <t>軌道回路表示灯</t>
   </si>
   <si>
     <t>0,1,2</t>
@@ -1194,7 +1194,7 @@
     <t>停電_1_R</t>
   </si>
   <si>
-    <t>ランプ</t>
+    <t>状態表示灯</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/R.png</t>

--- a/exe/TSV/Excel/TH66S_Enohara-Inspection-Indicater_UIList.xlsx
+++ b/exe/TSV/Excel/TH66S_Enohara-Inspection-Indicater_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37975471-746D-4FC5-9349-7049A02546B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED9E4BD-0508-40D5-AD16-4E71163AFCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="3750" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6735" yWindow="4755" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH66_江ノ原検車区表示盤_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="352">
   <si>
     <t>Type</t>
   </si>
@@ -582,7 +582,7 @@
     <t>信号機表示灯</t>
   </si>
   <si>
-    <t>1RA</t>
+    <t>江ノ原検車区上り場内1RA</t>
   </si>
   <si>
     <t>0,1</t>
@@ -597,96 +597,81 @@
     <t>1RB_G</t>
   </si>
   <si>
-    <t>1RB</t>
+    <t>江ノ原検車区上り場内1RB</t>
   </si>
   <si>
     <t>1RC_G</t>
   </si>
   <si>
-    <t>1RC</t>
+    <t>江ノ原検車区上り場内1RC</t>
   </si>
   <si>
     <t>2R_G</t>
   </si>
   <si>
-    <t>2R</t>
+    <t>江ノ原検車区上り出発2R</t>
   </si>
   <si>
     <t>3L_G</t>
   </si>
   <si>
-    <t>3L</t>
+    <t>江ノ原検車区下り出発3L</t>
   </si>
   <si>
     <t>4L_G</t>
   </si>
   <si>
-    <t>4L</t>
+    <t>江ノ原検車区下り出発4L</t>
   </si>
   <si>
     <t>5LD_G</t>
   </si>
   <si>
-    <t>5LD</t>
+    <t>江ノ原検車区下り場内5LD</t>
   </si>
   <si>
     <t>5LE_G</t>
   </si>
   <si>
-    <t>5LE</t>
+    <t>江ノ原検車区下り場内5LE</t>
   </si>
   <si>
     <t>11R_Y</t>
   </si>
   <si>
-    <t>11R</t>
-  </si>
-  <si>
     <t>Image/Light/N.png,Image/Light/Y.png</t>
   </si>
   <si>
     <t>12L_Y</t>
   </si>
   <si>
-    <t>12L</t>
-  </si>
-  <si>
     <t>13R_Y</t>
   </si>
   <si>
-    <t>13R</t>
+    <t>江ノ原入換13R</t>
   </si>
   <si>
     <t>14R_Y</t>
   </si>
   <si>
-    <t>14R</t>
-  </si>
-  <si>
     <t>15L_Y</t>
   </si>
   <si>
-    <t>15L</t>
+    <t>江ノ原入換15L</t>
   </si>
   <si>
     <t>15LZ_Y</t>
   </si>
   <si>
-    <t>15LZ</t>
-  </si>
-  <si>
     <t>16L_Y</t>
   </si>
   <si>
-    <t>16L</t>
+    <t>江ノ原入換16L</t>
   </si>
   <si>
     <t>16LZ_Y</t>
   </si>
   <si>
-    <t>16LZ</t>
-  </si>
-  <si>
     <t>21R_Y</t>
   </si>
   <si>
@@ -768,6 +753,9 @@
     <t>軌道回路表示灯</t>
   </si>
   <si>
+    <t>TH67_1RT</t>
+  </si>
+  <si>
     <t>0,1,2</t>
   </si>
   <si>
@@ -777,16 +765,28 @@
     <t>0度※以下0度省略</t>
   </si>
   <si>
-    <t>TH67_32T_P32N_1</t>
-  </si>
-  <si>
-    <t>TH67_32T_P32N_2</t>
-  </si>
-  <si>
-    <t>TH67_32T_P32R_1</t>
-  </si>
-  <si>
-    <t>TH67_32T_P32R_2</t>
+    <t>TH67_32T_W32N_1</t>
+  </si>
+  <si>
+    <t>TH67_32T</t>
+  </si>
+  <si>
+    <t>TH67_W32</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>TH67_32T_W32N_2</t>
+  </si>
+  <si>
+    <t>TH67_32T_W32R_1</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>TH67_32T_W32R_2</t>
   </si>
   <si>
     <t>Image/Light/68N.png,Image/Light/68Y.png,Image/Light/68R.png</t>
@@ -798,37 +798,55 @@
     <t>TH67_1RAT_1</t>
   </si>
   <si>
+    <t>TH67_1RAT</t>
+  </si>
+  <si>
     <t>TH67_1RAT_2</t>
   </si>
   <si>
     <t>TH67_1RBT_1</t>
   </si>
   <si>
+    <t>TH67_1RBT</t>
+  </si>
+  <si>
     <t>TH67_1RBT_2</t>
   </si>
   <si>
     <t>TH67_4LT_1</t>
   </si>
   <si>
+    <t>TH67_4LT</t>
+  </si>
+  <si>
     <t>TH67_4LT_2</t>
   </si>
   <si>
     <t>TH67_5LT_1</t>
   </si>
   <si>
+    <t>TH67_5LT</t>
+  </si>
+  <si>
     <t>TH67_5LT_2</t>
   </si>
   <si>
-    <t>TH67_33イT_P33イN_1</t>
-  </si>
-  <si>
-    <t>TH67_33イT_P33イN_2</t>
-  </si>
-  <si>
-    <t>TH67_33イT_P33イR_1</t>
-  </si>
-  <si>
-    <t>TH67_33イT_P33イR_2</t>
+    <t>TH67_33イT_W33イN_1</t>
+  </si>
+  <si>
+    <t>TH67_33イT</t>
+  </si>
+  <si>
+    <t>TH67_W33</t>
+  </si>
+  <si>
+    <t>TH67_33イT_W33イN_2</t>
+  </si>
+  <si>
+    <t>TH67_33イT_W33イR_1</t>
+  </si>
+  <si>
+    <t>TH67_33イT_W33イR_2</t>
   </si>
   <si>
     <t>Image/Light/112N.png,Image/Light/112Y.png,Image/Light/112R.png</t>
@@ -837,106 +855,154 @@
     <t>112度</t>
   </si>
   <si>
-    <t>TH67_33ロT_P33ロN_1</t>
-  </si>
-  <si>
-    <t>TH67_33ロT_P33ロN_2</t>
-  </si>
-  <si>
-    <t>TH67_33ロT_P33ロR_1</t>
-  </si>
-  <si>
-    <t>TH67_33ロT_P33ロR_2</t>
-  </si>
-  <si>
-    <t>TH67_34T_P34N_1</t>
-  </si>
-  <si>
-    <t>TH67_34T_P34N_2</t>
-  </si>
-  <si>
-    <t>TH67_34T_P34R_1</t>
-  </si>
-  <si>
-    <t>TH67_34T_P34R_2</t>
-  </si>
-  <si>
-    <t>TH67_34T_P34R_3</t>
-  </si>
-  <si>
-    <t>TH67_35イT_P35イN_1</t>
-  </si>
-  <si>
-    <t>TH67_35イT_P35イN_2</t>
-  </si>
-  <si>
-    <t>TH67_35イT_P35イR_1</t>
-  </si>
-  <si>
-    <t>TH67_35イT_P35イR_2</t>
-  </si>
-  <si>
-    <t>TH67_35ロT_P35ロN_1</t>
-  </si>
-  <si>
-    <t>TH67_35ロT_P35ロN_2</t>
-  </si>
-  <si>
-    <t>TH67_35ロT_P35ロR_1</t>
-  </si>
-  <si>
-    <t>TH67_35ロT_P35ロR_2</t>
+    <t>TH67_33ロT_W33ロN_1</t>
+  </si>
+  <si>
+    <t>TH67_33ロT</t>
+  </si>
+  <si>
+    <t>TH67_33ロT_W33ロN_2</t>
+  </si>
+  <si>
+    <t>TH67_33ロT_W33ロR_1</t>
+  </si>
+  <si>
+    <t>TH67_33ロT_W33ロR_2</t>
+  </si>
+  <si>
+    <t>TH67_34T_W34N_1</t>
+  </si>
+  <si>
+    <t>TH67_34T</t>
+  </si>
+  <si>
+    <t>TH67_W34</t>
+  </si>
+  <si>
+    <t>TH67_34T_W34N_2</t>
+  </si>
+  <si>
+    <t>TH67_34T_W34R_1</t>
+  </si>
+  <si>
+    <t>TH67_34T_W34R_2</t>
+  </si>
+  <si>
+    <t>TH67_34T_W34R_3</t>
+  </si>
+  <si>
+    <t>TH67_35イT_W35イN_1</t>
+  </si>
+  <si>
+    <t>TH67_35イT</t>
+  </si>
+  <si>
+    <t>TH67_W35</t>
+  </si>
+  <si>
+    <t>TH67_35イT_W35イN_2</t>
+  </si>
+  <si>
+    <t>TH67_35イT_W35イR_1</t>
+  </si>
+  <si>
+    <t>TH67_35イT_W35イR_2</t>
+  </si>
+  <si>
+    <t>TH67_35ロT_W35ロN_1</t>
+  </si>
+  <si>
+    <t>TH67_35ロT</t>
+  </si>
+  <si>
+    <t>TH67_35ロT_W35ロN_2</t>
+  </si>
+  <si>
+    <t>TH67_35ロT_W35ロR_1</t>
+  </si>
+  <si>
+    <t>TH67_35ロT_W35ロR_2</t>
   </si>
   <si>
     <t>TH67_36イT_1</t>
   </si>
   <si>
+    <t>TH67_36イT</t>
+  </si>
+  <si>
     <t>TH67_SST_1</t>
   </si>
   <si>
+    <t>TH67_SST</t>
+  </si>
+  <si>
     <t>136T_1</t>
   </si>
   <si>
+    <t>上り136T</t>
+  </si>
+  <si>
     <t>142T_1</t>
   </si>
   <si>
+    <t>上り142T</t>
+  </si>
+  <si>
     <t>146T_1</t>
   </si>
   <si>
-    <t>TH66_1RT_1</t>
-  </si>
-  <si>
-    <t>TH66_1RT_2</t>
-  </si>
-  <si>
-    <t>TH66_1RT_3</t>
-  </si>
-  <si>
-    <t>TH66_5LET_1</t>
-  </si>
-  <si>
-    <t>TH66_5LET_2</t>
-  </si>
-  <si>
-    <t>TH66_5LET_3</t>
-  </si>
-  <si>
-    <t>TH66_5LDT_1</t>
-  </si>
-  <si>
-    <t>TH66_5LDT_2</t>
-  </si>
-  <si>
-    <t>TH66_51イT_P51イ_N_1</t>
-  </si>
-  <si>
-    <t>TH66_51イT_P51イ_N_2</t>
-  </si>
-  <si>
-    <t>TH66_51イT_P51イ_R_1</t>
-  </si>
-  <si>
-    <t>TH66_51イT_P51イ_R_2</t>
+    <t>上り146T</t>
+  </si>
+  <si>
+    <t>TH66SS_1RT_1</t>
+  </si>
+  <si>
+    <t>TH66S_1RT</t>
+  </si>
+  <si>
+    <t>TH66S_1RT_2</t>
+  </si>
+  <si>
+    <t>TH66S_1RT_3</t>
+  </si>
+  <si>
+    <t>TH66S_5LET_1</t>
+  </si>
+  <si>
+    <t>TH66S_5LET</t>
+  </si>
+  <si>
+    <t>TH66S_5LET_2</t>
+  </si>
+  <si>
+    <t>TH66S_5LET_3</t>
+  </si>
+  <si>
+    <t>TH66S_5LDT_1</t>
+  </si>
+  <si>
+    <t>TH66S_5LDT</t>
+  </si>
+  <si>
+    <t>TH66S_5LDT_2</t>
+  </si>
+  <si>
+    <t>TH66S_51イT_W51イ_N_1</t>
+  </si>
+  <si>
+    <t>TH66S_51イT</t>
+  </si>
+  <si>
+    <t>TH66S_W51</t>
+  </si>
+  <si>
+    <t>TH66S_51イT_W51イ_N_2</t>
+  </si>
+  <si>
+    <t>TH66S_51イT_W51イ_R_1</t>
+  </si>
+  <si>
+    <t>TH66S_51イT_W51イ_R_2</t>
   </si>
   <si>
     <t>Image/Light/135N.png,Image/Light/135Y.png,Image/Light/135R.png</t>
@@ -945,34 +1011,49 @@
     <t>135度</t>
   </si>
   <si>
-    <t>TH66_51ロT_P51ロ_N_1</t>
-  </si>
-  <si>
-    <t>TH66_51ロT_P51ロ_N_2</t>
-  </si>
-  <si>
-    <t>TH66_51ロT_P51ロ_R_1</t>
-  </si>
-  <si>
-    <t>TH66_51ロT_P51ロ_R_2</t>
-  </si>
-  <si>
-    <t>TH66_13T_1</t>
-  </si>
-  <si>
-    <t>TH66_13T_2</t>
-  </si>
-  <si>
-    <t>TH66_52T_P52イ_N_P53ロ_N_1</t>
-  </si>
-  <si>
-    <t>TH66_52T_P52イ_N_P53ロ_N_2</t>
-  </si>
-  <si>
-    <t>TH66_52T_P52イ_N_P53ロ_N_3</t>
-  </si>
-  <si>
-    <t>TH66_52T_P52イ_N_P53ロ_R_1</t>
+    <t>TH66S_51ロT_W51ロ_N_1</t>
+  </si>
+  <si>
+    <t>TH66S_51ロT</t>
+  </si>
+  <si>
+    <t>TH66S_51ロT_W51ロ_N_2</t>
+  </si>
+  <si>
+    <t>TH66S_51ロT_W51ロ_R_1</t>
+  </si>
+  <si>
+    <t>TH66S_51ロT_W51ロ_R_2</t>
+  </si>
+  <si>
+    <t>TH66S_13T_1</t>
+  </si>
+  <si>
+    <t>TH66S_13T</t>
+  </si>
+  <si>
+    <t>TH66S_13T_2</t>
+  </si>
+  <si>
+    <t>TH66S_52T_W52イ_N_W53ロ_N_1</t>
+  </si>
+  <si>
+    <t>TH66S_52T</t>
+  </si>
+  <si>
+    <t>TH66S_W52</t>
+  </si>
+  <si>
+    <t>TH66S_W53</t>
+  </si>
+  <si>
+    <t>TH66S_52T_W52イ_N_W53ロ_N_2</t>
+  </si>
+  <si>
+    <t>TH66S_52T_W52イ_N_W53ロ_N_3</t>
+  </si>
+  <si>
+    <t>TH66S_52T_W52イ_N_W53ロ_R_1</t>
   </si>
   <si>
     <t>Image/Light/45N.png,Image/Light/45Y.png,Image/Light/45R.png</t>
@@ -981,249 +1062,336 @@
     <t>45度</t>
   </si>
   <si>
-    <t>TH66_52T_P52イ_N_P53ロ_R_2</t>
-  </si>
-  <si>
-    <t>TH66_52T_P52イ_R_P53ロ_N_1</t>
-  </si>
-  <si>
-    <t>TH66_52T_P52イ_R_P53ロ_N_2</t>
-  </si>
-  <si>
-    <t>TH66_53T_P53イ_N_P52ロ_N_1</t>
-  </si>
-  <si>
-    <t>TH66_53T_P53イ_N_P52ロ_N_2</t>
-  </si>
-  <si>
-    <t>TH66_53T_P53イ_N_P52ロ_N_3</t>
-  </si>
-  <si>
-    <t>TH66_53T_P53イ_N_P52ロ_R_1</t>
-  </si>
-  <si>
-    <t>TH66_53T_P53イ_N_P52ロ_R_2</t>
-  </si>
-  <si>
-    <t>TH66_53T_P53イ_R_P52ロ_N_1</t>
-  </si>
-  <si>
-    <t>TH66_53T_P53イ_R_P52ロ_N_2</t>
-  </si>
-  <si>
-    <t>TH66_54T_P54イ_N_P55ロ_N_1</t>
-  </si>
-  <si>
-    <t>TH66_54T_P54イ_N_P55ロ_N_2</t>
-  </si>
-  <si>
-    <t>TH66_54T_P54イ_N_P55ロ_N_3</t>
-  </si>
-  <si>
-    <t>TH66_54T_P54イ_N_P55ロ_R_1</t>
-  </si>
-  <si>
-    <t>TH66_54T_P54イ_N_P55ロ_R_2</t>
-  </si>
-  <si>
-    <t>TH66_54T_P54イ_R_P55ロ_N_1</t>
-  </si>
-  <si>
-    <t>TH66_54T_P54イ_R_P55ロ_N_2</t>
-  </si>
-  <si>
-    <t>TH66_55T_P55イ_N_P54ロ_N_1</t>
-  </si>
-  <si>
-    <t>TH66_55T_P55イ_N_P54ロ_N_2</t>
-  </si>
-  <si>
-    <t>TH66_55T_P55イ_N_P54ロ_N_3</t>
-  </si>
-  <si>
-    <t>TH66_55T_P55イ_N_P54ロ_R_1</t>
-  </si>
-  <si>
-    <t>TH66_55T_P55イ_N_P54ロ_R_2</t>
-  </si>
-  <si>
-    <t>TH66_55T_P55イ_R_P54ロ_N_1</t>
-  </si>
-  <si>
-    <t>TH66_55T_P55イ_R_P54ロ_N_2</t>
-  </si>
-  <si>
-    <t>TH66_56T_P56イ_N_P57ロ_N_1</t>
-  </si>
-  <si>
-    <t>TH66_56T_P56イ_N_P57ロ_N_2</t>
-  </si>
-  <si>
-    <t>TH66_56T_P56イ_N_P57ロ_N_3</t>
-  </si>
-  <si>
-    <t>TH66_56T_P56イ_N_P57ロ_R_1</t>
-  </si>
-  <si>
-    <t>TH66_56T_P56イ_N_P57ロ_R_2</t>
-  </si>
-  <si>
-    <t>TH66_56T_P56イ_R_P57ロ_N_1</t>
-  </si>
-  <si>
-    <t>TH66_56T_P56イ_R_P57ロ_N_2</t>
-  </si>
-  <si>
-    <t>TH66_57T_P57イ_N_P56ロ_N_1</t>
-  </si>
-  <si>
-    <t>TH66_57T_P57イ_N_P56ロ_N_2</t>
-  </si>
-  <si>
-    <t>TH66_57T_P57イ_N_P56ロ_N_3</t>
-  </si>
-  <si>
-    <t>TH66_57T_P57イ_N_P56ロ_R_1</t>
-  </si>
-  <si>
-    <t>TH66_57T_P57イ_N_P56ロ_R_2</t>
-  </si>
-  <si>
-    <t>TH66_57T_P57イ_R_P56ロ_N_1</t>
-  </si>
-  <si>
-    <t>TH66_57T_P57イ_R_P56ロ_N_2</t>
-  </si>
-  <si>
-    <t>TH66_1RCT_1</t>
-  </si>
-  <si>
-    <t>TH66_1RCT_2</t>
-  </si>
-  <si>
-    <t>TH66_5LT_1</t>
-  </si>
-  <si>
-    <t>TH66_5LT_2</t>
-  </si>
-  <si>
-    <t>TH66_1RAT_1</t>
-  </si>
-  <si>
-    <t>TH66_1RAT_2</t>
-  </si>
-  <si>
-    <t>TH66_1RBT_1</t>
-  </si>
-  <si>
-    <t>TH66_1RBT_2</t>
+    <t>TH66S_52T_W52イ_N_W53ロ_R_2</t>
+  </si>
+  <si>
+    <t>TH66S_52T_W52イ_R_W53ロ_N_1</t>
+  </si>
+  <si>
+    <t>TH66S_52T_W52イ_R_W53ロ_N_2</t>
+  </si>
+  <si>
+    <t>TH66S_53T_W53イ_N_W52ロ_N_1</t>
+  </si>
+  <si>
+    <t>TH66S_53T</t>
+  </si>
+  <si>
+    <t>TH66S_53T_W53イ_N_W52ロ_N_2</t>
+  </si>
+  <si>
+    <t>TH66S_53T_W53イ_N_W52ロ_N_3</t>
+  </si>
+  <si>
+    <t>TH66S_53T_W53イ_N_W52ロ_R_1</t>
+  </si>
+  <si>
+    <t>TH66S_53T_W53イ_N_W52ロ_R_2</t>
+  </si>
+  <si>
+    <t>TH66S_53T_W53イ_R_W52ロ_N_1</t>
+  </si>
+  <si>
+    <t>TH66S_53T_W53イ_R_W52ロ_N_2</t>
+  </si>
+  <si>
+    <t>TH66S_54T_W54イ_N_W55ロ_N_1</t>
+  </si>
+  <si>
+    <t>TH66S_54T</t>
+  </si>
+  <si>
+    <t>TH66S_W54</t>
+  </si>
+  <si>
+    <t>TH66S_W55</t>
+  </si>
+  <si>
+    <t>TH66S_54T_W54イ_N_W55ロ_N_2</t>
+  </si>
+  <si>
+    <t>TH66S_54T_W54イ_N_W55ロ_N_3</t>
+  </si>
+  <si>
+    <t>TH66S_54T_W54イ_N_W55ロ_R_1</t>
+  </si>
+  <si>
+    <t>TH66S_54T_W54イ_N_W55ロ_R_2</t>
+  </si>
+  <si>
+    <t>TH66S_54T_W54イ_R_W55ロ_N_1</t>
+  </si>
+  <si>
+    <t>TH66S_54T_W54イ_R_W55ロ_N_2</t>
+  </si>
+  <si>
+    <t>TH66S_55T_W55イ_N_W54ロ_N_1</t>
+  </si>
+  <si>
+    <t>TH66S_55T</t>
+  </si>
+  <si>
+    <t>TH66S_55T_W55イ_N_W54ロ_N_2</t>
+  </si>
+  <si>
+    <t>TH66S_55T_W55イ_N_W54ロ_N_3</t>
+  </si>
+  <si>
+    <t>TH66S_55T_W55イ_N_W54ロ_R_1</t>
+  </si>
+  <si>
+    <t>TH66S_55T_W55イ_N_W54ロ_R_2</t>
+  </si>
+  <si>
+    <t>TH66S_55T_W55イ_R_W54ロ_N_1</t>
+  </si>
+  <si>
+    <t>TH66S_55T_W55イ_R_W54ロ_N_2</t>
+  </si>
+  <si>
+    <t>TH66S_56T_W56イ_N_W57ロ_N_1</t>
+  </si>
+  <si>
+    <t>TH66S_56T</t>
+  </si>
+  <si>
+    <t>TH66S_W56</t>
+  </si>
+  <si>
+    <t>TH66S_W57</t>
+  </si>
+  <si>
+    <t>TH66S_56T_W56イ_N_W57ロ_N_2</t>
+  </si>
+  <si>
+    <t>TH66S_56T_W56イ_N_W57ロ_N_3</t>
+  </si>
+  <si>
+    <t>TH66S_56T_W56イ_N_W57ロ_R_1</t>
+  </si>
+  <si>
+    <t>TH66S_56T_W56イ_N_W57ロ_R_2</t>
+  </si>
+  <si>
+    <t>TH66S_56T_W56イ_R_W57ロ_N_1</t>
+  </si>
+  <si>
+    <t>TH66S_56T_W56イ_R_W57ロ_N_2</t>
+  </si>
+  <si>
+    <t>TH66S_57T_W57イ_N_W56ロ_N_1</t>
+  </si>
+  <si>
+    <t>TH66S_57T</t>
+  </si>
+  <si>
+    <t>TH66S_57T_W57イ_N_W56ロ_N_2</t>
+  </si>
+  <si>
+    <t>TH66S_57T_W57イ_N_W56ロ_N_3</t>
+  </si>
+  <si>
+    <t>TH66S_57T_W57イ_N_W56ロ_R_1</t>
+  </si>
+  <si>
+    <t>TH66S_57T_W57イ_N_W56ロ_R_2</t>
+  </si>
+  <si>
+    <t>TH66S_57T_W57イ_R_W56ロ_N_1</t>
+  </si>
+  <si>
+    <t>TH66S_57T_W57イ_R_W56ロ_N_2</t>
+  </si>
+  <si>
+    <t>TH66S_1RCT_1</t>
+  </si>
+  <si>
+    <t>TH66S_1RCT</t>
+  </si>
+  <si>
+    <t>TH66S_1RCT_2</t>
+  </si>
+  <si>
+    <t>TH66S_5LT_1</t>
+  </si>
+  <si>
+    <t>TH66S_5LT</t>
+  </si>
+  <si>
+    <t>TH66S_5LT_2</t>
+  </si>
+  <si>
+    <t>TH66S_1RAT_1</t>
+  </si>
+  <si>
+    <t>TH66S_1RAT</t>
+  </si>
+  <si>
+    <t>TH66S_1RAT_2</t>
+  </si>
+  <si>
+    <t>TH66S_1RBT_1</t>
+  </si>
+  <si>
+    <t>TH66S_1RBT</t>
+  </si>
+  <si>
+    <t>TH66S_1RBT_2</t>
   </si>
   <si>
     <t>TH65_TST_1</t>
   </si>
   <si>
+    <t>TH65_TST</t>
+  </si>
+  <si>
     <t>TH65_TST_2</t>
   </si>
   <si>
     <t>TH65_TST_3</t>
   </si>
   <si>
-    <t>TH65_42イT_P42イ_N_1</t>
-  </si>
-  <si>
-    <t>TH65_42イT_P42イ_N_2</t>
-  </si>
-  <si>
-    <t>TH65_42イT_P42イ_R_1</t>
-  </si>
-  <si>
-    <t>TH65_42イT_P42イ_R_2</t>
-  </si>
-  <si>
-    <t>TH65_42ロT_P42ロ_N_1</t>
-  </si>
-  <si>
-    <t>TH65_42ロT_P42ロ_N_2</t>
-  </si>
-  <si>
-    <t>TH65_42ロT_P42ロ_R_1</t>
-  </si>
-  <si>
-    <t>TH65_42ロT_P42ロ_R_2</t>
+    <t>TH65_42イT_W42イ_N_1</t>
+  </si>
+  <si>
+    <t>TH65_42イT</t>
+  </si>
+  <si>
+    <t>TH65_W42</t>
+  </si>
+  <si>
+    <t>TH65_42イT_W42イ_N_2</t>
+  </si>
+  <si>
+    <t>TH65_42イT_W42イ_R_1</t>
+  </si>
+  <si>
+    <t>TH65_42イT_W42イ_R_2</t>
+  </si>
+  <si>
+    <t>TH65_42ロT_W42ロ_N_1</t>
+  </si>
+  <si>
+    <t>TH65_42ロT</t>
+  </si>
+  <si>
+    <t>TH65_42ロT_W42ロ_N_2</t>
+  </si>
+  <si>
+    <t>TH65_42ロT_W42ロ_R_1</t>
+  </si>
+  <si>
+    <t>TH65_42ロT_W42ロ_R_2</t>
   </si>
   <si>
     <t>TH65_11LT_1</t>
   </si>
   <si>
+    <t>TH65_11LT</t>
+  </si>
+  <si>
     <t>TH65_11LT_2</t>
   </si>
   <si>
     <t>TH65_12LT_1</t>
   </si>
   <si>
+    <t>TH65_12LT</t>
+  </si>
+  <si>
     <t>TH65_12LT_2</t>
   </si>
   <si>
     <t>TH65_44T_1</t>
   </si>
   <si>
+    <t>TH65_44T</t>
+  </si>
+  <si>
     <t>TH65_45T_1</t>
   </si>
   <si>
-    <t>TH65_47T_P47イ_N_P48ロ_N_1</t>
-  </si>
-  <si>
-    <t>TH65_47T_P47イ_N_P48ロ_N_2</t>
-  </si>
-  <si>
-    <t>TH65_47T_P47イ_N_P48ロ_R_1</t>
-  </si>
-  <si>
-    <t>TH65_47T_P47イ_N_P48ロ_R_2</t>
-  </si>
-  <si>
-    <t>TH65_47T_P47イ_R_P48ロ_N_1</t>
-  </si>
-  <si>
-    <t>TH65_47T_P47イ_R_P48ロ_N_2</t>
-  </si>
-  <si>
-    <t>TH65_48T_P48イ_N_P47ロ_N_1</t>
-  </si>
-  <si>
-    <t>TH65_48T_P48イ_N_P47ロ_N_2</t>
-  </si>
-  <si>
-    <t>TH65_48T_P48イ_N_P47ロ_R_1</t>
-  </si>
-  <si>
-    <t>TH65_48T_P48イ_N_P47ロ_R_2</t>
-  </si>
-  <si>
-    <t>TH65_48T_P48イ_R_P47ロ_N_1</t>
-  </si>
-  <si>
-    <t>TH65_48T_P48イ_R_P47ロ_N_2</t>
-  </si>
-  <si>
-    <t>TH65_49T_P49_N_1</t>
-  </si>
-  <si>
-    <t>TH65_49T_P49_N_2</t>
-  </si>
-  <si>
-    <t>TH65_49T_P49_R_1</t>
-  </si>
-  <si>
-    <t>TH65_49T_P49_R_2</t>
+    <t>TH65_45T</t>
+  </si>
+  <si>
+    <t>TH65_47T_W47イ_N_W48ロ_N_1</t>
+  </si>
+  <si>
+    <t>TH65_47T</t>
+  </si>
+  <si>
+    <t>TH65_W47</t>
+  </si>
+  <si>
+    <t>TH65_W48</t>
+  </si>
+  <si>
+    <t>TH65_47T_W47イ_N_W48ロ_N_2</t>
+  </si>
+  <si>
+    <t>TH65_47T_W47イ_N_W48ロ_R_1</t>
+  </si>
+  <si>
+    <t>TH65_47T_W47イ_N_W48ロ_R_2</t>
+  </si>
+  <si>
+    <t>TH65_47T_W47イ_R_W48ロ_N_1</t>
+  </si>
+  <si>
+    <t>TH65_47T_W47イ_R_W48ロ_N_2</t>
+  </si>
+  <si>
+    <t>TH65_48T_W48イ_N_W47ロ_N_1</t>
+  </si>
+  <si>
+    <t>TH65_48T</t>
+  </si>
+  <si>
+    <t>TH65_48T_W48イ_N_W47ロ_N_2</t>
+  </si>
+  <si>
+    <t>TH65_48T_W48イ_N_W47ロ_R_1</t>
+  </si>
+  <si>
+    <t>TH65_48T_W48イ_N_W47ロ_R_2</t>
+  </si>
+  <si>
+    <t>TH65_48T_W48イ_R_W47ロ_N_1</t>
+  </si>
+  <si>
+    <t>TH65_48T_W48イ_R_W47ロ_N_2</t>
+  </si>
+  <si>
+    <t>TH65_49T_W49_N_1</t>
+  </si>
+  <si>
+    <t>TH65_49T</t>
+  </si>
+  <si>
+    <t>TH65_W49</t>
+  </si>
+  <si>
+    <t>TH65_49T_W49_N_2</t>
+  </si>
+  <si>
+    <t>TH65_49T_W49_R_1</t>
+  </si>
+  <si>
+    <t>TH65_49T_W49_R_2</t>
   </si>
   <si>
     <t>TH65_50イT_1</t>
   </si>
   <si>
+    <t>TH65_50イT</t>
+  </si>
+  <si>
     <t>TH65_XT_1</t>
   </si>
   <si>
+    <t>TH65_XT</t>
+  </si>
+  <si>
     <t>停電_1_R</t>
   </si>
   <si>
@@ -1344,16 +1512,10 @@
     <t>Button</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
     <t>Label</t>
-  </si>
-  <si>
-    <t>R</t>
   </si>
   <si>
     <t>TextBlock</t>
@@ -1441,7 +1603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1461,6 +1623,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1702,7 +1867,9 @@
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="25" width="15.140625" customWidth="1"/>
+    <col min="3" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="25" width="15.140625" customWidth="1"/>
     <col min="26" max="26" width="37.5703125" customWidth="1"/>
     <col min="27" max="27" width="100.140625" customWidth="1"/>
     <col min="28" max="28" width="62.5703125" customWidth="1"/>
@@ -1862,7 +2029,7 @@
       <c r="D3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>34</v>
       </c>
       <c r="F3" s="4"/>
@@ -1920,7 +2087,7 @@
       <c r="D4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F4" s="4"/>
@@ -1976,7 +2143,7 @@
       <c r="D5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="6" t="s">
         <v>41</v>
       </c>
       <c r="F5" s="4"/>
@@ -2032,7 +2199,7 @@
       <c r="D6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F6" s="4"/>
@@ -2088,7 +2255,7 @@
       <c r="D7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="4"/>
@@ -2144,7 +2311,7 @@
       <c r="D8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="6" t="s">
         <v>47</v>
       </c>
       <c r="F8" s="4"/>
@@ -2200,7 +2367,7 @@
       <c r="D9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F9" s="4"/>
@@ -2256,7 +2423,7 @@
       <c r="D10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="4"/>
@@ -2312,9 +2479,7 @@
       <c r="D11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -2345,7 +2510,7 @@
       </c>
       <c r="Z11" s="3"/>
       <c r="AA11" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
@@ -2362,15 +2527,13 @@
         <v>31</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -2401,7 +2564,7 @@
       </c>
       <c r="Z12" s="3"/>
       <c r="AA12" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
@@ -2418,14 +2581,14 @@
         <v>31</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>58</v>
+      <c r="E13" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -2457,7 +2620,7 @@
       </c>
       <c r="Z13" s="3"/>
       <c r="AA13" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
@@ -2474,15 +2637,13 @@
         <v>31</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -2513,7 +2674,7 @@
       </c>
       <c r="Z14" s="3"/>
       <c r="AA14" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
@@ -2530,14 +2691,14 @@
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>62</v>
+      <c r="E15" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -2569,7 +2730,7 @@
       </c>
       <c r="Z15" s="3"/>
       <c r="AA15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
@@ -2586,15 +2747,13 @@
         <v>31</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -2625,7 +2784,7 @@
       </c>
       <c r="Z16" s="3"/>
       <c r="AA16" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
@@ -2642,14 +2801,14 @@
         <v>31</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>66</v>
+      <c r="E17" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -2681,7 +2840,7 @@
       </c>
       <c r="Z17" s="3"/>
       <c r="AA17" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
@@ -2698,15 +2857,13 @@
         <v>31</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -2737,7 +2894,7 @@
       </c>
       <c r="Z18" s="3"/>
       <c r="AA18" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
@@ -2752,7 +2909,7 @@
     <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2792,7 +2949,7 @@
     <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -2832,7 +2989,7 @@
     <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -2872,7 +3029,7 @@
     <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -2912,7 +3069,7 @@
     <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -2952,7 +3109,7 @@
     <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2992,7 +3149,7 @@
     <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -3032,7 +3189,7 @@
     <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -3072,7 +3229,7 @@
     <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -3112,7 +3269,7 @@
     <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -3152,7 +3309,7 @@
     <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -3192,7 +3349,7 @@
     <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -3232,7 +3389,7 @@
     <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -3272,7 +3429,7 @@
     <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -3312,7 +3469,7 @@
     <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -3352,7 +3509,7 @@
     <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -3392,7 +3549,7 @@
     <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -3432,7 +3589,7 @@
     <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -3472,7 +3629,7 @@
     <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -3512,7 +3669,7 @@
     <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -3552,7 +3709,7 @@
     <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -3592,7 +3749,7 @@
     <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -3632,7 +3789,7 @@
     <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -3672,7 +3829,7 @@
     <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -3712,7 +3869,7 @@
     <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -3754,13 +3911,15 @@
         <v>31</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E44" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -3784,17 +3943,17 @@
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
       <c r="X44" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y44" s="6">
         <v>0</v>
       </c>
       <c r="Z44" s="3"/>
       <c r="AA44" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB44" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
@@ -3810,15 +3969,21 @@
         <v>31</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -3840,14 +4005,14 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
       <c r="X45" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y45" s="6">
         <v>0</v>
       </c>
       <c r="Z45" s="3"/>
       <c r="AA45" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB45" s="5"/>
       <c r="AC45" s="5"/>
@@ -3864,15 +4029,21 @@
         <v>31</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -3894,14 +4065,14 @@
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
       <c r="X46" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y46" s="6">
         <v>0</v>
       </c>
       <c r="Z46" s="3"/>
       <c r="AA46" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB46" s="5"/>
       <c r="AC46" s="5"/>
@@ -3918,15 +4089,21 @@
         <v>31</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -3948,14 +4125,14 @@
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
       <c r="X47" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y47" s="6">
         <v>0</v>
       </c>
       <c r="Z47" s="3"/>
       <c r="AA47" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB47" s="5"/>
       <c r="AC47" s="5"/>
@@ -3976,11 +4153,17 @@
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -4002,7 +4185,7 @@
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
       <c r="X48" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y48" s="6">
         <v>0</v>
@@ -4032,9 +4215,11 @@
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E49" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -4058,14 +4243,14 @@
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
       <c r="X49" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y49" s="6">
         <v>0</v>
       </c>
       <c r="Z49" s="3"/>
       <c r="AA49" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB49" s="5"/>
       <c r="AC49" s="5"/>
@@ -4082,13 +4267,15 @@
         <v>31</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E50" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -4112,14 +4299,14 @@
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
       <c r="X50" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y50" s="6">
         <v>0</v>
       </c>
       <c r="Z50" s="3"/>
       <c r="AA50" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB50" s="5"/>
       <c r="AC50" s="5"/>
@@ -4136,13 +4323,15 @@
         <v>31</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E51" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -4166,14 +4355,14 @@
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
       <c r="X51" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y51" s="6">
         <v>0</v>
       </c>
       <c r="Z51" s="3"/>
       <c r="AA51" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB51" s="5"/>
       <c r="AC51" s="5"/>
@@ -4190,13 +4379,15 @@
         <v>31</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E52" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -4220,14 +4411,14 @@
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
       <c r="X52" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y52" s="6">
         <v>0</v>
       </c>
       <c r="Z52" s="3"/>
       <c r="AA52" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB52" s="5"/>
       <c r="AC52" s="5"/>
@@ -4244,13 +4435,15 @@
         <v>31</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E53" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -4274,14 +4467,14 @@
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
       <c r="X53" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y53" s="6">
         <v>0</v>
       </c>
       <c r="Z53" s="3"/>
       <c r="AA53" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB53" s="5"/>
       <c r="AC53" s="5"/>
@@ -4297,14 +4490,16 @@
       <c r="A54" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>110</v>
+      <c r="B54" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E54" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -4328,14 +4523,14 @@
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
       <c r="X54" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y54" s="6">
         <v>0</v>
       </c>
       <c r="Z54" s="3"/>
       <c r="AA54" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB54" s="5"/>
       <c r="AC54" s="5"/>
@@ -4352,13 +4547,15 @@
         <v>31</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E55" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -4382,14 +4579,14 @@
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
       <c r="X55" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y55" s="6">
         <v>0</v>
       </c>
       <c r="Z55" s="3"/>
       <c r="AA55" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB55" s="5"/>
       <c r="AC55" s="5"/>
@@ -4406,13 +4603,15 @@
         <v>31</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E56" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -4436,14 +4635,14 @@
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
       <c r="X56" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y56" s="6">
         <v>0</v>
       </c>
       <c r="Z56" s="3"/>
       <c r="AA56" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB56" s="5"/>
       <c r="AC56" s="5"/>
@@ -4460,15 +4659,21 @@
         <v>31</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
@@ -4490,14 +4695,14 @@
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
       <c r="X57" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y57" s="6">
         <v>0</v>
       </c>
       <c r="Z57" s="3"/>
       <c r="AA57" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB57" s="5"/>
       <c r="AC57" s="5"/>
@@ -4514,15 +4719,21 @@
         <v>31</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -4544,14 +4755,14 @@
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
       <c r="X58" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y58" s="6">
         <v>0</v>
       </c>
       <c r="Z58" s="3"/>
       <c r="AA58" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB58" s="5"/>
       <c r="AC58" s="5"/>
@@ -4568,15 +4779,21 @@
         <v>31</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -4598,14 +4815,14 @@
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
       <c r="X59" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y59" s="6">
         <v>0</v>
       </c>
       <c r="Z59" s="3"/>
       <c r="AA59" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB59" s="5"/>
       <c r="AC59" s="5"/>
@@ -4621,16 +4838,22 @@
       <c r="A60" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>116</v>
+      <c r="B60" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -4652,17 +4875,17 @@
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
       <c r="X60" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y60" s="6">
         <v>0</v>
       </c>
       <c r="Z60" s="3"/>
       <c r="AA60" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AB60" s="5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AC60" s="5"/>
       <c r="AD60" s="5"/>
@@ -4677,16 +4900,22 @@
       <c r="A61" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>119</v>
+      <c r="B61" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
@@ -4708,14 +4937,14 @@
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
       <c r="X61" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y61" s="6">
         <v>0</v>
       </c>
       <c r="Z61" s="3"/>
       <c r="AA61" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB61" s="5"/>
       <c r="AC61" s="5"/>
@@ -4731,16 +4960,22 @@
       <c r="A62" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>120</v>
+      <c r="B62" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -4762,14 +4997,14 @@
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
       <c r="X62" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y62" s="6">
         <v>0</v>
       </c>
       <c r="Z62" s="3"/>
       <c r="AA62" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB62" s="5"/>
       <c r="AC62" s="5"/>
@@ -4785,16 +5020,22 @@
       <c r="A63" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>121</v>
+      <c r="B63" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
@@ -4816,17 +5057,17 @@
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
       <c r="X63" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y63" s="6">
         <v>0</v>
       </c>
       <c r="Z63" s="3"/>
       <c r="AA63" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AB63" s="5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AC63" s="5"/>
       <c r="AD63" s="5"/>
@@ -4841,16 +5082,22 @@
       <c r="A64" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>122</v>
+      <c r="B64" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
@@ -4872,14 +5119,14 @@
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
       <c r="X64" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y64" s="6">
         <v>0</v>
       </c>
       <c r="Z64" s="3"/>
       <c r="AA64" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB64" s="5"/>
       <c r="AC64" s="5"/>
@@ -4896,15 +5143,21 @@
         <v>31</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
@@ -4926,14 +5179,14 @@
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
       <c r="X65" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y65" s="6">
         <v>0</v>
       </c>
       <c r="Z65" s="3"/>
       <c r="AA65" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB65" s="5"/>
       <c r="AC65" s="5"/>
@@ -4949,16 +5202,22 @@
       <c r="A66" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>124</v>
+      <c r="B66" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
@@ -4980,14 +5239,14 @@
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
       <c r="X66" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y66" s="6">
         <v>0</v>
       </c>
       <c r="Z66" s="3"/>
       <c r="AA66" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB66" s="5"/>
       <c r="AC66" s="5"/>
@@ -5003,16 +5262,22 @@
       <c r="A67" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>125</v>
+      <c r="B67" s="9" t="s">
+        <v>134</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
@@ -5034,14 +5299,14 @@
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
       <c r="X67" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y67" s="6">
         <v>0</v>
       </c>
       <c r="Z67" s="3"/>
       <c r="AA67" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB67" s="5"/>
       <c r="AC67" s="5"/>
@@ -5057,16 +5322,22 @@
       <c r="A68" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>126</v>
+      <c r="B68" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
@@ -5088,7 +5359,7 @@
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
       <c r="X68" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y68" s="6">
         <v>0</v>
@@ -5113,16 +5384,22 @@
       <c r="A69" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>127</v>
+      <c r="B69" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
@@ -5144,14 +5421,14 @@
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
       <c r="X69" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y69" s="6">
         <v>0</v>
       </c>
       <c r="Z69" s="3"/>
       <c r="AA69" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB69" s="5"/>
       <c r="AC69" s="5"/>
@@ -5168,15 +5445,21 @@
         <v>31</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
@@ -5198,14 +5481,14 @@
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
       <c r="X70" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y70" s="6">
         <v>0</v>
       </c>
       <c r="Z70" s="3"/>
       <c r="AA70" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB70" s="5"/>
       <c r="AC70" s="5"/>
@@ -5221,16 +5504,22 @@
       <c r="A71" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B71" s="8" t="s">
-        <v>129</v>
+      <c r="B71" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
@@ -5252,14 +5541,14 @@
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
       <c r="X71" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y71" s="6">
         <v>0</v>
       </c>
       <c r="Z71" s="3"/>
       <c r="AA71" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB71" s="5"/>
       <c r="AC71" s="5"/>
@@ -5275,16 +5564,22 @@
       <c r="A72" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B72" s="8" t="s">
-        <v>130</v>
+      <c r="B72" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
@@ -5306,14 +5601,14 @@
       <c r="V72" s="4"/>
       <c r="W72" s="4"/>
       <c r="X72" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y72" s="6">
         <v>0</v>
       </c>
       <c r="Z72" s="3"/>
       <c r="AA72" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB72" s="5"/>
       <c r="AC72" s="5"/>
@@ -5330,15 +5625,21 @@
         <v>31</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
@@ -5360,7 +5661,7 @@
       <c r="V73" s="4"/>
       <c r="W73" s="4"/>
       <c r="X73" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y73" s="6">
         <v>0</v>
@@ -5385,16 +5686,22 @@
       <c r="A74" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>132</v>
+      <c r="B74" s="9" t="s">
+        <v>143</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
@@ -5416,14 +5723,14 @@
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
       <c r="X74" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="6">
         <v>0</v>
       </c>
       <c r="Z74" s="3"/>
       <c r="AA74" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB74" s="5"/>
       <c r="AC74" s="5"/>
@@ -5440,15 +5747,21 @@
         <v>31</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
@@ -5470,14 +5783,14 @@
       <c r="V75" s="4"/>
       <c r="W75" s="4"/>
       <c r="X75" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y75" s="6">
         <v>0</v>
       </c>
       <c r="Z75" s="3"/>
       <c r="AA75" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB75" s="5"/>
       <c r="AC75" s="5"/>
@@ -5494,15 +5807,21 @@
         <v>31</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
@@ -5524,7 +5843,7 @@
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
       <c r="X76" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y76" s="6">
         <v>0</v>
@@ -5550,15 +5869,21 @@
         <v>31</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
@@ -5580,14 +5905,14 @@
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
       <c r="X77" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y77" s="6">
         <v>0</v>
       </c>
       <c r="Z77" s="3"/>
       <c r="AA77" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB77" s="5"/>
       <c r="AC77" s="5"/>
@@ -5604,13 +5929,15 @@
         <v>31</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E78" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
@@ -5634,14 +5961,14 @@
       <c r="V78" s="4"/>
       <c r="W78" s="4"/>
       <c r="X78" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y78" s="6">
         <v>0</v>
       </c>
       <c r="Z78" s="3"/>
       <c r="AA78" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB78" s="5"/>
       <c r="AC78" s="5"/>
@@ -5658,13 +5985,15 @@
         <v>31</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E79" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -5688,14 +6017,14 @@
       <c r="V79" s="4"/>
       <c r="W79" s="4"/>
       <c r="X79" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y79" s="6">
         <v>0</v>
       </c>
       <c r="Z79" s="3"/>
       <c r="AA79" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB79" s="5"/>
       <c r="AC79" s="5"/>
@@ -5712,13 +6041,15 @@
         <v>31</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E80" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
@@ -5742,14 +6073,14 @@
       <c r="V80" s="4"/>
       <c r="W80" s="4"/>
       <c r="X80" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y80" s="6">
         <v>0</v>
       </c>
       <c r="Z80" s="3"/>
       <c r="AA80" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB80" s="5"/>
       <c r="AC80" s="5"/>
@@ -5766,13 +6097,15 @@
         <v>31</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E81" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
@@ -5796,14 +6129,14 @@
       <c r="V81" s="4"/>
       <c r="W81" s="4"/>
       <c r="X81" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y81" s="6">
         <v>0</v>
       </c>
       <c r="Z81" s="3"/>
       <c r="AA81" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB81" s="5"/>
       <c r="AC81" s="5"/>
@@ -5820,13 +6153,15 @@
         <v>31</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E82" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
@@ -5850,14 +6185,14 @@
       <c r="V82" s="4"/>
       <c r="W82" s="4"/>
       <c r="X82" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y82" s="6">
         <v>0</v>
       </c>
       <c r="Z82" s="3"/>
       <c r="AA82" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB82" s="5"/>
       <c r="AC82" s="5"/>
@@ -5874,13 +6209,15 @@
         <v>31</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E83" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
@@ -5904,14 +6241,14 @@
       <c r="V83" s="4"/>
       <c r="W83" s="4"/>
       <c r="X83" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y83" s="6">
         <v>0</v>
       </c>
       <c r="Z83" s="3"/>
       <c r="AA83" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB83" s="5"/>
       <c r="AC83" s="5"/>
@@ -5928,13 +6265,15 @@
         <v>31</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E84" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
@@ -5958,14 +6297,14 @@
       <c r="V84" s="4"/>
       <c r="W84" s="4"/>
       <c r="X84" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y84" s="6">
         <v>0</v>
       </c>
       <c r="Z84" s="3"/>
       <c r="AA84" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB84" s="5"/>
       <c r="AC84" s="5"/>
@@ -5982,13 +6321,15 @@
         <v>31</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E85" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
@@ -6012,14 +6353,14 @@
       <c r="V85" s="4"/>
       <c r="W85" s="4"/>
       <c r="X85" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y85" s="6">
         <v>0</v>
       </c>
       <c r="Z85" s="3"/>
       <c r="AA85" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB85" s="5"/>
       <c r="AC85" s="5"/>
@@ -6036,13 +6377,15 @@
         <v>31</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E86" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
@@ -6066,14 +6409,14 @@
       <c r="V86" s="4"/>
       <c r="W86" s="4"/>
       <c r="X86" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y86" s="6">
         <v>0</v>
       </c>
       <c r="Z86" s="3"/>
       <c r="AA86" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB86" s="5"/>
       <c r="AC86" s="5"/>
@@ -6090,13 +6433,15 @@
         <v>31</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E87" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
@@ -6120,14 +6465,14 @@
       <c r="V87" s="4"/>
       <c r="W87" s="4"/>
       <c r="X87" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y87" s="6">
         <v>0</v>
       </c>
       <c r="Z87" s="3"/>
       <c r="AA87" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB87" s="5"/>
       <c r="AC87" s="5"/>
@@ -6144,13 +6489,15 @@
         <v>31</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E88" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
@@ -6174,14 +6521,14 @@
       <c r="V88" s="4"/>
       <c r="W88" s="4"/>
       <c r="X88" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y88" s="6">
         <v>0</v>
       </c>
       <c r="Z88" s="3"/>
       <c r="AA88" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB88" s="5"/>
       <c r="AC88" s="5"/>
@@ -6198,13 +6545,15 @@
         <v>31</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E89" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
@@ -6228,14 +6577,14 @@
       <c r="V89" s="4"/>
       <c r="W89" s="4"/>
       <c r="X89" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y89" s="6">
         <v>0</v>
       </c>
       <c r="Z89" s="3"/>
       <c r="AA89" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB89" s="5"/>
       <c r="AC89" s="5"/>
@@ -6252,13 +6601,15 @@
         <v>31</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E90" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
@@ -6282,14 +6633,14 @@
       <c r="V90" s="4"/>
       <c r="W90" s="4"/>
       <c r="X90" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y90" s="6">
         <v>0</v>
       </c>
       <c r="Z90" s="3"/>
       <c r="AA90" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB90" s="5"/>
       <c r="AC90" s="5"/>
@@ -6306,15 +6657,21 @@
         <v>31</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
@@ -6336,14 +6693,14 @@
       <c r="V91" s="4"/>
       <c r="W91" s="4"/>
       <c r="X91" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y91" s="6">
         <v>0</v>
       </c>
       <c r="Z91" s="3"/>
       <c r="AA91" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB91" s="5"/>
       <c r="AC91" s="5"/>
@@ -6359,16 +6716,22 @@
       <c r="A92" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B92" s="8" t="s">
-        <v>150</v>
+      <c r="B92" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
@@ -6390,14 +6753,14 @@
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
       <c r="X92" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y92" s="6">
         <v>0</v>
       </c>
       <c r="Z92" s="3"/>
       <c r="AA92" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB92" s="5"/>
       <c r="AC92" s="5"/>
@@ -6413,16 +6776,22 @@
       <c r="A93" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B93" s="8" t="s">
-        <v>151</v>
+      <c r="B93" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
@@ -6444,14 +6813,14 @@
       <c r="V93" s="4"/>
       <c r="W93" s="4"/>
       <c r="X93" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y93" s="6">
         <v>0</v>
       </c>
       <c r="Z93" s="3"/>
       <c r="AA93" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB93" s="5"/>
       <c r="AC93" s="5"/>
@@ -6467,16 +6836,22 @@
       <c r="A94" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="8" t="s">
-        <v>152</v>
+      <c r="B94" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
@@ -6498,17 +6873,17 @@
       <c r="V94" s="4"/>
       <c r="W94" s="4"/>
       <c r="X94" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y94" s="6">
         <v>0</v>
       </c>
       <c r="Z94" s="3"/>
       <c r="AA94" s="7" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="AB94" s="5" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="AC94" s="5"/>
       <c r="AD94" s="5"/>
@@ -6523,16 +6898,22 @@
       <c r="A95" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B95" s="8" t="s">
-        <v>155</v>
+      <c r="B95" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
@@ -6554,14 +6935,14 @@
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
       <c r="X95" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y95" s="6">
         <v>0</v>
       </c>
       <c r="Z95" s="3"/>
       <c r="AA95" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB95" s="5"/>
       <c r="AC95" s="5"/>
@@ -6577,16 +6958,22 @@
       <c r="A96" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B96" s="8" t="s">
-        <v>156</v>
+      <c r="B96" s="9" t="s">
+        <v>179</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
@@ -6608,14 +6995,14 @@
       <c r="V96" s="4"/>
       <c r="W96" s="4"/>
       <c r="X96" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y96" s="6">
         <v>0</v>
       </c>
       <c r="Z96" s="3"/>
       <c r="AA96" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB96" s="5"/>
       <c r="AC96" s="5"/>
@@ -6631,16 +7018,22 @@
       <c r="A97" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B97" s="8" t="s">
-        <v>157</v>
+      <c r="B97" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
@@ -6662,17 +7055,17 @@
       <c r="V97" s="4"/>
       <c r="W97" s="4"/>
       <c r="X97" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y97" s="6">
         <v>0</v>
       </c>
       <c r="Z97" s="3"/>
       <c r="AA97" s="7" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="AB97" s="5" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="AC97" s="5"/>
       <c r="AD97" s="5"/>
@@ -6688,15 +7081,21 @@
         <v>31</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
@@ -6718,14 +7117,14 @@
       <c r="V98" s="4"/>
       <c r="W98" s="4"/>
       <c r="X98" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y98" s="6">
         <v>0</v>
       </c>
       <c r="Z98" s="3"/>
       <c r="AA98" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB98" s="5"/>
       <c r="AC98" s="5"/>
@@ -6742,13 +7141,15 @@
         <v>31</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E99" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
@@ -6772,14 +7173,14 @@
       <c r="V99" s="4"/>
       <c r="W99" s="4"/>
       <c r="X99" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y99" s="6">
         <v>0</v>
       </c>
       <c r="Z99" s="3"/>
       <c r="AA99" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB99" s="5"/>
       <c r="AC99" s="5"/>
@@ -6796,13 +7197,15 @@
         <v>31</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E100" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
@@ -6826,14 +7229,14 @@
       <c r="V100" s="4"/>
       <c r="W100" s="4"/>
       <c r="X100" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y100" s="6">
         <v>0</v>
       </c>
       <c r="Z100" s="3"/>
       <c r="AA100" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB100" s="5"/>
       <c r="AC100" s="5"/>
@@ -6850,17 +7253,27 @@
         <v>31</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
       <c r="L101" s="4">
@@ -6880,14 +7293,14 @@
       <c r="V101" s="4"/>
       <c r="W101" s="4"/>
       <c r="X101" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y101" s="6">
         <v>0</v>
       </c>
       <c r="Z101" s="3"/>
       <c r="AA101" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB101" s="5"/>
       <c r="AC101" s="5"/>
@@ -6903,18 +7316,28 @@
       <c r="A102" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B102" s="8" t="s">
-        <v>162</v>
+      <c r="B102" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
       <c r="L102" s="4">
@@ -6934,14 +7357,14 @@
       <c r="V102" s="4"/>
       <c r="W102" s="4"/>
       <c r="X102" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y102" s="6">
         <v>0</v>
       </c>
       <c r="Z102" s="3"/>
       <c r="AA102" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB102" s="5"/>
       <c r="AC102" s="5"/>
@@ -6957,18 +7380,28 @@
       <c r="A103" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B103" s="8" t="s">
-        <v>163</v>
+      <c r="B103" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
       <c r="L103" s="4">
@@ -6988,14 +7421,14 @@
       <c r="V103" s="4"/>
       <c r="W103" s="4"/>
       <c r="X103" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y103" s="6">
         <v>0</v>
       </c>
       <c r="Z103" s="3"/>
       <c r="AA103" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB103" s="5"/>
       <c r="AC103" s="5"/>
@@ -7011,18 +7444,28 @@
       <c r="A104" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B104" s="8" t="s">
-        <v>164</v>
+      <c r="B104" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
-      <c r="I104" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
       <c r="L104" s="4">
@@ -7042,17 +7485,17 @@
       <c r="V104" s="4"/>
       <c r="W104" s="4"/>
       <c r="X104" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y104" s="6">
         <v>0</v>
       </c>
       <c r="Z104" s="3"/>
       <c r="AA104" s="7" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="AB104" s="5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="AC104" s="5"/>
       <c r="AD104" s="5"/>
@@ -7067,18 +7510,28 @@
       <c r="A105" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B105" s="8" t="s">
-        <v>167</v>
+      <c r="B105" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
       <c r="L105" s="4">
@@ -7098,14 +7551,14 @@
       <c r="V105" s="4"/>
       <c r="W105" s="4"/>
       <c r="X105" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y105" s="6">
         <v>0</v>
       </c>
       <c r="Z105" s="3"/>
       <c r="AA105" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB105" s="5"/>
       <c r="AC105" s="5"/>
@@ -7121,18 +7574,28 @@
       <c r="A106" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B106" s="8" t="s">
-        <v>168</v>
+      <c r="B106" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
       <c r="L106" s="4">
@@ -7152,14 +7615,14 @@
       <c r="V106" s="4"/>
       <c r="W106" s="4"/>
       <c r="X106" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y106" s="6">
         <v>0</v>
       </c>
       <c r="Z106" s="3"/>
       <c r="AA106" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB106" s="5"/>
       <c r="AC106" s="5"/>
@@ -7175,18 +7638,28 @@
       <c r="A107" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B107" s="8" t="s">
-        <v>169</v>
+      <c r="B107" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-      <c r="I107" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
       <c r="L107" s="4">
@@ -7206,17 +7679,17 @@
       <c r="V107" s="4"/>
       <c r="W107" s="4"/>
       <c r="X107" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y107" s="6">
         <v>0</v>
       </c>
       <c r="Z107" s="3"/>
       <c r="AA107" s="7" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="AB107" s="5" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="AC107" s="5"/>
       <c r="AD107" s="5"/>
@@ -7232,17 +7705,27 @@
         <v>31</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
       <c r="L108" s="4">
@@ -7262,14 +7745,14 @@
       <c r="V108" s="4"/>
       <c r="W108" s="4"/>
       <c r="X108" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y108" s="6">
         <v>0</v>
       </c>
       <c r="Z108" s="3"/>
       <c r="AA108" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB108" s="5"/>
       <c r="AC108" s="5"/>
@@ -7285,18 +7768,28 @@
       <c r="A109" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8" t="s">
-        <v>171</v>
+      <c r="B109" s="9" t="s">
+        <v>199</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
       <c r="L109" s="4">
@@ -7316,14 +7809,14 @@
       <c r="V109" s="4"/>
       <c r="W109" s="4"/>
       <c r="X109" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y109" s="6">
         <v>0</v>
       </c>
       <c r="Z109" s="3"/>
       <c r="AA109" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB109" s="5"/>
       <c r="AC109" s="5"/>
@@ -7339,18 +7832,28 @@
       <c r="A110" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B110" s="8" t="s">
-        <v>172</v>
+      <c r="B110" s="9" t="s">
+        <v>200</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
       <c r="L110" s="4">
@@ -7370,14 +7873,14 @@
       <c r="V110" s="4"/>
       <c r="W110" s="4"/>
       <c r="X110" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y110" s="6">
         <v>0</v>
       </c>
       <c r="Z110" s="3"/>
       <c r="AA110" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB110" s="5"/>
       <c r="AC110" s="5"/>
@@ -7393,18 +7896,28 @@
       <c r="A111" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B111" s="8" t="s">
-        <v>173</v>
+      <c r="B111" s="9" t="s">
+        <v>201</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
       <c r="L111" s="4">
@@ -7424,17 +7937,17 @@
       <c r="V111" s="4"/>
       <c r="W111" s="4"/>
       <c r="X111" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y111" s="6">
         <v>0</v>
       </c>
       <c r="Z111" s="3"/>
       <c r="AA111" s="7" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="AB111" s="5" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="AC111" s="5"/>
       <c r="AD111" s="5"/>
@@ -7449,18 +7962,28 @@
       <c r="A112" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B112" s="8" t="s">
-        <v>174</v>
+      <c r="B112" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
       <c r="L112" s="4">
@@ -7480,14 +8003,14 @@
       <c r="V112" s="4"/>
       <c r="W112" s="4"/>
       <c r="X112" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y112" s="6">
         <v>0</v>
       </c>
       <c r="Z112" s="3"/>
       <c r="AA112" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB112" s="5"/>
       <c r="AC112" s="5"/>
@@ -7503,18 +8026,28 @@
       <c r="A113" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B113" s="8" t="s">
-        <v>175</v>
+      <c r="B113" s="9" t="s">
+        <v>203</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
       <c r="L113" s="4">
@@ -7534,14 +8067,14 @@
       <c r="V113" s="4"/>
       <c r="W113" s="4"/>
       <c r="X113" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y113" s="6">
         <v>0</v>
       </c>
       <c r="Z113" s="3"/>
       <c r="AA113" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB113" s="5"/>
       <c r="AC113" s="5"/>
@@ -7557,18 +8090,28 @@
       <c r="A114" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B114" s="8" t="s">
-        <v>176</v>
+      <c r="B114" s="9" t="s">
+        <v>204</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
-      <c r="I114" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
       <c r="L114" s="4">
@@ -7588,17 +8131,17 @@
       <c r="V114" s="4"/>
       <c r="W114" s="4"/>
       <c r="X114" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y114" s="6">
         <v>0</v>
       </c>
       <c r="Z114" s="3"/>
       <c r="AA114" s="7" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="AB114" s="5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="AC114" s="5"/>
       <c r="AD114" s="5"/>
@@ -7614,17 +8157,27 @@
         <v>31</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
       <c r="L115" s="4">
@@ -7644,14 +8197,14 @@
       <c r="V115" s="4"/>
       <c r="W115" s="4"/>
       <c r="X115" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y115" s="6">
         <v>0</v>
       </c>
       <c r="Z115" s="3"/>
       <c r="AA115" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB115" s="5"/>
       <c r="AC115" s="5"/>
@@ -7668,17 +8221,27 @@
         <v>31</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
       <c r="L116" s="4">
@@ -7698,14 +8261,14 @@
       <c r="V116" s="4"/>
       <c r="W116" s="4"/>
       <c r="X116" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y116" s="6">
         <v>0</v>
       </c>
       <c r="Z116" s="3"/>
       <c r="AA116" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB116" s="5"/>
       <c r="AC116" s="5"/>
@@ -7721,18 +8284,28 @@
       <c r="A117" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B117" s="8" t="s">
-        <v>179</v>
+      <c r="B117" s="9" t="s">
+        <v>210</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
       <c r="L117" s="4">
@@ -7752,14 +8325,14 @@
       <c r="V117" s="4"/>
       <c r="W117" s="4"/>
       <c r="X117" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y117" s="6">
         <v>0</v>
       </c>
       <c r="Z117" s="3"/>
       <c r="AA117" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB117" s="5"/>
       <c r="AC117" s="5"/>
@@ -7775,18 +8348,28 @@
       <c r="A118" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B118" s="8" t="s">
-        <v>180</v>
+      <c r="B118" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
       <c r="L118" s="4">
@@ -7806,17 +8389,17 @@
       <c r="V118" s="4"/>
       <c r="W118" s="4"/>
       <c r="X118" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y118" s="6">
         <v>0</v>
       </c>
       <c r="Z118" s="3"/>
       <c r="AA118" s="7" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="AB118" s="5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="AC118" s="5"/>
       <c r="AD118" s="5"/>
@@ -7831,18 +8414,28 @@
       <c r="A119" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B119" s="8" t="s">
-        <v>181</v>
+      <c r="B119" s="9" t="s">
+        <v>212</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
-      <c r="I119" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
       <c r="L119" s="4">
@@ -7862,14 +8455,14 @@
       <c r="V119" s="4"/>
       <c r="W119" s="4"/>
       <c r="X119" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y119" s="6">
         <v>0</v>
       </c>
       <c r="Z119" s="3"/>
       <c r="AA119" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB119" s="5"/>
       <c r="AC119" s="5"/>
@@ -7886,17 +8479,27 @@
         <v>31</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
       <c r="L120" s="4">
@@ -7916,14 +8519,14 @@
       <c r="V120" s="4"/>
       <c r="W120" s="4"/>
       <c r="X120" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y120" s="6">
         <v>0</v>
       </c>
       <c r="Z120" s="3"/>
       <c r="AA120" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB120" s="5"/>
       <c r="AC120" s="5"/>
@@ -7939,18 +8542,28 @@
       <c r="A121" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B121" s="8" t="s">
-        <v>183</v>
+      <c r="B121" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
       <c r="L121" s="4">
@@ -7970,17 +8583,17 @@
       <c r="V121" s="4"/>
       <c r="W121" s="4"/>
       <c r="X121" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y121" s="6">
         <v>0</v>
       </c>
       <c r="Z121" s="3"/>
       <c r="AA121" s="7" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="AB121" s="5" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="AC121" s="5"/>
       <c r="AD121" s="5"/>
@@ -7996,17 +8609,27 @@
         <v>31</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
       <c r="L122" s="4">
@@ -8026,14 +8649,14 @@
       <c r="V122" s="4"/>
       <c r="W122" s="4"/>
       <c r="X122" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y122" s="6">
         <v>0</v>
       </c>
       <c r="Z122" s="3"/>
       <c r="AA122" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB122" s="5"/>
       <c r="AC122" s="5"/>
@@ -8049,18 +8672,28 @@
       <c r="A123" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B123" s="8" t="s">
-        <v>185</v>
+      <c r="B123" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J123" s="4"/>
       <c r="K123" s="4"/>
       <c r="L123" s="4">
@@ -8080,14 +8713,14 @@
       <c r="V123" s="4"/>
       <c r="W123" s="4"/>
       <c r="X123" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y123" s="6">
         <v>0</v>
       </c>
       <c r="Z123" s="3"/>
       <c r="AA123" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB123" s="5"/>
       <c r="AC123" s="5"/>
@@ -8103,18 +8736,28 @@
       <c r="A124" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B124" s="8" t="s">
-        <v>186</v>
+      <c r="B124" s="9" t="s">
+        <v>218</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
-      <c r="I124" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J124" s="4"/>
       <c r="K124" s="4"/>
       <c r="L124" s="4">
@@ -8134,14 +8777,14 @@
       <c r="V124" s="4"/>
       <c r="W124" s="4"/>
       <c r="X124" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y124" s="6">
         <v>0</v>
       </c>
       <c r="Z124" s="3"/>
       <c r="AA124" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB124" s="5"/>
       <c r="AC124" s="5"/>
@@ -8157,18 +8800,28 @@
       <c r="A125" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B125" s="8" t="s">
-        <v>187</v>
+      <c r="B125" s="9" t="s">
+        <v>219</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
       <c r="L125" s="4">
@@ -8188,17 +8841,17 @@
       <c r="V125" s="4"/>
       <c r="W125" s="4"/>
       <c r="X125" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y125" s="6">
         <v>0</v>
       </c>
       <c r="Z125" s="3"/>
       <c r="AA125" s="7" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="AB125" s="5" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="AC125" s="5"/>
       <c r="AD125" s="5"/>
@@ -8213,18 +8866,28 @@
       <c r="A126" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B126" s="8" t="s">
-        <v>188</v>
+      <c r="B126" s="9" t="s">
+        <v>220</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
-      <c r="I126" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
       <c r="L126" s="4">
@@ -8244,14 +8907,14 @@
       <c r="V126" s="4"/>
       <c r="W126" s="4"/>
       <c r="X126" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y126" s="6">
         <v>0</v>
       </c>
       <c r="Z126" s="3"/>
       <c r="AA126" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB126" s="5"/>
       <c r="AC126" s="5"/>
@@ -8267,18 +8930,28 @@
       <c r="A127" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B127" s="8" t="s">
-        <v>189</v>
+      <c r="B127" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E127" s="4"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4"/>
-      <c r="I127" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
       <c r="L127" s="4">
@@ -8298,14 +8971,14 @@
       <c r="V127" s="4"/>
       <c r="W127" s="4"/>
       <c r="X127" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y127" s="6">
         <v>0</v>
       </c>
       <c r="Z127" s="3"/>
       <c r="AA127" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB127" s="5"/>
       <c r="AC127" s="5"/>
@@ -8321,18 +8994,28 @@
       <c r="A128" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B128" s="8" t="s">
-        <v>190</v>
+      <c r="B128" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
-      <c r="I128" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
       <c r="L128" s="4">
@@ -8352,17 +9035,17 @@
       <c r="V128" s="4"/>
       <c r="W128" s="4"/>
       <c r="X128" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y128" s="6">
         <v>0</v>
       </c>
       <c r="Z128" s="3"/>
       <c r="AA128" s="7" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="AB128" s="5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="AC128" s="5"/>
       <c r="AD128" s="5"/>
@@ -8378,17 +9061,27 @@
         <v>31</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
-      <c r="I129" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
       <c r="L129" s="4">
@@ -8408,14 +9101,14 @@
       <c r="V129" s="4"/>
       <c r="W129" s="4"/>
       <c r="X129" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y129" s="6">
         <v>0</v>
       </c>
       <c r="Z129" s="3"/>
       <c r="AA129" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB129" s="5"/>
       <c r="AC129" s="5"/>
@@ -8432,17 +9125,27 @@
         <v>31</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
-      <c r="I130" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
       <c r="L130" s="4">
@@ -8462,14 +9165,14 @@
       <c r="V130" s="4"/>
       <c r="W130" s="4"/>
       <c r="X130" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y130" s="6">
         <v>0</v>
       </c>
       <c r="Z130" s="3"/>
       <c r="AA130" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB130" s="5"/>
       <c r="AC130" s="5"/>
@@ -8486,17 +9189,27 @@
         <v>31</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
-      <c r="I131" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J131" s="4"/>
       <c r="K131" s="4"/>
       <c r="L131" s="4">
@@ -8516,14 +9229,14 @@
       <c r="V131" s="4"/>
       <c r="W131" s="4"/>
       <c r="X131" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y131" s="6">
         <v>0</v>
       </c>
       <c r="Z131" s="3"/>
       <c r="AA131" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB131" s="5"/>
       <c r="AC131" s="5"/>
@@ -8540,17 +9253,27 @@
         <v>31</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
-      <c r="I132" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
       <c r="L132" s="4">
@@ -8570,17 +9293,17 @@
       <c r="V132" s="4"/>
       <c r="W132" s="4"/>
       <c r="X132" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y132" s="6">
         <v>0</v>
       </c>
       <c r="Z132" s="3"/>
       <c r="AA132" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB132" s="9" t="s">
-        <v>166</v>
+        <v>192</v>
+      </c>
+      <c r="AB132" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="AC132" s="5"/>
       <c r="AD132" s="5"/>
@@ -8596,17 +9319,27 @@
         <v>31</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
-      <c r="I133" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="J133" s="4"/>
       <c r="K133" s="4"/>
       <c r="L133" s="4">
@@ -8626,14 +9359,14 @@
       <c r="V133" s="4"/>
       <c r="W133" s="4"/>
       <c r="X133" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y133" s="6">
         <v>0</v>
       </c>
       <c r="Z133" s="3"/>
       <c r="AA133" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB133" s="5"/>
       <c r="AC133" s="5"/>
@@ -8650,17 +9383,27 @@
         <v>31</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
-      <c r="I134" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
       <c r="L134" s="4">
@@ -8680,14 +9423,14 @@
       <c r="V134" s="4"/>
       <c r="W134" s="4"/>
       <c r="X134" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y134" s="6">
         <v>0</v>
       </c>
       <c r="Z134" s="3"/>
       <c r="AA134" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB134" s="5"/>
       <c r="AC134" s="5"/>
@@ -8704,17 +9447,27 @@
         <v>31</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E135" s="4"/>
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
-      <c r="I135" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
       <c r="L135" s="4">
@@ -8734,17 +9487,17 @@
       <c r="V135" s="4"/>
       <c r="W135" s="4"/>
       <c r="X135" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y135" s="6">
         <v>0</v>
       </c>
       <c r="Z135" s="3"/>
       <c r="AA135" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB135" s="9" t="s">
-        <v>154</v>
+        <v>175</v>
+      </c>
+      <c r="AB135" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="AC135" s="5"/>
       <c r="AD135" s="5"/>
@@ -8760,17 +9513,27 @@
         <v>31</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E136" s="4"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
-      <c r="I136" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
       <c r="L136" s="4">
@@ -8790,14 +9553,14 @@
       <c r="V136" s="4"/>
       <c r="W136" s="4"/>
       <c r="X136" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y136" s="6">
         <v>0</v>
       </c>
       <c r="Z136" s="3"/>
       <c r="AA136" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB136" s="5"/>
       <c r="AC136" s="5"/>
@@ -8814,17 +9577,27 @@
         <v>31</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E137" s="4"/>
-      <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
-      <c r="H137" s="4"/>
-      <c r="I137" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
       <c r="L137" s="4">
@@ -8844,14 +9617,14 @@
       <c r="V137" s="4"/>
       <c r="W137" s="4"/>
       <c r="X137" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y137" s="6">
         <v>0</v>
       </c>
       <c r="Z137" s="3"/>
       <c r="AA137" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB137" s="5"/>
       <c r="AC137" s="5"/>
@@ -8868,17 +9641,27 @@
         <v>31</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
-      <c r="H138" s="4"/>
-      <c r="I138" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
       <c r="L138" s="4">
@@ -8898,14 +9681,14 @@
       <c r="V138" s="4"/>
       <c r="W138" s="4"/>
       <c r="X138" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y138" s="6">
         <v>0</v>
       </c>
       <c r="Z138" s="3"/>
       <c r="AA138" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB138" s="5"/>
       <c r="AC138" s="5"/>
@@ -8922,17 +9705,27 @@
         <v>31</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
-      <c r="H139" s="4"/>
-      <c r="I139" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
       <c r="L139" s="4">
@@ -8952,17 +9745,17 @@
       <c r="V139" s="4"/>
       <c r="W139" s="4"/>
       <c r="X139" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y139" s="6">
         <v>0</v>
       </c>
       <c r="Z139" s="3"/>
       <c r="AA139" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB139" s="9" t="s">
-        <v>154</v>
+        <v>175</v>
+      </c>
+      <c r="AB139" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="AC139" s="5"/>
       <c r="AD139" s="5"/>
@@ -8978,17 +9771,27 @@
         <v>31</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
-      <c r="H140" s="4"/>
-      <c r="I140" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
       <c r="L140" s="4">
@@ -9008,14 +9811,14 @@
       <c r="V140" s="4"/>
       <c r="W140" s="4"/>
       <c r="X140" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y140" s="6">
         <v>0</v>
       </c>
       <c r="Z140" s="3"/>
       <c r="AA140" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB140" s="5"/>
       <c r="AC140" s="5"/>
@@ -9032,17 +9835,27 @@
         <v>31</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="4"/>
-      <c r="I141" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
       <c r="L141" s="4">
@@ -9062,14 +9875,14 @@
       <c r="V141" s="4"/>
       <c r="W141" s="4"/>
       <c r="X141" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y141" s="6">
         <v>0</v>
       </c>
       <c r="Z141" s="3"/>
       <c r="AA141" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB141" s="5"/>
       <c r="AC141" s="5"/>
@@ -9086,17 +9899,27 @@
         <v>31</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
-      <c r="H142" s="4"/>
-      <c r="I142" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J142" s="4"/>
       <c r="K142" s="4"/>
       <c r="L142" s="4">
@@ -9116,17 +9939,17 @@
       <c r="V142" s="4"/>
       <c r="W142" s="4"/>
       <c r="X142" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y142" s="6">
         <v>0</v>
       </c>
       <c r="Z142" s="3"/>
       <c r="AA142" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB142" s="9" t="s">
-        <v>166</v>
+        <v>192</v>
+      </c>
+      <c r="AB142" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="AC142" s="5"/>
       <c r="AD142" s="5"/>
@@ -9142,13 +9965,15 @@
         <v>31</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E143" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
@@ -9172,14 +9997,14 @@
       <c r="V143" s="4"/>
       <c r="W143" s="4"/>
       <c r="X143" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y143" s="6">
         <v>0</v>
       </c>
       <c r="Z143" s="3"/>
       <c r="AA143" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB143" s="5"/>
       <c r="AC143" s="5"/>
@@ -9196,13 +10021,15 @@
         <v>31</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E144" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
@@ -9226,14 +10053,14 @@
       <c r="V144" s="4"/>
       <c r="W144" s="4"/>
       <c r="X144" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y144" s="6">
         <v>0</v>
       </c>
       <c r="Z144" s="3"/>
       <c r="AA144" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB144" s="5"/>
       <c r="AC144" s="5"/>
@@ -9250,13 +10077,15 @@
         <v>31</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E145" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>245</v>
+      </c>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
       <c r="H145" s="4"/>
@@ -9280,14 +10109,14 @@
       <c r="V145" s="4"/>
       <c r="W145" s="4"/>
       <c r="X145" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y145" s="6">
         <v>0</v>
       </c>
       <c r="Z145" s="3"/>
       <c r="AA145" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB145" s="5"/>
       <c r="AC145" s="5"/>
@@ -9304,13 +10133,15 @@
         <v>31</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E146" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>245</v>
+      </c>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
@@ -9334,14 +10165,14 @@
       <c r="V146" s="4"/>
       <c r="W146" s="4"/>
       <c r="X146" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y146" s="6">
         <v>0</v>
       </c>
       <c r="Z146" s="3"/>
       <c r="AA146" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB146" s="5"/>
       <c r="AC146" s="5"/>
@@ -9358,13 +10189,15 @@
         <v>31</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E147" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>248</v>
+      </c>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
@@ -9388,14 +10221,14 @@
       <c r="V147" s="4"/>
       <c r="W147" s="4"/>
       <c r="X147" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y147" s="6">
         <v>0</v>
       </c>
       <c r="Z147" s="3"/>
       <c r="AA147" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB147" s="5"/>
       <c r="AC147" s="5"/>
@@ -9412,13 +10245,15 @@
         <v>31</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>210</v>
+        <v>249</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E148" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>248</v>
+      </c>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
@@ -9442,14 +10277,14 @@
       <c r="V148" s="4"/>
       <c r="W148" s="4"/>
       <c r="X148" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y148" s="6">
         <v>0</v>
       </c>
       <c r="Z148" s="3"/>
       <c r="AA148" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB148" s="5"/>
       <c r="AC148" s="5"/>
@@ -9466,13 +10301,15 @@
         <v>31</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E149" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>251</v>
+      </c>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
@@ -9496,14 +10333,14 @@
       <c r="V149" s="4"/>
       <c r="W149" s="4"/>
       <c r="X149" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y149" s="6">
         <v>0</v>
       </c>
       <c r="Z149" s="3"/>
       <c r="AA149" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB149" s="5"/>
       <c r="AC149" s="5"/>
@@ -9520,13 +10357,15 @@
         <v>31</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E150" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>251</v>
+      </c>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
@@ -9550,14 +10389,14 @@
       <c r="V150" s="4"/>
       <c r="W150" s="4"/>
       <c r="X150" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y150" s="6">
         <v>0</v>
       </c>
       <c r="Z150" s="3"/>
       <c r="AA150" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB150" s="5"/>
       <c r="AC150" s="5"/>
@@ -9574,13 +10413,15 @@
         <v>31</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E151" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>254</v>
+      </c>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
@@ -9604,14 +10445,14 @@
       <c r="V151" s="4"/>
       <c r="W151" s="4"/>
       <c r="X151" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y151" s="6">
         <v>0</v>
       </c>
       <c r="Z151" s="3"/>
       <c r="AA151" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB151" s="5"/>
       <c r="AC151" s="5"/>
@@ -9628,13 +10469,15 @@
         <v>31</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E152" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>254</v>
+      </c>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
@@ -9658,17 +10501,17 @@
       <c r="V152" s="4"/>
       <c r="W152" s="4"/>
       <c r="X152" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y152" s="6">
         <v>0</v>
       </c>
       <c r="Z152" s="3"/>
       <c r="AA152" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AB152" s="5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AC152" s="5"/>
       <c r="AD152" s="5"/>
@@ -9684,13 +10527,15 @@
         <v>31</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E153" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>254</v>
+      </c>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
@@ -9714,14 +10559,14 @@
       <c r="V153" s="4"/>
       <c r="W153" s="4"/>
       <c r="X153" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y153" s="6">
         <v>0</v>
       </c>
       <c r="Z153" s="3"/>
       <c r="AA153" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB153" s="5"/>
       <c r="AC153" s="5"/>
@@ -9738,15 +10583,21 @@
         <v>31</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E154" s="4"/>
-      <c r="F154" s="4"/>
-      <c r="G154" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
@@ -9768,14 +10619,14 @@
       <c r="V154" s="4"/>
       <c r="W154" s="4"/>
       <c r="X154" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y154" s="6">
         <v>0</v>
       </c>
       <c r="Z154" s="3"/>
       <c r="AA154" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB154" s="5"/>
       <c r="AC154" s="5"/>
@@ -9792,15 +10643,21 @@
         <v>31</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E155" s="4"/>
-      <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
@@ -9822,14 +10679,14 @@
       <c r="V155" s="4"/>
       <c r="W155" s="4"/>
       <c r="X155" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y155" s="6">
         <v>0</v>
       </c>
       <c r="Z155" s="3"/>
       <c r="AA155" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB155" s="5"/>
       <c r="AC155" s="5"/>
@@ -9846,15 +10703,21 @@
         <v>31</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>218</v>
+        <v>261</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H156" s="4"/>
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
@@ -9876,14 +10739,14 @@
       <c r="V156" s="4"/>
       <c r="W156" s="4"/>
       <c r="X156" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y156" s="6">
         <v>0</v>
       </c>
       <c r="Z156" s="3"/>
       <c r="AA156" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB156" s="5"/>
       <c r="AC156" s="5"/>
@@ -9900,15 +10763,21 @@
         <v>31</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E157" s="4"/>
-      <c r="F157" s="4"/>
-      <c r="G157" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
@@ -9930,7 +10799,7 @@
       <c r="V157" s="4"/>
       <c r="W157" s="4"/>
       <c r="X157" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y157" s="6">
         <v>0</v>
@@ -9939,7 +10808,7 @@
       <c r="AA157" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="AB157" s="9" t="s">
+      <c r="AB157" s="10" t="s">
         <v>104</v>
       </c>
       <c r="AC157" s="5"/>
@@ -9956,15 +10825,21 @@
         <v>31</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>220</v>
+        <v>263</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E158" s="4"/>
-      <c r="F158" s="4"/>
-      <c r="G158" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
@@ -9986,14 +10861,14 @@
       <c r="V158" s="4"/>
       <c r="W158" s="4"/>
       <c r="X158" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y158" s="6">
         <v>0</v>
       </c>
       <c r="Z158" s="3"/>
       <c r="AA158" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB158" s="5"/>
       <c r="AC158" s="5"/>
@@ -10010,15 +10885,21 @@
         <v>31</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E159" s="4"/>
-      <c r="F159" s="4"/>
-      <c r="G159" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="H159" s="4"/>
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
@@ -10040,14 +10921,14 @@
       <c r="V159" s="4"/>
       <c r="W159" s="4"/>
       <c r="X159" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y159" s="6">
         <v>0</v>
       </c>
       <c r="Z159" s="3"/>
       <c r="AA159" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB159" s="5"/>
       <c r="AC159" s="5"/>
@@ -10064,15 +10945,21 @@
         <v>31</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E160" s="4"/>
-      <c r="F160" s="4"/>
-      <c r="G160" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H160" s="4"/>
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
@@ -10094,7 +10981,7 @@
       <c r="V160" s="4"/>
       <c r="W160" s="4"/>
       <c r="X160" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y160" s="6">
         <v>0</v>
@@ -10103,7 +10990,7 @@
       <c r="AA160" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="AB160" s="9" t="s">
+      <c r="AB160" s="10" t="s">
         <v>104</v>
       </c>
       <c r="AC160" s="5"/>
@@ -10120,15 +11007,21 @@
         <v>31</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>223</v>
+        <v>267</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E161" s="4"/>
-      <c r="F161" s="4"/>
-      <c r="G161" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
@@ -10150,14 +11043,14 @@
       <c r="V161" s="4"/>
       <c r="W161" s="4"/>
       <c r="X161" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y161" s="6">
         <v>0</v>
       </c>
       <c r="Z161" s="3"/>
       <c r="AA161" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB161" s="5"/>
       <c r="AC161" s="5"/>
@@ -10174,13 +11067,15 @@
         <v>31</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E162" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>269</v>
+      </c>
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
@@ -10204,14 +11099,14 @@
       <c r="V162" s="4"/>
       <c r="W162" s="4"/>
       <c r="X162" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y162" s="6">
         <v>0</v>
       </c>
       <c r="Z162" s="3"/>
       <c r="AA162" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB162" s="5"/>
       <c r="AC162" s="5"/>
@@ -10228,13 +11123,15 @@
         <v>31</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E163" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>269</v>
+      </c>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
       <c r="H163" s="4"/>
@@ -10258,14 +11155,14 @@
       <c r="V163" s="4"/>
       <c r="W163" s="4"/>
       <c r="X163" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y163" s="6">
         <v>0</v>
       </c>
       <c r="Z163" s="3"/>
       <c r="AA163" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB163" s="5"/>
       <c r="AC163" s="5"/>
@@ -10282,13 +11179,15 @@
         <v>31</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E164" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>272</v>
+      </c>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
@@ -10312,14 +11211,14 @@
       <c r="V164" s="4"/>
       <c r="W164" s="4"/>
       <c r="X164" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y164" s="6">
         <v>0</v>
       </c>
       <c r="Z164" s="3"/>
       <c r="AA164" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB164" s="5"/>
       <c r="AC164" s="5"/>
@@ -10336,13 +11235,15 @@
         <v>31</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>227</v>
+        <v>273</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E165" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>272</v>
+      </c>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
@@ -10366,14 +11267,14 @@
       <c r="V165" s="4"/>
       <c r="W165" s="4"/>
       <c r="X165" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y165" s="6">
         <v>0</v>
       </c>
       <c r="Z165" s="3"/>
       <c r="AA165" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB165" s="5"/>
       <c r="AC165" s="5"/>
@@ -10390,13 +11291,15 @@
         <v>31</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E166" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>275</v>
+      </c>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
       <c r="H166" s="4"/>
@@ -10420,14 +11323,14 @@
       <c r="V166" s="4"/>
       <c r="W166" s="4"/>
       <c r="X166" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y166" s="6">
         <v>0</v>
       </c>
       <c r="Z166" s="3"/>
       <c r="AA166" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB166" s="5"/>
       <c r="AC166" s="5"/>
@@ -10444,13 +11347,15 @@
         <v>31</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E167" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>277</v>
+      </c>
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
@@ -10474,14 +11379,14 @@
       <c r="V167" s="4"/>
       <c r="W167" s="4"/>
       <c r="X167" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y167" s="6">
         <v>0</v>
       </c>
       <c r="Z167" s="3"/>
       <c r="AA167" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB167" s="5"/>
       <c r="AC167" s="5"/>
@@ -10498,17 +11403,27 @@
         <v>31</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E168" s="4"/>
-      <c r="F168" s="4"/>
-      <c r="G168" s="4"/>
-      <c r="H168" s="4"/>
-      <c r="I168" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H168" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="I168" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J168" s="4"/>
       <c r="K168" s="4"/>
       <c r="L168" s="4">
@@ -10528,14 +11443,14 @@
       <c r="V168" s="4"/>
       <c r="W168" s="4"/>
       <c r="X168" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y168" s="6">
         <v>0</v>
       </c>
       <c r="Z168" s="3"/>
       <c r="AA168" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB168" s="5"/>
       <c r="AC168" s="5"/>
@@ -10552,17 +11467,27 @@
         <v>31</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E169" s="4"/>
-      <c r="F169" s="4"/>
-      <c r="G169" s="4"/>
-      <c r="H169" s="4"/>
-      <c r="I169" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H169" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="I169" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J169" s="4"/>
       <c r="K169" s="4"/>
       <c r="L169" s="4">
@@ -10582,14 +11507,14 @@
       <c r="V169" s="4"/>
       <c r="W169" s="4"/>
       <c r="X169" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y169" s="6">
         <v>0</v>
       </c>
       <c r="Z169" s="3"/>
       <c r="AA169" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB169" s="5"/>
       <c r="AC169" s="5"/>
@@ -10606,17 +11531,27 @@
         <v>31</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E170" s="4"/>
-      <c r="F170" s="4"/>
-      <c r="G170" s="4"/>
-      <c r="H170" s="4"/>
-      <c r="I170" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H170" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="I170" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="J170" s="4"/>
       <c r="K170" s="4"/>
       <c r="L170" s="4">
@@ -10636,7 +11571,7 @@
       <c r="V170" s="4"/>
       <c r="W170" s="4"/>
       <c r="X170" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y170" s="6">
         <v>0</v>
@@ -10645,7 +11580,7 @@
       <c r="AA170" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="AB170" s="9" t="s">
+      <c r="AB170" s="10" t="s">
         <v>104</v>
       </c>
       <c r="AC170" s="5"/>
@@ -10662,17 +11597,27 @@
         <v>31</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E171" s="4"/>
-      <c r="F171" s="4"/>
-      <c r="G171" s="4"/>
-      <c r="H171" s="4"/>
-      <c r="I171" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H171" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="I171" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="J171" s="4"/>
       <c r="K171" s="4"/>
       <c r="L171" s="4">
@@ -10692,16 +11637,16 @@
       <c r="V171" s="4"/>
       <c r="W171" s="4"/>
       <c r="X171" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y171" s="6">
         <v>0</v>
       </c>
       <c r="Z171" s="3"/>
       <c r="AA171" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB171" s="9"/>
+        <v>93</v>
+      </c>
+      <c r="AB171" s="10"/>
       <c r="AC171" s="5"/>
       <c r="AD171" s="5"/>
       <c r="AE171" s="5"/>
@@ -10716,17 +11661,27 @@
         <v>31</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>234</v>
+        <v>285</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E172" s="4"/>
-      <c r="F172" s="4"/>
-      <c r="G172" s="4"/>
-      <c r="H172" s="4"/>
-      <c r="I172" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="I172" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J172" s="4"/>
       <c r="K172" s="4"/>
       <c r="L172" s="4">
@@ -10746,14 +11701,14 @@
       <c r="V172" s="4"/>
       <c r="W172" s="4"/>
       <c r="X172" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y172" s="6">
         <v>0</v>
       </c>
       <c r="Z172" s="3"/>
       <c r="AA172" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB172" s="5"/>
       <c r="AC172" s="5"/>
@@ -10770,17 +11725,27 @@
         <v>31</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>235</v>
+        <v>286</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E173" s="4"/>
-      <c r="F173" s="4"/>
-      <c r="G173" s="4"/>
-      <c r="H173" s="4"/>
-      <c r="I173" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H173" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="I173" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J173" s="4"/>
       <c r="K173" s="4"/>
       <c r="L173" s="4">
@@ -10800,17 +11765,17 @@
       <c r="V173" s="4"/>
       <c r="W173" s="4"/>
       <c r="X173" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y173" s="6">
         <v>0</v>
       </c>
       <c r="Z173" s="3"/>
       <c r="AA173" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB173" s="9" t="s">
-        <v>118</v>
+        <v>123</v>
+      </c>
+      <c r="AB173" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="AC173" s="5"/>
       <c r="AD173" s="5"/>
@@ -10826,17 +11791,27 @@
         <v>31</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>236</v>
+        <v>287</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E174" s="4"/>
-      <c r="F174" s="4"/>
-      <c r="G174" s="4"/>
-      <c r="H174" s="4"/>
-      <c r="I174" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H174" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I174" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J174" s="4"/>
       <c r="K174" s="4"/>
       <c r="L174" s="4">
@@ -10856,16 +11831,16 @@
       <c r="V174" s="4"/>
       <c r="W174" s="4"/>
       <c r="X174" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y174" s="6">
         <v>0</v>
       </c>
       <c r="Z174" s="3"/>
       <c r="AA174" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB174" s="9"/>
+        <v>93</v>
+      </c>
+      <c r="AB174" s="10"/>
       <c r="AC174" s="5"/>
       <c r="AD174" s="5"/>
       <c r="AE174" s="5"/>
@@ -10880,17 +11855,27 @@
         <v>31</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E175" s="4"/>
-      <c r="F175" s="4"/>
-      <c r="G175" s="4"/>
-      <c r="H175" s="4"/>
-      <c r="I175" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H175" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I175" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J175" s="4"/>
       <c r="K175" s="4"/>
       <c r="L175" s="4">
@@ -10910,16 +11895,16 @@
       <c r="V175" s="4"/>
       <c r="W175" s="4"/>
       <c r="X175" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y175" s="6">
         <v>0</v>
       </c>
       <c r="Z175" s="3"/>
       <c r="AA175" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB175" s="9"/>
+        <v>93</v>
+      </c>
+      <c r="AB175" s="10"/>
       <c r="AC175" s="5"/>
       <c r="AD175" s="5"/>
       <c r="AE175" s="5"/>
@@ -10934,17 +11919,27 @@
         <v>31</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E176" s="4"/>
-      <c r="F176" s="4"/>
-      <c r="G176" s="4"/>
-      <c r="H176" s="4"/>
-      <c r="I176" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H176" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I176" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="J176" s="4"/>
       <c r="K176" s="4"/>
       <c r="L176" s="4">
@@ -10964,17 +11959,17 @@
       <c r="V176" s="4"/>
       <c r="W176" s="4"/>
       <c r="X176" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y176" s="6">
         <v>0</v>
       </c>
       <c r="Z176" s="3"/>
       <c r="AA176" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB176" s="9" t="s">
-        <v>118</v>
+        <v>123</v>
+      </c>
+      <c r="AB176" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="AC176" s="5"/>
       <c r="AD176" s="5"/>
@@ -10990,17 +11985,27 @@
         <v>31</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E177" s="4"/>
-      <c r="F177" s="4"/>
-      <c r="G177" s="4"/>
-      <c r="H177" s="4"/>
-      <c r="I177" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H177" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I177" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="J177" s="4"/>
       <c r="K177" s="4"/>
       <c r="L177" s="4">
@@ -11020,14 +12025,14 @@
       <c r="V177" s="4"/>
       <c r="W177" s="4"/>
       <c r="X177" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y177" s="6">
         <v>0</v>
       </c>
       <c r="Z177" s="3"/>
       <c r="AA177" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB177" s="5"/>
       <c r="AC177" s="5"/>
@@ -11044,17 +12049,27 @@
         <v>31</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>240</v>
+        <v>292</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E178" s="4"/>
-      <c r="F178" s="4"/>
-      <c r="G178" s="4"/>
-      <c r="H178" s="4"/>
-      <c r="I178" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H178" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I178" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J178" s="4"/>
       <c r="K178" s="4"/>
       <c r="L178" s="4">
@@ -11074,16 +12089,16 @@
       <c r="V178" s="4"/>
       <c r="W178" s="4"/>
       <c r="X178" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y178" s="6">
         <v>0</v>
       </c>
       <c r="Z178" s="3"/>
       <c r="AA178" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB178" s="9"/>
+        <v>93</v>
+      </c>
+      <c r="AB178" s="10"/>
       <c r="AC178" s="5"/>
       <c r="AD178" s="5"/>
       <c r="AE178" s="5"/>
@@ -11098,17 +12113,27 @@
         <v>31</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>241</v>
+        <v>293</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E179" s="4"/>
-      <c r="F179" s="4"/>
-      <c r="G179" s="4"/>
-      <c r="H179" s="4"/>
-      <c r="I179" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H179" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I179" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J179" s="4"/>
       <c r="K179" s="4"/>
       <c r="L179" s="4">
@@ -11128,7 +12153,7 @@
       <c r="V179" s="4"/>
       <c r="W179" s="4"/>
       <c r="X179" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y179" s="6">
         <v>0</v>
@@ -11137,7 +12162,7 @@
       <c r="AA179" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="AB179" s="9" t="s">
+      <c r="AB179" s="10" t="s">
         <v>104</v>
       </c>
       <c r="AC179" s="5"/>
@@ -11154,15 +12179,21 @@
         <v>31</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E180" s="4"/>
-      <c r="F180" s="4"/>
-      <c r="G180" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
@@ -11184,14 +12215,14 @@
       <c r="V180" s="4"/>
       <c r="W180" s="4"/>
       <c r="X180" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y180" s="6">
         <v>0</v>
       </c>
       <c r="Z180" s="3"/>
       <c r="AA180" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB180" s="5"/>
       <c r="AC180" s="5"/>
@@ -11208,15 +12239,21 @@
         <v>31</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>243</v>
+        <v>297</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E181" s="4"/>
-      <c r="F181" s="4"/>
-      <c r="G181" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
@@ -11238,14 +12275,14 @@
       <c r="V181" s="4"/>
       <c r="W181" s="4"/>
       <c r="X181" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y181" s="6">
         <v>0</v>
       </c>
       <c r="Z181" s="3"/>
       <c r="AA181" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB181" s="5"/>
       <c r="AC181" s="5"/>
@@ -11262,15 +12299,21 @@
         <v>31</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>244</v>
+        <v>298</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E182" s="4"/>
-      <c r="F182" s="4"/>
-      <c r="G182" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
@@ -11292,7 +12335,7 @@
       <c r="V182" s="4"/>
       <c r="W182" s="4"/>
       <c r="X182" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y182" s="6">
         <v>0</v>
@@ -11301,7 +12344,7 @@
       <c r="AA182" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="AB182" s="9" t="s">
+      <c r="AB182" s="10" t="s">
         <v>104</v>
       </c>
       <c r="AC182" s="5"/>
@@ -11318,15 +12361,21 @@
         <v>31</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E183" s="4"/>
-      <c r="F183" s="4"/>
-      <c r="G183" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H183" s="4"/>
       <c r="I183" s="4"/>
       <c r="J183" s="4"/>
@@ -11348,14 +12397,14 @@
       <c r="V183" s="4"/>
       <c r="W183" s="4"/>
       <c r="X183" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y183" s="6">
         <v>0</v>
       </c>
       <c r="Z183" s="3"/>
       <c r="AA183" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB183" s="5"/>
       <c r="AC183" s="5"/>
@@ -11372,13 +12421,15 @@
         <v>31</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E184" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>301</v>
+      </c>
       <c r="F184" s="4"/>
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
@@ -11402,14 +12453,14 @@
       <c r="V184" s="4"/>
       <c r="W184" s="4"/>
       <c r="X184" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y184" s="6">
         <v>0</v>
       </c>
       <c r="Z184" s="3"/>
       <c r="AA184" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB184" s="5"/>
       <c r="AC184" s="5"/>
@@ -11426,13 +12477,15 @@
         <v>31</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>247</v>
+        <v>302</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E185" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>303</v>
+      </c>
       <c r="F185" s="4"/>
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
@@ -11456,14 +12509,14 @@
       <c r="V185" s="4"/>
       <c r="W185" s="4"/>
       <c r="X185" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y185" s="6">
         <v>0</v>
       </c>
       <c r="Z185" s="3"/>
       <c r="AA185" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB185" s="5"/>
       <c r="AC185" s="5"/>
@@ -11480,11 +12533,11 @@
         <v>31</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>248</v>
+        <v>304</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4" t="s">
-        <v>249</v>
+        <v>305</v>
       </c>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
@@ -11517,10 +12570,10 @@
       </c>
       <c r="Z186" s="3"/>
       <c r="AA186" s="7" t="s">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="AB186" s="5" t="s">
-        <v>251</v>
+        <v>307</v>
       </c>
       <c r="AC186" s="5"/>
       <c r="AD186" s="5"/>
@@ -11536,11 +12589,11 @@
         <v>31</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>252</v>
+        <v>308</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4" t="s">
-        <v>249</v>
+        <v>305</v>
       </c>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
@@ -11573,10 +12626,10 @@
       </c>
       <c r="Z187" s="3"/>
       <c r="AA187" s="7" t="s">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="AB187" s="5" t="s">
-        <v>253</v>
+        <v>309</v>
       </c>
       <c r="AC187" s="5"/>
       <c r="AD187" s="5"/>
@@ -11592,11 +12645,11 @@
         <v>31</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>254</v>
+        <v>310</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4" t="s">
-        <v>249</v>
+        <v>305</v>
       </c>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
@@ -11629,10 +12682,10 @@
       </c>
       <c r="Z188" s="3"/>
       <c r="AA188" s="7" t="s">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="AB188" s="5" t="s">
-        <v>255</v>
+        <v>311</v>
       </c>
       <c r="AC188" s="5"/>
       <c r="AD188" s="5"/>
@@ -11648,11 +12701,11 @@
         <v>31</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>256</v>
+        <v>312</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4" t="s">
-        <v>249</v>
+        <v>305</v>
       </c>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
@@ -11685,10 +12738,10 @@
       </c>
       <c r="Z189" s="3"/>
       <c r="AA189" s="7" t="s">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="AB189" s="5" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="AC189" s="5"/>
       <c r="AD189" s="5"/>
@@ -11704,11 +12757,11 @@
         <v>31</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>258</v>
+        <v>314</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4" t="s">
-        <v>249</v>
+        <v>305</v>
       </c>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
@@ -11741,10 +12794,10 @@
       </c>
       <c r="Z190" s="3"/>
       <c r="AA190" s="7" t="s">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="AB190" s="5" t="s">
-        <v>259</v>
+        <v>315</v>
       </c>
       <c r="AC190" s="5"/>
       <c r="AD190" s="5"/>
@@ -11760,11 +12813,11 @@
         <v>31</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>260</v>
+        <v>316</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4" t="s">
-        <v>249</v>
+        <v>305</v>
       </c>
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
@@ -11797,10 +12850,10 @@
       </c>
       <c r="Z191" s="3"/>
       <c r="AA191" s="7" t="s">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="AB191" s="5" t="s">
-        <v>261</v>
+        <v>317</v>
       </c>
       <c r="AC191" s="5"/>
       <c r="AD191" s="5"/>
@@ -11816,11 +12869,11 @@
         <v>31</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>262</v>
+        <v>318</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4" t="s">
-        <v>249</v>
+        <v>305</v>
       </c>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
@@ -11853,10 +12906,10 @@
       </c>
       <c r="Z192" s="3"/>
       <c r="AA192" s="7" t="s">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="AB192" s="5" t="s">
-        <v>263</v>
+        <v>319</v>
       </c>
       <c r="AC192" s="5"/>
       <c r="AD192" s="5"/>
@@ -11872,11 +12925,11 @@
         <v>31</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>264</v>
+        <v>320</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4" t="s">
-        <v>249</v>
+        <v>305</v>
       </c>
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
@@ -11909,10 +12962,10 @@
       </c>
       <c r="Z193" s="3"/>
       <c r="AA193" s="7" t="s">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="AB193" s="5" t="s">
-        <v>265</v>
+        <v>321</v>
       </c>
       <c r="AC193" s="5"/>
       <c r="AD193" s="5"/>
@@ -11928,11 +12981,11 @@
         <v>31</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>266</v>
+        <v>322</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4" t="s">
-        <v>249</v>
+        <v>305</v>
       </c>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
@@ -11965,7 +13018,7 @@
       </c>
       <c r="Z194" s="3"/>
       <c r="AA194" s="7" t="s">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="AB194" s="5"/>
       <c r="AC194" s="5"/>
@@ -11981,12 +13034,12 @@
       <c r="A195" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B195" s="10" t="s">
-        <v>267</v>
+      <c r="B195" s="11" t="s">
+        <v>323</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4" t="s">
-        <v>249</v>
+        <v>305</v>
       </c>
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
@@ -12019,7 +13072,7 @@
       </c>
       <c r="Z195" s="3"/>
       <c r="AA195" s="7" t="s">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="AB195" s="5"/>
       <c r="AC195" s="5"/>
@@ -12035,12 +13088,12 @@
       <c r="A196" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B196" s="10" t="s">
-        <v>268</v>
+      <c r="B196" s="11" t="s">
+        <v>324</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4" t="s">
-        <v>249</v>
+        <v>305</v>
       </c>
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
@@ -12073,7 +13126,7 @@
       </c>
       <c r="Z196" s="3"/>
       <c r="AA196" s="7" t="s">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="AB196" s="5"/>
       <c r="AC196" s="5"/>
@@ -12089,12 +13142,12 @@
       <c r="A197" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B197" s="10" t="s">
-        <v>269</v>
+      <c r="B197" s="11" t="s">
+        <v>325</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4" t="s">
-        <v>249</v>
+        <v>305</v>
       </c>
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
@@ -12127,7 +13180,7 @@
       </c>
       <c r="Z197" s="3"/>
       <c r="AA197" s="7" t="s">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="AB197" s="5"/>
       <c r="AC197" s="5"/>
@@ -12141,14 +13194,14 @@
     </row>
     <row r="198" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
@@ -12177,7 +13230,7 @@
       <c r="Y198" s="4"/>
       <c r="Z198" s="4"/>
       <c r="AA198" s="5" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="AB198" s="5"/>
       <c r="AC198" s="5"/>
@@ -12191,14 +13244,14 @@
     </row>
     <row r="199" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>274</v>
+        <v>330</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
@@ -12227,7 +13280,7 @@
       <c r="Y199" s="4"/>
       <c r="Z199" s="4"/>
       <c r="AA199" s="5" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="AB199" s="5"/>
       <c r="AC199" s="5"/>
@@ -12241,14 +13294,14 @@
     </row>
     <row r="200" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
@@ -12277,7 +13330,7 @@
       <c r="Y200" s="4"/>
       <c r="Z200" s="4"/>
       <c r="AA200" s="5" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="AB200" s="5"/>
       <c r="AC200" s="5"/>
@@ -12291,14 +13344,14 @@
     </row>
     <row r="201" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>276</v>
+        <v>332</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
@@ -12327,7 +13380,7 @@
       <c r="Y201" s="4"/>
       <c r="Z201" s="4"/>
       <c r="AA201" s="5" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="AB201" s="5"/>
       <c r="AC201" s="5"/>
@@ -12341,14 +13394,14 @@
     </row>
     <row r="202" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>277</v>
+        <v>333</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
       <c r="E202" s="4"/>
       <c r="F202" s="4"/>
@@ -12377,7 +13430,7 @@
       <c r="Y202" s="4"/>
       <c r="Z202" s="4"/>
       <c r="AA202" s="5" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="AB202" s="5"/>
       <c r="AC202" s="5"/>
@@ -12391,14 +13444,14 @@
     </row>
     <row r="203" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>278</v>
+        <v>334</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
@@ -12427,7 +13480,7 @@
       <c r="Y203" s="4"/>
       <c r="Z203" s="4"/>
       <c r="AA203" s="5" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="AB203" s="5"/>
       <c r="AC203" s="5"/>
@@ -12441,14 +13494,14 @@
     </row>
     <row r="204" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>279</v>
+        <v>335</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
@@ -12477,7 +13530,7 @@
       <c r="Y204" s="4"/>
       <c r="Z204" s="4"/>
       <c r="AA204" s="5" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="AB204" s="5"/>
       <c r="AC204" s="5"/>
@@ -12491,14 +13544,14 @@
     </row>
     <row r="205" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>280</v>
+        <v>336</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
@@ -12527,7 +13580,7 @@
       <c r="Y205" s="4"/>
       <c r="Z205" s="4"/>
       <c r="AA205" s="5" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="AB205" s="5"/>
       <c r="AC205" s="5"/>
@@ -12541,14 +13594,14 @@
     </row>
     <row r="206" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>281</v>
+        <v>337</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
       <c r="E206" s="4"/>
       <c r="F206" s="4"/>
@@ -12577,7 +13630,7 @@
       <c r="Y206" s="4"/>
       <c r="Z206" s="4"/>
       <c r="AA206" s="5" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="AB206" s="5"/>
       <c r="AC206" s="5"/>
@@ -12591,14 +13644,14 @@
     </row>
     <row r="207" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>282</v>
+        <v>338</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
@@ -12627,7 +13680,7 @@
       <c r="Y207" s="4"/>
       <c r="Z207" s="4"/>
       <c r="AA207" s="5" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="AB207" s="5"/>
       <c r="AC207" s="5"/>
@@ -12641,14 +13694,14 @@
     </row>
     <row r="208" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>283</v>
+        <v>339</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
@@ -12677,7 +13730,7 @@
       <c r="Y208" s="4"/>
       <c r="Z208" s="4"/>
       <c r="AA208" s="5" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="AB208" s="5"/>
       <c r="AC208" s="5"/>
@@ -12691,14 +13744,14 @@
     </row>
     <row r="209" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>284</v>
+        <v>340</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
       <c r="E209" s="4"/>
       <c r="F209" s="4"/>
@@ -12727,7 +13780,7 @@
       <c r="Y209" s="4"/>
       <c r="Z209" s="4"/>
       <c r="AA209" s="5" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="AB209" s="5"/>
       <c r="AC209" s="5"/>
@@ -12741,14 +13794,14 @@
     </row>
     <row r="210" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>285</v>
+        <v>341</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
       <c r="E210" s="4"/>
       <c r="F210" s="4"/>
@@ -12777,7 +13830,7 @@
       <c r="Y210" s="4"/>
       <c r="Z210" s="4"/>
       <c r="AA210" s="5" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="AB210" s="5"/>
       <c r="AC210" s="5"/>
@@ -12791,14 +13844,14 @@
     </row>
     <row r="211" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>286</v>
+        <v>342</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
@@ -12827,7 +13880,7 @@
       <c r="Y211" s="4"/>
       <c r="Z211" s="4"/>
       <c r="AA211" s="5" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="AB211" s="5"/>
       <c r="AC211" s="5"/>
@@ -13035,35 +14088,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>287</v>
+        <v>343</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>288</v>
+        <v>98</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>289</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>291</v>
+        <v>101</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>288</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>292</v>
+        <v>346</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>293</v>
+        <v>347</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>291</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -13082,35 +14135,35 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>294</v>
+        <v>348</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>295</v>
+        <v>349</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>297</v>
+        <v>351</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/exe/TSV/Excel/TH66S_Enohara-Inspection-Indicater_UIList.xlsx
+++ b/exe/TSV/Excel/TH66S_Enohara-Inspection-Indicater_UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED9E4BD-0508-40D5-AD16-4E71163AFCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69125A6B-CBF4-4EA4-92FA-C5AB85A4F507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6735" yWindow="4755" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8235" yWindow="4335" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH66_江ノ原検車区表示盤_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="366">
   <si>
     <t>Type</t>
   </si>
@@ -954,7 +954,7 @@
     <t>上り146T</t>
   </si>
   <si>
-    <t>TH66SS_1RT_1</t>
+    <t>TH66S_1RT_1</t>
   </si>
   <si>
     <t>TH66S_1RT</t>
@@ -1467,46 +1467,88 @@
     <t>列車番号</t>
   </si>
   <si>
+    <t>TH67_TTC_Track1</t>
+  </si>
+  <si>
     <t>Image/Retsuban/Retsuban-Window.png</t>
   </si>
   <si>
     <t>列番新野崎2番線</t>
   </si>
   <si>
+    <t>TH67_TTC_Track2</t>
+  </si>
+  <si>
     <t>列番新野崎3番線</t>
   </si>
   <si>
+    <t>TH67_TTC_Track3</t>
+  </si>
+  <si>
     <t>列番新野崎4番線</t>
   </si>
   <si>
+    <t>TH67_TTC_Track4</t>
+  </si>
+  <si>
     <t>列番江ノ原検車区上り第2接近</t>
   </si>
   <si>
+    <t>TH66S_TTC_Up2</t>
+  </si>
+  <si>
     <t>列番江ノ原検車区上り第1接近</t>
   </si>
   <si>
+    <t>TH66S_TTC_Up1</t>
+  </si>
+  <si>
     <t>列番江ノ原検車区10番線</t>
   </si>
   <si>
+    <t>TH66S_TTC_Track10</t>
+  </si>
+  <si>
     <t>列番江ノ原検車区13番線</t>
   </si>
   <si>
+    <t>TH66S_TTC_Track13</t>
+  </si>
+  <si>
     <t>列番江ノ原検車区11番線</t>
   </si>
   <si>
+    <t>TH66S_TTC_Track11</t>
+  </si>
+  <si>
     <t>列番江ノ原検車区12番線</t>
   </si>
   <si>
+    <t>TH66S_TTC_Track12</t>
+  </si>
+  <si>
     <t>列番江ノ原検車区下り第1接近</t>
   </si>
   <si>
+    <t>TH66S_TTC_Down1</t>
+  </si>
+  <si>
     <t>列番大道寺3番線</t>
   </si>
   <si>
+    <t>TH65_TTC_Track3</t>
+  </si>
+  <si>
     <t>列番大道寺4番線</t>
   </si>
   <si>
+    <t>TH65_TTC_Track4</t>
+  </si>
+  <si>
     <t>列番大道寺下り場内</t>
+  </si>
+  <si>
+    <t>TH65_TTC_DownArr1</t>
   </si>
   <si>
     <t>Button</t>
@@ -2324,7 +2366,7 @@
         <v>1273</v>
       </c>
       <c r="M8" s="4">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -2820,7 +2862,7 @@
         <v>1291</v>
       </c>
       <c r="M17" s="4">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -2874,7 +2916,7 @@
         <v>1313</v>
       </c>
       <c r="M18" s="4">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -13203,7 +13245,9 @@
       <c r="D198" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="E198" s="4"/>
+      <c r="E198" s="6" t="s">
+        <v>329</v>
+      </c>
       <c r="F198" s="4"/>
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
@@ -13230,7 +13274,7 @@
       <c r="Y198" s="4"/>
       <c r="Z198" s="4"/>
       <c r="AA198" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AB198" s="5"/>
       <c r="AC198" s="5"/>
@@ -13247,13 +13291,15 @@
         <v>326</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="E199" s="4"/>
+      <c r="E199" s="6" t="s">
+        <v>332</v>
+      </c>
       <c r="F199" s="4"/>
       <c r="G199" s="4"/>
       <c r="H199" s="4"/>
@@ -13280,7 +13326,7 @@
       <c r="Y199" s="4"/>
       <c r="Z199" s="4"/>
       <c r="AA199" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AB199" s="5"/>
       <c r="AC199" s="5"/>
@@ -13297,13 +13343,15 @@
         <v>326</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="E200" s="4"/>
+      <c r="E200" s="6" t="s">
+        <v>334</v>
+      </c>
       <c r="F200" s="4"/>
       <c r="G200" s="4"/>
       <c r="H200" s="4"/>
@@ -13330,7 +13378,7 @@
       <c r="Y200" s="4"/>
       <c r="Z200" s="4"/>
       <c r="AA200" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AB200" s="5"/>
       <c r="AC200" s="5"/>
@@ -13347,13 +13395,15 @@
         <v>326</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="E201" s="4"/>
+      <c r="E201" s="6" t="s">
+        <v>336</v>
+      </c>
       <c r="F201" s="4"/>
       <c r="G201" s="4"/>
       <c r="H201" s="4"/>
@@ -13380,7 +13430,7 @@
       <c r="Y201" s="4"/>
       <c r="Z201" s="4"/>
       <c r="AA201" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AB201" s="5"/>
       <c r="AC201" s="5"/>
@@ -13397,13 +13447,15 @@
         <v>326</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="E202" s="4"/>
+      <c r="E202" s="6" t="s">
+        <v>338</v>
+      </c>
       <c r="F202" s="4"/>
       <c r="G202" s="4"/>
       <c r="H202" s="4"/>
@@ -13430,7 +13482,7 @@
       <c r="Y202" s="4"/>
       <c r="Z202" s="4"/>
       <c r="AA202" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AB202" s="5"/>
       <c r="AC202" s="5"/>
@@ -13447,13 +13499,15 @@
         <v>326</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="E203" s="4"/>
+      <c r="E203" s="6" t="s">
+        <v>340</v>
+      </c>
       <c r="F203" s="4"/>
       <c r="G203" s="4"/>
       <c r="H203" s="4"/>
@@ -13480,7 +13534,7 @@
       <c r="Y203" s="4"/>
       <c r="Z203" s="4"/>
       <c r="AA203" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AB203" s="5"/>
       <c r="AC203" s="5"/>
@@ -13497,13 +13551,15 @@
         <v>326</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="E204" s="4"/>
+      <c r="E204" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="F204" s="4"/>
       <c r="G204" s="4"/>
       <c r="H204" s="4"/>
@@ -13530,7 +13586,7 @@
       <c r="Y204" s="4"/>
       <c r="Z204" s="4"/>
       <c r="AA204" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AB204" s="5"/>
       <c r="AC204" s="5"/>
@@ -13547,13 +13603,15 @@
         <v>326</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="E205" s="4"/>
+      <c r="E205" s="6" t="s">
+        <v>344</v>
+      </c>
       <c r="F205" s="4"/>
       <c r="G205" s="4"/>
       <c r="H205" s="4"/>
@@ -13580,7 +13638,7 @@
       <c r="Y205" s="4"/>
       <c r="Z205" s="4"/>
       <c r="AA205" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AB205" s="5"/>
       <c r="AC205" s="5"/>
@@ -13597,13 +13655,15 @@
         <v>326</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="E206" s="4"/>
+      <c r="E206" s="6" t="s">
+        <v>346</v>
+      </c>
       <c r="F206" s="4"/>
       <c r="G206" s="4"/>
       <c r="H206" s="4"/>
@@ -13630,7 +13690,7 @@
       <c r="Y206" s="4"/>
       <c r="Z206" s="4"/>
       <c r="AA206" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AB206" s="5"/>
       <c r="AC206" s="5"/>
@@ -13647,13 +13707,15 @@
         <v>326</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="E207" s="4"/>
+      <c r="E207" s="6" t="s">
+        <v>348</v>
+      </c>
       <c r="F207" s="4"/>
       <c r="G207" s="4"/>
       <c r="H207" s="4"/>
@@ -13680,7 +13742,7 @@
       <c r="Y207" s="4"/>
       <c r="Z207" s="4"/>
       <c r="AA207" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AB207" s="5"/>
       <c r="AC207" s="5"/>
@@ -13697,13 +13759,15 @@
         <v>326</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="E208" s="4"/>
+      <c r="E208" s="8" t="s">
+        <v>350</v>
+      </c>
       <c r="F208" s="4"/>
       <c r="G208" s="4"/>
       <c r="H208" s="4"/>
@@ -13730,7 +13794,7 @@
       <c r="Y208" s="4"/>
       <c r="Z208" s="4"/>
       <c r="AA208" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AB208" s="5"/>
       <c r="AC208" s="5"/>
@@ -13747,13 +13811,15 @@
         <v>326</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="E209" s="4"/>
+      <c r="E209" s="6" t="s">
+        <v>352</v>
+      </c>
       <c r="F209" s="4"/>
       <c r="G209" s="4"/>
       <c r="H209" s="4"/>
@@ -13780,7 +13846,7 @@
       <c r="Y209" s="4"/>
       <c r="Z209" s="4"/>
       <c r="AA209" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AB209" s="5"/>
       <c r="AC209" s="5"/>
@@ -13797,13 +13863,15 @@
         <v>326</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="E210" s="4"/>
+      <c r="E210" s="6" t="s">
+        <v>354</v>
+      </c>
       <c r="F210" s="4"/>
       <c r="G210" s="4"/>
       <c r="H210" s="4"/>
@@ -13830,7 +13898,7 @@
       <c r="Y210" s="4"/>
       <c r="Z210" s="4"/>
       <c r="AA210" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AB210" s="5"/>
       <c r="AC210" s="5"/>
@@ -13847,13 +13915,15 @@
         <v>326</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="E211" s="4"/>
+      <c r="E211" s="6" t="s">
+        <v>356</v>
+      </c>
       <c r="F211" s="4"/>
       <c r="G211" s="4"/>
       <c r="H211" s="4"/>
@@ -13880,7 +13950,7 @@
       <c r="Y211" s="4"/>
       <c r="Z211" s="4"/>
       <c r="AA211" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AB211" s="5"/>
       <c r="AC211" s="5"/>
@@ -14088,18 +14158,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>98</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>101</v>
@@ -14110,10 +14180,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>101</v>
@@ -14135,28 +14205,28 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>

--- a/exe/TSV/Excel/TH66S_Enohara-Inspection-Indicater_UIList.xlsx
+++ b/exe/TSV/Excel/TH66S_Enohara-Inspection-Indicater_UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69125A6B-CBF4-4EA4-92FA-C5AB85A4F507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAF82B1-7FB0-449B-BCD0-2C35FAFA3712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8235" yWindow="4335" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10050" yWindow="5235" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH66_江ノ原検車区表示盤_UIList" sheetId="1" r:id="rId1"/>
@@ -9760,7 +9760,7 @@
         <v>226</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H139" s="4" t="s">
         <v>225</v>
@@ -9826,7 +9826,7 @@
         <v>226</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H140" s="4" t="s">
         <v>225</v>
@@ -9890,7 +9890,7 @@
         <v>226</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H141" s="4" t="s">
         <v>225</v>
@@ -9954,7 +9954,7 @@
         <v>226</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H142" s="4" t="s">
         <v>225</v>

--- a/exe/TSV/Excel/TH66S_Enohara-Inspection-Indicater_UIList.xlsx
+++ b/exe/TSV/Excel/TH66S_Enohara-Inspection-Indicater_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAF82B1-7FB0-449B-BCD0-2C35FAFA3712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4EC732-3542-4462-93D3-C4B9ABED49AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10050" yWindow="5235" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7665" yWindow="4800" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH66_江ノ原検車区表示盤_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="379">
   <si>
     <t>Type</t>
   </si>
@@ -1392,13 +1392,43 @@
     <t>TH65_XT</t>
   </si>
   <si>
+    <t>転てつ不良_1_R</t>
+  </si>
+  <si>
+    <t>状態表示灯</t>
+  </si>
+  <si>
+    <t>TH66S_W-FAILURE</t>
+  </si>
+  <si>
+    <t>Image/Light/N.png,Image/Light/R.png</t>
+  </si>
+  <si>
+    <t>転てつ不良灯左上</t>
+  </si>
+  <si>
+    <t>転てつ不良_2_R</t>
+  </si>
+  <si>
+    <t>転てつ不良灯右上</t>
+  </si>
+  <si>
+    <t>転てつ不良_3_R</t>
+  </si>
+  <si>
+    <t>転てつ不良灯左下</t>
+  </si>
+  <si>
+    <t>転てつ不良_4_R</t>
+  </si>
+  <si>
+    <t>転てつ不良灯右下</t>
+  </si>
+  <si>
     <t>停電_1_R</t>
   </si>
   <si>
-    <t>状態表示灯</t>
-  </si>
-  <si>
-    <t>Image/Light/N.png,Image/Light/R.png</t>
+    <t>TH66S_PWR-FAILURE</t>
   </si>
   <si>
     <t>停電灯左上</t>
@@ -1425,6 +1455,9 @@
     <t>CTC故障_1_R</t>
   </si>
   <si>
+    <t>TH66S_CTC-FAILURE</t>
+  </si>
+  <si>
     <t>CTC故障灯右上</t>
   </si>
   <si>
@@ -1449,10 +1482,16 @@
     <t>鎖錠60秒_1_R</t>
   </si>
   <si>
+    <t>TH66S_60TEK</t>
+  </si>
+  <si>
     <t>鎖錠60秒_2_R</t>
   </si>
   <si>
     <t>鎖錠30秒_1_R</t>
+  </si>
+  <si>
+    <t>TH66S_30TEK</t>
   </si>
   <si>
     <t>鎖錠30秒_2_R</t>
@@ -1896,7 +1935,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ215"/>
+  <dimension ref="A1:AJ219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -12581,7 +12620,9 @@
       <c r="D186" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="E186" s="4"/>
+      <c r="E186" s="6" t="s">
+        <v>306</v>
+      </c>
       <c r="F186" s="4"/>
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
@@ -12589,7 +12630,7 @@
       <c r="J186" s="4"/>
       <c r="K186" s="4"/>
       <c r="L186" s="4">
-        <v>773</v>
+        <v>705</v>
       </c>
       <c r="M186" s="4">
         <v>45</v>
@@ -12612,10 +12653,10 @@
       </c>
       <c r="Z186" s="3"/>
       <c r="AA186" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AB186" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AC186" s="5"/>
       <c r="AD186" s="5"/>
@@ -12631,13 +12672,15 @@
         <v>31</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="E187" s="4"/>
+      <c r="E187" s="6" t="s">
+        <v>306</v>
+      </c>
       <c r="F187" s="4"/>
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
@@ -12645,7 +12688,7 @@
       <c r="J187" s="4"/>
       <c r="K187" s="4"/>
       <c r="L187" s="4">
-        <v>783</v>
+        <v>715</v>
       </c>
       <c r="M187" s="4">
         <v>45</v>
@@ -12668,10 +12711,10 @@
       </c>
       <c r="Z187" s="3"/>
       <c r="AA187" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AB187" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AC187" s="5"/>
       <c r="AD187" s="5"/>
@@ -12687,13 +12730,15 @@
         <v>31</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="E188" s="4"/>
+      <c r="E188" s="6" t="s">
+        <v>306</v>
+      </c>
       <c r="F188" s="4"/>
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
@@ -12701,7 +12746,7 @@
       <c r="J188" s="4"/>
       <c r="K188" s="4"/>
       <c r="L188" s="4">
-        <v>773</v>
+        <v>705</v>
       </c>
       <c r="M188" s="4">
         <v>55</v>
@@ -12724,10 +12769,10 @@
       </c>
       <c r="Z188" s="3"/>
       <c r="AA188" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AB188" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AC188" s="5"/>
       <c r="AD188" s="5"/>
@@ -12743,13 +12788,15 @@
         <v>31</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="E189" s="4"/>
+      <c r="E189" s="6" t="s">
+        <v>306</v>
+      </c>
       <c r="F189" s="4"/>
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
@@ -12757,7 +12804,7 @@
       <c r="J189" s="4"/>
       <c r="K189" s="4"/>
       <c r="L189" s="4">
-        <v>783</v>
+        <v>715</v>
       </c>
       <c r="M189" s="4">
         <v>55</v>
@@ -12780,10 +12827,10 @@
       </c>
       <c r="Z189" s="3"/>
       <c r="AA189" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AB189" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AC189" s="5"/>
       <c r="AD189" s="5"/>
@@ -12799,13 +12846,15 @@
         <v>31</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="E190" s="4"/>
+      <c r="E190" s="6" t="s">
+        <v>316</v>
+      </c>
       <c r="F190" s="4"/>
       <c r="G190" s="4"/>
       <c r="H190" s="4"/>
@@ -12813,7 +12862,7 @@
       <c r="J190" s="4"/>
       <c r="K190" s="4"/>
       <c r="L190" s="4">
-        <v>821</v>
+        <v>763</v>
       </c>
       <c r="M190" s="4">
         <v>45</v>
@@ -12836,10 +12885,10 @@
       </c>
       <c r="Z190" s="3"/>
       <c r="AA190" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AB190" s="5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AC190" s="5"/>
       <c r="AD190" s="5"/>
@@ -12855,13 +12904,15 @@
         <v>31</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="E191" s="4"/>
+      <c r="E191" s="6" t="s">
+        <v>316</v>
+      </c>
       <c r="F191" s="4"/>
       <c r="G191" s="4"/>
       <c r="H191" s="4"/>
@@ -12869,7 +12920,7 @@
       <c r="J191" s="4"/>
       <c r="K191" s="4"/>
       <c r="L191" s="4">
-        <v>831</v>
+        <v>773</v>
       </c>
       <c r="M191" s="4">
         <v>45</v>
@@ -12892,10 +12943,10 @@
       </c>
       <c r="Z191" s="3"/>
       <c r="AA191" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AB191" s="5" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AC191" s="5"/>
       <c r="AD191" s="5"/>
@@ -12911,13 +12962,15 @@
         <v>31</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="E192" s="4"/>
+      <c r="E192" s="6" t="s">
+        <v>316</v>
+      </c>
       <c r="F192" s="4"/>
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
@@ -12925,7 +12978,7 @@
       <c r="J192" s="4"/>
       <c r="K192" s="4"/>
       <c r="L192" s="4">
-        <v>821</v>
+        <v>763</v>
       </c>
       <c r="M192" s="4">
         <v>55</v>
@@ -12948,10 +13001,10 @@
       </c>
       <c r="Z192" s="3"/>
       <c r="AA192" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AB192" s="5" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AC192" s="5"/>
       <c r="AD192" s="5"/>
@@ -12967,13 +13020,15 @@
         <v>31</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="E193" s="4"/>
+      <c r="E193" s="6" t="s">
+        <v>316</v>
+      </c>
       <c r="F193" s="4"/>
       <c r="G193" s="4"/>
       <c r="H193" s="4"/>
@@ -12981,7 +13036,7 @@
       <c r="J193" s="4"/>
       <c r="K193" s="4"/>
       <c r="L193" s="4">
-        <v>831</v>
+        <v>773</v>
       </c>
       <c r="M193" s="4">
         <v>55</v>
@@ -13004,10 +13059,10 @@
       </c>
       <c r="Z193" s="3"/>
       <c r="AA193" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AB193" s="5" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AC193" s="5"/>
       <c r="AD193" s="5"/>
@@ -13023,13 +13078,15 @@
         <v>31</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="E194" s="4"/>
+      <c r="E194" s="6" t="s">
+        <v>325</v>
+      </c>
       <c r="F194" s="4"/>
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
@@ -13037,10 +13094,10 @@
       <c r="J194" s="4"/>
       <c r="K194" s="4"/>
       <c r="L194" s="4">
-        <v>1079</v>
+        <v>821</v>
       </c>
       <c r="M194" s="4">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N194" s="4"/>
       <c r="O194" s="4"/>
@@ -13060,9 +13117,11 @@
       </c>
       <c r="Z194" s="3"/>
       <c r="AA194" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="AB194" s="5"/>
+        <v>307</v>
+      </c>
+      <c r="AB194" s="5" t="s">
+        <v>326</v>
+      </c>
       <c r="AC194" s="5"/>
       <c r="AD194" s="5"/>
       <c r="AE194" s="5"/>
@@ -13076,14 +13135,16 @@
       <c r="A195" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B195" s="11" t="s">
-        <v>323</v>
+      <c r="B195" s="4" t="s">
+        <v>327</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="E195" s="4"/>
+      <c r="E195" s="6" t="s">
+        <v>325</v>
+      </c>
       <c r="F195" s="4"/>
       <c r="G195" s="4"/>
       <c r="H195" s="4"/>
@@ -13091,10 +13152,10 @@
       <c r="J195" s="4"/>
       <c r="K195" s="4"/>
       <c r="L195" s="4">
-        <v>1089</v>
+        <v>831</v>
       </c>
       <c r="M195" s="4">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N195" s="4"/>
       <c r="O195" s="4"/>
@@ -13114,9 +13175,11 @@
       </c>
       <c r="Z195" s="3"/>
       <c r="AA195" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="AB195" s="5"/>
+        <v>307</v>
+      </c>
+      <c r="AB195" s="5" t="s">
+        <v>328</v>
+      </c>
       <c r="AC195" s="5"/>
       <c r="AD195" s="5"/>
       <c r="AE195" s="5"/>
@@ -13130,14 +13193,16 @@
       <c r="A196" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B196" s="11" t="s">
-        <v>324</v>
+      <c r="B196" s="4" t="s">
+        <v>329</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="E196" s="4"/>
+      <c r="E196" s="6" t="s">
+        <v>325</v>
+      </c>
       <c r="F196" s="4"/>
       <c r="G196" s="4"/>
       <c r="H196" s="4"/>
@@ -13145,10 +13210,10 @@
       <c r="J196" s="4"/>
       <c r="K196" s="4"/>
       <c r="L196" s="4">
-        <v>1117</v>
+        <v>821</v>
       </c>
       <c r="M196" s="4">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N196" s="4"/>
       <c r="O196" s="4"/>
@@ -13168,9 +13233,11 @@
       </c>
       <c r="Z196" s="3"/>
       <c r="AA196" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="AB196" s="5"/>
+        <v>307</v>
+      </c>
+      <c r="AB196" s="5" t="s">
+        <v>330</v>
+      </c>
       <c r="AC196" s="5"/>
       <c r="AD196" s="5"/>
       <c r="AE196" s="5"/>
@@ -13184,14 +13251,16 @@
       <c r="A197" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B197" s="11" t="s">
-        <v>325</v>
+      <c r="B197" s="4" t="s">
+        <v>331</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="E197" s="4"/>
+      <c r="E197" s="6" t="s">
+        <v>325</v>
+      </c>
       <c r="F197" s="4"/>
       <c r="G197" s="4"/>
       <c r="H197" s="4"/>
@@ -13199,10 +13268,10 @@
       <c r="J197" s="4"/>
       <c r="K197" s="4"/>
       <c r="L197" s="4">
-        <v>1127</v>
+        <v>831</v>
       </c>
       <c r="M197" s="4">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N197" s="4"/>
       <c r="O197" s="4"/>
@@ -13222,9 +13291,11 @@
       </c>
       <c r="Z197" s="3"/>
       <c r="AA197" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="AB197" s="5"/>
+        <v>307</v>
+      </c>
+      <c r="AB197" s="5" t="s">
+        <v>332</v>
+      </c>
       <c r="AC197" s="5"/>
       <c r="AD197" s="5"/>
       <c r="AE197" s="5"/>
@@ -13236,17 +13307,17 @@
     </row>
     <row r="198" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>326</v>
+        <v>31</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F198" s="4"/>
       <c r="G198" s="4"/>
@@ -13255,10 +13326,10 @@
       <c r="J198" s="4"/>
       <c r="K198" s="4"/>
       <c r="L198" s="4">
-        <v>112</v>
+        <v>1079</v>
       </c>
       <c r="M198" s="4">
-        <v>491</v>
+        <v>50</v>
       </c>
       <c r="N198" s="4"/>
       <c r="O198" s="4"/>
@@ -13270,11 +13341,15 @@
       <c r="U198" s="4"/>
       <c r="V198" s="4"/>
       <c r="W198" s="4"/>
-      <c r="X198" s="4"/>
-      <c r="Y198" s="4"/>
-      <c r="Z198" s="4"/>
-      <c r="AA198" s="5" t="s">
-        <v>330</v>
+      <c r="X198" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y198" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z198" s="3"/>
+      <c r="AA198" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="AB198" s="5"/>
       <c r="AC198" s="5"/>
@@ -13288,17 +13363,17 @@
     </row>
     <row r="199" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>331</v>
+        <v>31</v>
+      </c>
+      <c r="B199" s="11" t="s">
+        <v>335</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F199" s="4"/>
       <c r="G199" s="4"/>
@@ -13307,10 +13382,10 @@
       <c r="J199" s="4"/>
       <c r="K199" s="4"/>
       <c r="L199" s="4">
-        <v>112</v>
+        <v>1089</v>
       </c>
       <c r="M199" s="4">
-        <v>537</v>
+        <v>50</v>
       </c>
       <c r="N199" s="4"/>
       <c r="O199" s="4"/>
@@ -13322,11 +13397,15 @@
       <c r="U199" s="4"/>
       <c r="V199" s="4"/>
       <c r="W199" s="4"/>
-      <c r="X199" s="4"/>
-      <c r="Y199" s="4"/>
-      <c r="Z199" s="4"/>
-      <c r="AA199" s="5" t="s">
-        <v>330</v>
+      <c r="X199" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y199" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z199" s="3"/>
+      <c r="AA199" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="AB199" s="5"/>
       <c r="AC199" s="5"/>
@@ -13340,17 +13419,17 @@
     </row>
     <row r="200" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>333</v>
+        <v>31</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>336</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F200" s="4"/>
       <c r="G200" s="4"/>
@@ -13359,10 +13438,10 @@
       <c r="J200" s="4"/>
       <c r="K200" s="4"/>
       <c r="L200" s="4">
-        <v>112</v>
+        <v>1117</v>
       </c>
       <c r="M200" s="4">
-        <v>583</v>
+        <v>50</v>
       </c>
       <c r="N200" s="4"/>
       <c r="O200" s="4"/>
@@ -13374,11 +13453,15 @@
       <c r="U200" s="4"/>
       <c r="V200" s="4"/>
       <c r="W200" s="4"/>
-      <c r="X200" s="4"/>
-      <c r="Y200" s="4"/>
-      <c r="Z200" s="4"/>
-      <c r="AA200" s="5" t="s">
-        <v>330</v>
+      <c r="X200" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y200" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z200" s="3"/>
+      <c r="AA200" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="AB200" s="5"/>
       <c r="AC200" s="5"/>
@@ -13392,17 +13475,17 @@
     </row>
     <row r="201" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>335</v>
+        <v>31</v>
+      </c>
+      <c r="B201" s="11" t="s">
+        <v>338</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F201" s="4"/>
       <c r="G201" s="4"/>
@@ -13411,10 +13494,10 @@
       <c r="J201" s="4"/>
       <c r="K201" s="4"/>
       <c r="L201" s="4">
-        <v>112</v>
+        <v>1127</v>
       </c>
       <c r="M201" s="4">
-        <v>629</v>
+        <v>50</v>
       </c>
       <c r="N201" s="4"/>
       <c r="O201" s="4"/>
@@ -13426,11 +13509,15 @@
       <c r="U201" s="4"/>
       <c r="V201" s="4"/>
       <c r="W201" s="4"/>
-      <c r="X201" s="4"/>
-      <c r="Y201" s="4"/>
-      <c r="Z201" s="4"/>
-      <c r="AA201" s="5" t="s">
-        <v>330</v>
+      <c r="X201" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y201" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z201" s="3"/>
+      <c r="AA201" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="AB201" s="5"/>
       <c r="AC201" s="5"/>
@@ -13444,17 +13531,17 @@
     </row>
     <row r="202" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F202" s="4"/>
       <c r="G202" s="4"/>
@@ -13463,10 +13550,10 @@
       <c r="J202" s="4"/>
       <c r="K202" s="4"/>
       <c r="L202" s="4">
-        <v>262</v>
+        <v>112</v>
       </c>
       <c r="M202" s="4">
-        <v>537</v>
+        <v>491</v>
       </c>
       <c r="N202" s="4"/>
       <c r="O202" s="4"/>
@@ -13482,7 +13569,7 @@
       <c r="Y202" s="4"/>
       <c r="Z202" s="4"/>
       <c r="AA202" s="5" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="AB202" s="5"/>
       <c r="AC202" s="5"/>
@@ -13496,17 +13583,17 @@
     </row>
     <row r="203" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F203" s="4"/>
       <c r="G203" s="4"/>
@@ -13515,7 +13602,7 @@
       <c r="J203" s="4"/>
       <c r="K203" s="4"/>
       <c r="L203" s="4">
-        <v>412</v>
+        <v>112</v>
       </c>
       <c r="M203" s="4">
         <v>537</v>
@@ -13534,7 +13621,7 @@
       <c r="Y203" s="4"/>
       <c r="Z203" s="4"/>
       <c r="AA203" s="5" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="AB203" s="5"/>
       <c r="AC203" s="5"/>
@@ -13548,17 +13635,17 @@
     </row>
     <row r="204" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="F204" s="4"/>
       <c r="G204" s="4"/>
@@ -13567,10 +13654,10 @@
       <c r="J204" s="4"/>
       <c r="K204" s="4"/>
       <c r="L204" s="4">
-        <v>622</v>
+        <v>112</v>
       </c>
       <c r="M204" s="4">
-        <v>676</v>
+        <v>583</v>
       </c>
       <c r="N204" s="4"/>
       <c r="O204" s="4"/>
@@ -13586,7 +13673,7 @@
       <c r="Y204" s="4"/>
       <c r="Z204" s="4"/>
       <c r="AA204" s="5" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="AB204" s="5"/>
       <c r="AC204" s="5"/>
@@ -13600,17 +13687,17 @@
     </row>
     <row r="205" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="F205" s="4"/>
       <c r="G205" s="4"/>
@@ -13619,10 +13706,10 @@
       <c r="J205" s="4"/>
       <c r="K205" s="4"/>
       <c r="L205" s="4">
-        <v>952</v>
+        <v>112</v>
       </c>
       <c r="M205" s="4">
-        <v>676</v>
+        <v>629</v>
       </c>
       <c r="N205" s="4"/>
       <c r="O205" s="4"/>
@@ -13638,7 +13725,7 @@
       <c r="Y205" s="4"/>
       <c r="Z205" s="4"/>
       <c r="AA205" s="5" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="AB205" s="5"/>
       <c r="AC205" s="5"/>
@@ -13652,17 +13739,17 @@
     </row>
     <row r="206" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F206" s="4"/>
       <c r="G206" s="4"/>
@@ -13671,10 +13758,10 @@
       <c r="J206" s="4"/>
       <c r="K206" s="4"/>
       <c r="L206" s="4">
-        <v>1376</v>
+        <v>262</v>
       </c>
       <c r="M206" s="4">
-        <v>616</v>
+        <v>537</v>
       </c>
       <c r="N206" s="4"/>
       <c r="O206" s="4"/>
@@ -13690,7 +13777,7 @@
       <c r="Y206" s="4"/>
       <c r="Z206" s="4"/>
       <c r="AA206" s="5" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="AB206" s="5"/>
       <c r="AC206" s="5"/>
@@ -13704,17 +13791,17 @@
     </row>
     <row r="207" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="F207" s="4"/>
       <c r="G207" s="4"/>
@@ -13723,10 +13810,10 @@
       <c r="J207" s="4"/>
       <c r="K207" s="4"/>
       <c r="L207" s="4">
-        <v>1376</v>
+        <v>412</v>
       </c>
       <c r="M207" s="4">
-        <v>676</v>
+        <v>537</v>
       </c>
       <c r="N207" s="4"/>
       <c r="O207" s="4"/>
@@ -13742,7 +13829,7 @@
       <c r="Y207" s="4"/>
       <c r="Z207" s="4"/>
       <c r="AA207" s="5" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="AB207" s="5"/>
       <c r="AC207" s="5"/>
@@ -13756,17 +13843,17 @@
     </row>
     <row r="208" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="E208" s="8" t="s">
-        <v>350</v>
+        <v>341</v>
+      </c>
+      <c r="E208" s="6" t="s">
+        <v>355</v>
       </c>
       <c r="F208" s="4"/>
       <c r="G208" s="4"/>
@@ -13775,10 +13862,10 @@
       <c r="J208" s="4"/>
       <c r="K208" s="4"/>
       <c r="L208" s="4">
-        <v>1385</v>
+        <v>622</v>
       </c>
       <c r="M208" s="4">
-        <v>949</v>
+        <v>676</v>
       </c>
       <c r="N208" s="4"/>
       <c r="O208" s="4"/>
@@ -13794,7 +13881,7 @@
       <c r="Y208" s="4"/>
       <c r="Z208" s="4"/>
       <c r="AA208" s="5" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="AB208" s="5"/>
       <c r="AC208" s="5"/>
@@ -13808,17 +13895,17 @@
     </row>
     <row r="209" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F209" s="4"/>
       <c r="G209" s="4"/>
@@ -13827,10 +13914,10 @@
       <c r="J209" s="4"/>
       <c r="K209" s="4"/>
       <c r="L209" s="4">
-        <v>1535</v>
+        <v>952</v>
       </c>
       <c r="M209" s="4">
-        <v>903</v>
+        <v>676</v>
       </c>
       <c r="N209" s="4"/>
       <c r="O209" s="4"/>
@@ -13846,7 +13933,7 @@
       <c r="Y209" s="4"/>
       <c r="Z209" s="4"/>
       <c r="AA209" s="5" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="AB209" s="5"/>
       <c r="AC209" s="5"/>
@@ -13860,17 +13947,17 @@
     </row>
     <row r="210" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="F210" s="4"/>
       <c r="G210" s="4"/>
@@ -13879,10 +13966,10 @@
       <c r="J210" s="4"/>
       <c r="K210" s="4"/>
       <c r="L210" s="4">
-        <v>1535</v>
+        <v>1376</v>
       </c>
       <c r="M210" s="4">
-        <v>949</v>
+        <v>616</v>
       </c>
       <c r="N210" s="4"/>
       <c r="O210" s="4"/>
@@ -13898,7 +13985,7 @@
       <c r="Y210" s="4"/>
       <c r="Z210" s="4"/>
       <c r="AA210" s="5" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="AB210" s="5"/>
       <c r="AC210" s="5"/>
@@ -13912,17 +13999,17 @@
     </row>
     <row r="211" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F211" s="4"/>
       <c r="G211" s="4"/>
@@ -13931,10 +14018,10 @@
       <c r="J211" s="4"/>
       <c r="K211" s="4"/>
       <c r="L211" s="4">
-        <v>1685</v>
+        <v>1376</v>
       </c>
       <c r="M211" s="4">
-        <v>926</v>
+        <v>676</v>
       </c>
       <c r="N211" s="4"/>
       <c r="O211" s="4"/>
@@ -13950,7 +14037,7 @@
       <c r="Y211" s="4"/>
       <c r="Z211" s="4"/>
       <c r="AA211" s="5" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="AB211" s="5"/>
       <c r="AC211" s="5"/>
@@ -13963,19 +14050,31 @@
       <c r="AJ211" s="5"/>
     </row>
     <row r="212" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A212" s="4"/>
-      <c r="B212" s="4"/>
+      <c r="A212" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="C212" s="4"/>
-      <c r="D212" s="4"/>
-      <c r="E212" s="4"/>
+      <c r="D212" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E212" s="8" t="s">
+        <v>363</v>
+      </c>
       <c r="F212" s="4"/>
       <c r="G212" s="4"/>
       <c r="H212" s="4"/>
       <c r="I212" s="4"/>
       <c r="J212" s="4"/>
       <c r="K212" s="4"/>
-      <c r="L212" s="4"/>
-      <c r="M212" s="4"/>
+      <c r="L212" s="4">
+        <v>1385</v>
+      </c>
+      <c r="M212" s="4">
+        <v>949</v>
+      </c>
       <c r="N212" s="4"/>
       <c r="O212" s="4"/>
       <c r="P212" s="4"/>
@@ -13989,7 +14088,9 @@
       <c r="X212" s="4"/>
       <c r="Y212" s="4"/>
       <c r="Z212" s="4"/>
-      <c r="AA212" s="5"/>
+      <c r="AA212" s="5" t="s">
+        <v>343</v>
+      </c>
       <c r="AB212" s="5"/>
       <c r="AC212" s="5"/>
       <c r="AD212" s="5"/>
@@ -14001,19 +14102,31 @@
       <c r="AJ212" s="5"/>
     </row>
     <row r="213" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A213" s="4"/>
-      <c r="B213" s="4"/>
+      <c r="A213" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>364</v>
+      </c>
       <c r="C213" s="4"/>
-      <c r="D213" s="4"/>
-      <c r="E213" s="4"/>
+      <c r="D213" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E213" s="6" t="s">
+        <v>365</v>
+      </c>
       <c r="F213" s="4"/>
       <c r="G213" s="4"/>
       <c r="H213" s="4"/>
       <c r="I213" s="4"/>
       <c r="J213" s="4"/>
       <c r="K213" s="4"/>
-      <c r="L213" s="4"/>
-      <c r="M213" s="4"/>
+      <c r="L213" s="4">
+        <v>1535</v>
+      </c>
+      <c r="M213" s="4">
+        <v>903</v>
+      </c>
       <c r="N213" s="4"/>
       <c r="O213" s="4"/>
       <c r="P213" s="4"/>
@@ -14027,7 +14140,9 @@
       <c r="X213" s="4"/>
       <c r="Y213" s="4"/>
       <c r="Z213" s="4"/>
-      <c r="AA213" s="5"/>
+      <c r="AA213" s="5" t="s">
+        <v>343</v>
+      </c>
       <c r="AB213" s="5"/>
       <c r="AC213" s="5"/>
       <c r="AD213" s="5"/>
@@ -14039,19 +14154,31 @@
       <c r="AJ213" s="5"/>
     </row>
     <row r="214" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A214" s="4"/>
-      <c r="B214" s="4"/>
+      <c r="A214" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="C214" s="4"/>
-      <c r="D214" s="4"/>
-      <c r="E214" s="4"/>
+      <c r="D214" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E214" s="6" t="s">
+        <v>367</v>
+      </c>
       <c r="F214" s="4"/>
       <c r="G214" s="4"/>
       <c r="H214" s="4"/>
       <c r="I214" s="4"/>
       <c r="J214" s="4"/>
       <c r="K214" s="4"/>
-      <c r="L214" s="4"/>
-      <c r="M214" s="4"/>
+      <c r="L214" s="4">
+        <v>1535</v>
+      </c>
+      <c r="M214" s="4">
+        <v>949</v>
+      </c>
       <c r="N214" s="4"/>
       <c r="O214" s="4"/>
       <c r="P214" s="4"/>
@@ -14065,7 +14192,9 @@
       <c r="X214" s="4"/>
       <c r="Y214" s="4"/>
       <c r="Z214" s="4"/>
-      <c r="AA214" s="5"/>
+      <c r="AA214" s="5" t="s">
+        <v>343</v>
+      </c>
       <c r="AB214" s="5"/>
       <c r="AC214" s="5"/>
       <c r="AD214" s="5"/>
@@ -14077,19 +14206,31 @@
       <c r="AJ214" s="5"/>
     </row>
     <row r="215" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A215" s="4"/>
-      <c r="B215" s="4"/>
+      <c r="A215" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>368</v>
+      </c>
       <c r="C215" s="4"/>
-      <c r="D215" s="4"/>
-      <c r="E215" s="4"/>
+      <c r="D215" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E215" s="6" t="s">
+        <v>369</v>
+      </c>
       <c r="F215" s="4"/>
       <c r="G215" s="4"/>
       <c r="H215" s="4"/>
       <c r="I215" s="4"/>
       <c r="J215" s="4"/>
       <c r="K215" s="4"/>
-      <c r="L215" s="4"/>
-      <c r="M215" s="4"/>
+      <c r="L215" s="4">
+        <v>1685</v>
+      </c>
+      <c r="M215" s="4">
+        <v>926</v>
+      </c>
       <c r="N215" s="4"/>
       <c r="O215" s="4"/>
       <c r="P215" s="4"/>
@@ -14103,7 +14244,9 @@
       <c r="X215" s="4"/>
       <c r="Y215" s="4"/>
       <c r="Z215" s="4"/>
-      <c r="AA215" s="5"/>
+      <c r="AA215" s="5" t="s">
+        <v>343</v>
+      </c>
       <c r="AB215" s="5"/>
       <c r="AC215" s="5"/>
       <c r="AD215" s="5"/>
@@ -14113,6 +14256,158 @@
       <c r="AH215" s="5"/>
       <c r="AI215" s="5"/>
       <c r="AJ215" s="5"/>
+    </row>
+    <row r="216" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A216" s="4"/>
+      <c r="B216" s="4"/>
+      <c r="C216" s="4"/>
+      <c r="D216" s="4"/>
+      <c r="E216" s="4"/>
+      <c r="F216" s="4"/>
+      <c r="G216" s="4"/>
+      <c r="H216" s="4"/>
+      <c r="I216" s="4"/>
+      <c r="J216" s="4"/>
+      <c r="K216" s="4"/>
+      <c r="L216" s="4"/>
+      <c r="M216" s="4"/>
+      <c r="N216" s="4"/>
+      <c r="O216" s="4"/>
+      <c r="P216" s="4"/>
+      <c r="Q216" s="4"/>
+      <c r="R216" s="4"/>
+      <c r="S216" s="4"/>
+      <c r="T216" s="4"/>
+      <c r="U216" s="4"/>
+      <c r="V216" s="4"/>
+      <c r="W216" s="4"/>
+      <c r="X216" s="4"/>
+      <c r="Y216" s="4"/>
+      <c r="Z216" s="4"/>
+      <c r="AA216" s="5"/>
+      <c r="AB216" s="5"/>
+      <c r="AC216" s="5"/>
+      <c r="AD216" s="5"/>
+      <c r="AE216" s="5"/>
+      <c r="AF216" s="5"/>
+      <c r="AG216" s="5"/>
+      <c r="AH216" s="5"/>
+      <c r="AI216" s="5"/>
+      <c r="AJ216" s="5"/>
+    </row>
+    <row r="217" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A217" s="4"/>
+      <c r="B217" s="4"/>
+      <c r="C217" s="4"/>
+      <c r="D217" s="4"/>
+      <c r="E217" s="4"/>
+      <c r="F217" s="4"/>
+      <c r="G217" s="4"/>
+      <c r="H217" s="4"/>
+      <c r="I217" s="4"/>
+      <c r="J217" s="4"/>
+      <c r="K217" s="4"/>
+      <c r="L217" s="4"/>
+      <c r="M217" s="4"/>
+      <c r="N217" s="4"/>
+      <c r="O217" s="4"/>
+      <c r="P217" s="4"/>
+      <c r="Q217" s="4"/>
+      <c r="R217" s="4"/>
+      <c r="S217" s="4"/>
+      <c r="T217" s="4"/>
+      <c r="U217" s="4"/>
+      <c r="V217" s="4"/>
+      <c r="W217" s="4"/>
+      <c r="X217" s="4"/>
+      <c r="Y217" s="4"/>
+      <c r="Z217" s="4"/>
+      <c r="AA217" s="5"/>
+      <c r="AB217" s="5"/>
+      <c r="AC217" s="5"/>
+      <c r="AD217" s="5"/>
+      <c r="AE217" s="5"/>
+      <c r="AF217" s="5"/>
+      <c r="AG217" s="5"/>
+      <c r="AH217" s="5"/>
+      <c r="AI217" s="5"/>
+      <c r="AJ217" s="5"/>
+    </row>
+    <row r="218" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A218" s="4"/>
+      <c r="B218" s="4"/>
+      <c r="C218" s="4"/>
+      <c r="D218" s="4"/>
+      <c r="E218" s="4"/>
+      <c r="F218" s="4"/>
+      <c r="G218" s="4"/>
+      <c r="H218" s="4"/>
+      <c r="I218" s="4"/>
+      <c r="J218" s="4"/>
+      <c r="K218" s="4"/>
+      <c r="L218" s="4"/>
+      <c r="M218" s="4"/>
+      <c r="N218" s="4"/>
+      <c r="O218" s="4"/>
+      <c r="P218" s="4"/>
+      <c r="Q218" s="4"/>
+      <c r="R218" s="4"/>
+      <c r="S218" s="4"/>
+      <c r="T218" s="4"/>
+      <c r="U218" s="4"/>
+      <c r="V218" s="4"/>
+      <c r="W218" s="4"/>
+      <c r="X218" s="4"/>
+      <c r="Y218" s="4"/>
+      <c r="Z218" s="4"/>
+      <c r="AA218" s="5"/>
+      <c r="AB218" s="5"/>
+      <c r="AC218" s="5"/>
+      <c r="AD218" s="5"/>
+      <c r="AE218" s="5"/>
+      <c r="AF218" s="5"/>
+      <c r="AG218" s="5"/>
+      <c r="AH218" s="5"/>
+      <c r="AI218" s="5"/>
+      <c r="AJ218" s="5"/>
+    </row>
+    <row r="219" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A219" s="4"/>
+      <c r="B219" s="4"/>
+      <c r="C219" s="4"/>
+      <c r="D219" s="4"/>
+      <c r="E219" s="4"/>
+      <c r="F219" s="4"/>
+      <c r="G219" s="4"/>
+      <c r="H219" s="4"/>
+      <c r="I219" s="4"/>
+      <c r="J219" s="4"/>
+      <c r="K219" s="4"/>
+      <c r="L219" s="4"/>
+      <c r="M219" s="4"/>
+      <c r="N219" s="4"/>
+      <c r="O219" s="4"/>
+      <c r="P219" s="4"/>
+      <c r="Q219" s="4"/>
+      <c r="R219" s="4"/>
+      <c r="S219" s="4"/>
+      <c r="T219" s="4"/>
+      <c r="U219" s="4"/>
+      <c r="V219" s="4"/>
+      <c r="W219" s="4"/>
+      <c r="X219" s="4"/>
+      <c r="Y219" s="4"/>
+      <c r="Z219" s="4"/>
+      <c r="AA219" s="5"/>
+      <c r="AB219" s="5"/>
+      <c r="AC219" s="5"/>
+      <c r="AD219" s="5"/>
+      <c r="AE219" s="5"/>
+      <c r="AF219" s="5"/>
+      <c r="AG219" s="5"/>
+      <c r="AH219" s="5"/>
+      <c r="AI219" s="5"/>
+      <c r="AJ219" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -14125,19 +14420,19 @@
           <x14:formula1>
             <xm:f>入力規則!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G215 I2:I215</xm:sqref>
+          <xm:sqref>G2:G219 I2:I219</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>入力規則!$A$1:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A215</xm:sqref>
+          <xm:sqref>A2:A219</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>入力規則!$C:$C</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K215</xm:sqref>
+          <xm:sqref>K2:K219</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -14158,18 +14453,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>98</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>101</v>
@@ -14180,10 +14475,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>101</v>
@@ -14205,35 +14500,35 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/exe/TSV/Excel/TH66S_Enohara-Inspection-Indicater_UIList.xlsx
+++ b/exe/TSV/Excel/TH66S_Enohara-Inspection-Indicater_UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4EC732-3542-4462-93D3-C4B9ABED49AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9D90B7-753D-490F-AD2F-2F219A63CA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7665" yWindow="4800" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10845" yWindow="4725" windowWidth="23940" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH66_江ノ原検車区表示盤_UIList" sheetId="1" r:id="rId1"/>
@@ -582,7 +582,7 @@
     <t>信号機表示灯</t>
   </si>
   <si>
-    <t>江ノ原検車区上り場内1RA</t>
+    <t>江ノ原信号場上り場内1RA</t>
   </si>
   <si>
     <t>0,1</t>
@@ -597,43 +597,43 @@
     <t>1RB_G</t>
   </si>
   <si>
-    <t>江ノ原検車区上り場内1RB</t>
+    <t>江ノ原信号場上り場内1RB</t>
   </si>
   <si>
     <t>1RC_G</t>
   </si>
   <si>
-    <t>江ノ原検車区上り場内1RC</t>
+    <t>江ノ原信号場上り場内1RC</t>
   </si>
   <si>
     <t>2R_G</t>
   </si>
   <si>
-    <t>江ノ原検車区上り出発2R</t>
+    <t>江ノ原信号場上り出発2R</t>
   </si>
   <si>
     <t>3L_G</t>
   </si>
   <si>
-    <t>江ノ原検車区下り出発3L</t>
+    <t>江ノ原信号場下り出発3L</t>
   </si>
   <si>
     <t>4L_G</t>
   </si>
   <si>
-    <t>江ノ原検車区下り出発4L</t>
+    <t>江ノ原信号場下り出発4L</t>
   </si>
   <si>
     <t>5LD_G</t>
   </si>
   <si>
-    <t>江ノ原検車区下り場内5LD</t>
+    <t>江ノ原信号場下り場内5LD</t>
   </si>
   <si>
     <t>5LE_G</t>
   </si>
   <si>
-    <t>江ノ原検車区下り場内5LE</t>
+    <t>江ノ原信号場下り場内5LE</t>
   </si>
   <si>
     <t>11R_Y</t>
@@ -648,7 +648,7 @@
     <t>13R_Y</t>
   </si>
   <si>
-    <t>江ノ原入換13R</t>
+    <t>江ノ原信号場入換13R</t>
   </si>
   <si>
     <t>14R_Y</t>
@@ -657,7 +657,7 @@
     <t>15L_Y</t>
   </si>
   <si>
-    <t>江ノ原入換15L</t>
+    <t>江ノ原信号場入換15L</t>
   </si>
   <si>
     <t>15LZ_Y</t>
@@ -666,7 +666,7 @@
     <t>16L_Y</t>
   </si>
   <si>
-    <t>江ノ原入換16L</t>
+    <t>江ノ原信号場入換16L</t>
   </si>
   <si>
     <t>16LZ_Y</t>

--- a/exe/TSV/Excel/TH66S_Enohara-Inspection-Indicater_UIList.xlsx
+++ b/exe/TSV/Excel/TH66S_Enohara-Inspection-Indicater_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9D90B7-753D-490F-AD2F-2F219A63CA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E56AC6-4F27-4216-93D3-655242493998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10845" yWindow="4725" windowWidth="23940" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6165" yWindow="3900" windowWidth="23940" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH66_江ノ原検車区表示盤_UIList" sheetId="1" r:id="rId1"/>
@@ -582,7 +582,7 @@
     <t>信号機表示灯</t>
   </si>
   <si>
-    <t>江ノ原信号場上り場内1RA</t>
+    <t>江ノ原検車区上り場内1RA</t>
   </si>
   <si>
     <t>0,1</t>
@@ -597,43 +597,43 @@
     <t>1RB_G</t>
   </si>
   <si>
-    <t>江ノ原信号場上り場内1RB</t>
+    <t>江ノ原検車区上り場内1RB</t>
   </si>
   <si>
     <t>1RC_G</t>
   </si>
   <si>
-    <t>江ノ原信号場上り場内1RC</t>
+    <t>江ノ原検車区上り場内1RC</t>
   </si>
   <si>
     <t>2R_G</t>
   </si>
   <si>
-    <t>江ノ原信号場上り出発2R</t>
+    <t>江ノ原検車区上り出発2R</t>
   </si>
   <si>
     <t>3L_G</t>
   </si>
   <si>
-    <t>江ノ原信号場下り出発3L</t>
+    <t>江ノ原検車区下り出発3L</t>
   </si>
   <si>
     <t>4L_G</t>
   </si>
   <si>
-    <t>江ノ原信号場下り出発4L</t>
+    <t>江ノ原検車区下り出発4L</t>
   </si>
   <si>
     <t>5LD_G</t>
   </si>
   <si>
-    <t>江ノ原信号場下り場内5LD</t>
+    <t>江ノ原検車区下り場内5LD</t>
   </si>
   <si>
     <t>5LE_G</t>
   </si>
   <si>
-    <t>江ノ原信号場下り場内5LE</t>
+    <t>江ノ原検車区下り場内5LE</t>
   </si>
   <si>
     <t>11R_Y</t>
@@ -648,7 +648,7 @@
     <t>13R_Y</t>
   </si>
   <si>
-    <t>江ノ原信号場入換13R</t>
+    <t>江ノ原入換13R</t>
   </si>
   <si>
     <t>14R_Y</t>
@@ -657,7 +657,7 @@
     <t>15L_Y</t>
   </si>
   <si>
-    <t>江ノ原信号場入換15L</t>
+    <t>江ノ原入換15L</t>
   </si>
   <si>
     <t>15LZ_Y</t>
@@ -666,7 +666,7 @@
     <t>16L_Y</t>
   </si>
   <si>
-    <t>江ノ原信号場入換16L</t>
+    <t>江ノ原入換16L</t>
   </si>
   <si>
     <t>16LZ_Y</t>

--- a/exe/TSV/Excel/TH66S_Enohara-Inspection-Indicater_UIList.xlsx
+++ b/exe/TSV/Excel/TH66S_Enohara-Inspection-Indicater_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E56AC6-4F27-4216-93D3-655242493998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A71EDF-0EAB-47DE-9CE8-8B5F485FD6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6165" yWindow="3900" windowWidth="23940" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6855" yWindow="4590" windowWidth="23940" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH66_江ノ原検車区表示盤_UIList" sheetId="1" r:id="rId1"/>
@@ -582,7 +582,7 @@
     <t>信号機表示灯</t>
   </si>
   <si>
-    <t>江ノ原検車区上り場内1RA</t>
+    <t>江ノ原信号場上り場内1RA</t>
   </si>
   <si>
     <t>0,1</t>
@@ -597,43 +597,43 @@
     <t>1RB_G</t>
   </si>
   <si>
-    <t>江ノ原検車区上り場内1RB</t>
+    <t>江ノ原信号場上り場内1RB</t>
   </si>
   <si>
     <t>1RC_G</t>
   </si>
   <si>
-    <t>江ノ原検車区上り場内1RC</t>
+    <t>江ノ原信号場上り場内1RC</t>
   </si>
   <si>
     <t>2R_G</t>
   </si>
   <si>
-    <t>江ノ原検車区上り出発2R</t>
+    <t>江ノ原信号場上り出発2R</t>
   </si>
   <si>
     <t>3L_G</t>
   </si>
   <si>
-    <t>江ノ原検車区下り出発3L</t>
+    <t>江ノ原信号場下り出発3L</t>
   </si>
   <si>
     <t>4L_G</t>
   </si>
   <si>
-    <t>江ノ原検車区下り出発4L</t>
+    <t>江ノ原信号場下り出発4L</t>
   </si>
   <si>
     <t>5LD_G</t>
   </si>
   <si>
-    <t>江ノ原検車区下り場内5LD</t>
+    <t>江ノ原信号場下り場内5LD</t>
   </si>
   <si>
     <t>5LE_G</t>
   </si>
   <si>
-    <t>江ノ原検車区下り場内5LE</t>
+    <t>江ノ原信号場下り場内5LE</t>
   </si>
   <si>
     <t>11R_Y</t>
@@ -648,7 +648,7 @@
     <t>13R_Y</t>
   </si>
   <si>
-    <t>江ノ原入換13R</t>
+    <t>江ノ原信号場入換13R</t>
   </si>
   <si>
     <t>14R_Y</t>
@@ -657,7 +657,7 @@
     <t>15L_Y</t>
   </si>
   <si>
-    <t>江ノ原入換15L</t>
+    <t>江ノ原信号場入換15L</t>
   </si>
   <si>
     <t>15LZ_Y</t>
@@ -666,7 +666,7 @@
     <t>16L_Y</t>
   </si>
   <si>
-    <t>江ノ原入換16L</t>
+    <t>江ノ原信号場入換16L</t>
   </si>
   <si>
     <t>16LZ_Y</t>

--- a/exe/TSV/Excel/TH66S_Enohara-Inspection-Indicater_UIList.xlsx
+++ b/exe/TSV/Excel/TH66S_Enohara-Inspection-Indicater_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A71EDF-0EAB-47DE-9CE8-8B5F485FD6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46B51D7-E814-4DE5-8F21-FBE32266567D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6855" yWindow="4590" windowWidth="23940" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7545" yWindow="5280" windowWidth="23940" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH66_江ノ原検車区表示盤_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="380">
   <si>
     <t>Type</t>
   </si>
@@ -637,6 +637,9 @@
   </si>
   <si>
     <t>11R_Y</t>
+  </si>
+  <si>
+    <t>江ノ原信号場入換11R</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/Y.png</t>
@@ -2560,7 +2563,9 @@
       <c r="D11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -2591,7 +2596,7 @@
       </c>
       <c r="Z11" s="3"/>
       <c r="AA11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
@@ -2608,7 +2613,7 @@
         <v>31</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
@@ -2645,7 +2650,7 @@
       </c>
       <c r="Z12" s="3"/>
       <c r="AA12" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
@@ -2662,14 +2667,14 @@
         <v>31</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -2701,7 +2706,7 @@
       </c>
       <c r="Z13" s="3"/>
       <c r="AA13" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
@@ -2718,7 +2723,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
@@ -2755,7 +2760,7 @@
       </c>
       <c r="Z14" s="3"/>
       <c r="AA14" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
@@ -2772,14 +2777,14 @@
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -2811,7 +2816,7 @@
       </c>
       <c r="Z15" s="3"/>
       <c r="AA15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
@@ -2828,7 +2833,7 @@
         <v>31</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
@@ -2865,7 +2870,7 @@
       </c>
       <c r="Z16" s="3"/>
       <c r="AA16" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
@@ -2882,14 +2887,14 @@
         <v>31</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -2921,7 +2926,7 @@
       </c>
       <c r="Z17" s="3"/>
       <c r="AA17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
@@ -2938,7 +2943,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
@@ -2975,7 +2980,7 @@
       </c>
       <c r="Z18" s="3"/>
       <c r="AA18" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
@@ -2990,7 +2995,7 @@
     <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -3030,7 +3035,7 @@
     <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -3070,7 +3075,7 @@
     <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -3110,7 +3115,7 @@
     <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -3150,7 +3155,7 @@
     <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -3190,7 +3195,7 @@
     <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -3230,7 +3235,7 @@
     <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -3270,7 +3275,7 @@
     <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -3310,7 +3315,7 @@
     <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -3350,7 +3355,7 @@
     <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -3390,7 +3395,7 @@
     <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -3430,7 +3435,7 @@
     <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -3470,7 +3475,7 @@
     <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -3510,7 +3515,7 @@
     <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -3550,7 +3555,7 @@
     <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -3590,7 +3595,7 @@
     <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -3630,7 +3635,7 @@
     <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -3670,7 +3675,7 @@
     <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -3710,7 +3715,7 @@
     <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -3750,7 +3755,7 @@
     <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -3790,7 +3795,7 @@
     <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -3830,7 +3835,7 @@
     <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -3870,7 +3875,7 @@
     <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -3910,7 +3915,7 @@
     <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -3950,7 +3955,7 @@
     <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -3992,14 +3997,14 @@
         <v>31</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -4024,17 +4029,17 @@
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
       <c r="X44" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y44" s="6">
         <v>0</v>
       </c>
       <c r="Z44" s="3"/>
       <c r="AA44" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB44" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
@@ -4050,20 +4055,20 @@
         <v>31</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
@@ -4086,14 +4091,14 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
       <c r="X45" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y45" s="6">
         <v>0</v>
       </c>
       <c r="Z45" s="3"/>
       <c r="AA45" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB45" s="5"/>
       <c r="AC45" s="5"/>
@@ -4110,20 +4115,20 @@
         <v>31</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
@@ -4146,14 +4151,14 @@
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
       <c r="X46" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y46" s="6">
         <v>0</v>
       </c>
       <c r="Z46" s="3"/>
       <c r="AA46" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB46" s="5"/>
       <c r="AC46" s="5"/>
@@ -4170,20 +4175,20 @@
         <v>31</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
@@ -4206,14 +4211,14 @@
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
       <c r="X47" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y47" s="6">
         <v>0</v>
       </c>
       <c r="Z47" s="3"/>
       <c r="AA47" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB47" s="5"/>
       <c r="AC47" s="5"/>
@@ -4230,20 +4235,20 @@
         <v>31</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -4266,17 +4271,17 @@
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
       <c r="X48" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y48" s="6">
         <v>0</v>
       </c>
       <c r="Z48" s="3"/>
       <c r="AA48" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AB48" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AC48" s="5"/>
       <c r="AD48" s="5"/>
@@ -4292,14 +4297,14 @@
         <v>31</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -4324,14 +4329,14 @@
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
       <c r="X49" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y49" s="6">
         <v>0</v>
       </c>
       <c r="Z49" s="3"/>
       <c r="AA49" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB49" s="5"/>
       <c r="AC49" s="5"/>
@@ -4348,14 +4353,14 @@
         <v>31</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -4380,14 +4385,14 @@
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
       <c r="X50" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y50" s="6">
         <v>0</v>
       </c>
       <c r="Z50" s="3"/>
       <c r="AA50" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB50" s="5"/>
       <c r="AC50" s="5"/>
@@ -4404,14 +4409,14 @@
         <v>31</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
@@ -4436,14 +4441,14 @@
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
       <c r="X51" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y51" s="6">
         <v>0</v>
       </c>
       <c r="Z51" s="3"/>
       <c r="AA51" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB51" s="5"/>
       <c r="AC51" s="5"/>
@@ -4460,14 +4465,14 @@
         <v>31</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
@@ -4492,14 +4497,14 @@
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
       <c r="X52" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y52" s="6">
         <v>0</v>
       </c>
       <c r="Z52" s="3"/>
       <c r="AA52" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB52" s="5"/>
       <c r="AC52" s="5"/>
@@ -4516,14 +4521,14 @@
         <v>31</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -4548,14 +4553,14 @@
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
       <c r="X53" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y53" s="6">
         <v>0</v>
       </c>
       <c r="Z53" s="3"/>
       <c r="AA53" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB53" s="5"/>
       <c r="AC53" s="5"/>
@@ -4572,14 +4577,14 @@
         <v>31</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -4604,14 +4609,14 @@
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
       <c r="X54" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y54" s="6">
         <v>0</v>
       </c>
       <c r="Z54" s="3"/>
       <c r="AA54" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB54" s="5"/>
       <c r="AC54" s="5"/>
@@ -4628,14 +4633,14 @@
         <v>31</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -4660,14 +4665,14 @@
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
       <c r="X55" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y55" s="6">
         <v>0</v>
       </c>
       <c r="Z55" s="3"/>
       <c r="AA55" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB55" s="5"/>
       <c r="AC55" s="5"/>
@@ -4684,14 +4689,14 @@
         <v>31</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -4716,14 +4721,14 @@
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
       <c r="X56" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y56" s="6">
         <v>0</v>
       </c>
       <c r="Z56" s="3"/>
       <c r="AA56" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB56" s="5"/>
       <c r="AC56" s="5"/>
@@ -4740,20 +4745,20 @@
         <v>31</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
@@ -4776,14 +4781,14 @@
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
       <c r="X57" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y57" s="6">
         <v>0</v>
       </c>
       <c r="Z57" s="3"/>
       <c r="AA57" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB57" s="5"/>
       <c r="AC57" s="5"/>
@@ -4800,20 +4805,20 @@
         <v>31</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
@@ -4836,14 +4841,14 @@
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
       <c r="X58" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y58" s="6">
         <v>0</v>
       </c>
       <c r="Z58" s="3"/>
       <c r="AA58" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB58" s="5"/>
       <c r="AC58" s="5"/>
@@ -4860,20 +4865,20 @@
         <v>31</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
@@ -4896,14 +4901,14 @@
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
       <c r="X59" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y59" s="6">
         <v>0</v>
       </c>
       <c r="Z59" s="3"/>
       <c r="AA59" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB59" s="5"/>
       <c r="AC59" s="5"/>
@@ -4920,20 +4925,20 @@
         <v>31</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
@@ -4956,17 +4961,17 @@
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
       <c r="X60" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y60" s="6">
         <v>0</v>
       </c>
       <c r="Z60" s="3"/>
       <c r="AA60" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AB60" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AC60" s="5"/>
       <c r="AD60" s="5"/>
@@ -4982,20 +4987,20 @@
         <v>31</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
@@ -5018,14 +5023,14 @@
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
       <c r="X61" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y61" s="6">
         <v>0</v>
       </c>
       <c r="Z61" s="3"/>
       <c r="AA61" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB61" s="5"/>
       <c r="AC61" s="5"/>
@@ -5042,20 +5047,20 @@
         <v>31</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
@@ -5078,14 +5083,14 @@
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
       <c r="X62" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y62" s="6">
         <v>0</v>
       </c>
       <c r="Z62" s="3"/>
       <c r="AA62" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB62" s="5"/>
       <c r="AC62" s="5"/>
@@ -5102,20 +5107,20 @@
         <v>31</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
@@ -5138,17 +5143,17 @@
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
       <c r="X63" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y63" s="6">
         <v>0</v>
       </c>
       <c r="Z63" s="3"/>
       <c r="AA63" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AB63" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AC63" s="5"/>
       <c r="AD63" s="5"/>
@@ -5164,20 +5169,20 @@
         <v>31</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
@@ -5200,14 +5205,14 @@
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
       <c r="X64" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y64" s="6">
         <v>0</v>
       </c>
       <c r="Z64" s="3"/>
       <c r="AA64" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB64" s="5"/>
       <c r="AC64" s="5"/>
@@ -5224,20 +5229,20 @@
         <v>31</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
@@ -5260,14 +5265,14 @@
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
       <c r="X65" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y65" s="6">
         <v>0</v>
       </c>
       <c r="Z65" s="3"/>
       <c r="AA65" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB65" s="5"/>
       <c r="AC65" s="5"/>
@@ -5284,20 +5289,20 @@
         <v>31</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
@@ -5320,14 +5325,14 @@
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
       <c r="X66" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y66" s="6">
         <v>0</v>
       </c>
       <c r="Z66" s="3"/>
       <c r="AA66" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB66" s="5"/>
       <c r="AC66" s="5"/>
@@ -5344,20 +5349,20 @@
         <v>31</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
@@ -5380,14 +5385,14 @@
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
       <c r="X67" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y67" s="6">
         <v>0</v>
       </c>
       <c r="Z67" s="3"/>
       <c r="AA67" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB67" s="5"/>
       <c r="AC67" s="5"/>
@@ -5404,20 +5409,20 @@
         <v>31</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
@@ -5440,17 +5445,17 @@
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
       <c r="X68" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y68" s="6">
         <v>0</v>
       </c>
       <c r="Z68" s="3"/>
       <c r="AA68" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AB68" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AC68" s="5"/>
       <c r="AD68" s="5"/>
@@ -5466,20 +5471,20 @@
         <v>31</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
@@ -5502,14 +5507,14 @@
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
       <c r="X69" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y69" s="6">
         <v>0</v>
       </c>
       <c r="Z69" s="3"/>
       <c r="AA69" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB69" s="5"/>
       <c r="AC69" s="5"/>
@@ -5526,20 +5531,20 @@
         <v>31</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
@@ -5562,14 +5567,14 @@
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
       <c r="X70" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y70" s="6">
         <v>0</v>
       </c>
       <c r="Z70" s="3"/>
       <c r="AA70" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB70" s="5"/>
       <c r="AC70" s="5"/>
@@ -5586,20 +5591,20 @@
         <v>31</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
@@ -5622,14 +5627,14 @@
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
       <c r="X71" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y71" s="6">
         <v>0</v>
       </c>
       <c r="Z71" s="3"/>
       <c r="AA71" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB71" s="5"/>
       <c r="AC71" s="5"/>
@@ -5646,20 +5651,20 @@
         <v>31</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
@@ -5682,14 +5687,14 @@
       <c r="V72" s="4"/>
       <c r="W72" s="4"/>
       <c r="X72" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y72" s="6">
         <v>0</v>
       </c>
       <c r="Z72" s="3"/>
       <c r="AA72" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB72" s="5"/>
       <c r="AC72" s="5"/>
@@ -5706,20 +5711,20 @@
         <v>31</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
@@ -5742,17 +5747,17 @@
       <c r="V73" s="4"/>
       <c r="W73" s="4"/>
       <c r="X73" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y73" s="6">
         <v>0</v>
       </c>
       <c r="Z73" s="3"/>
       <c r="AA73" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AB73" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AC73" s="5"/>
       <c r="AD73" s="5"/>
@@ -5768,20 +5773,20 @@
         <v>31</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
@@ -5804,14 +5809,14 @@
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
       <c r="X74" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y74" s="6">
         <v>0</v>
       </c>
       <c r="Z74" s="3"/>
       <c r="AA74" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB74" s="5"/>
       <c r="AC74" s="5"/>
@@ -5828,20 +5833,20 @@
         <v>31</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
@@ -5864,14 +5869,14 @@
       <c r="V75" s="4"/>
       <c r="W75" s="4"/>
       <c r="X75" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y75" s="6">
         <v>0</v>
       </c>
       <c r="Z75" s="3"/>
       <c r="AA75" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB75" s="5"/>
       <c r="AC75" s="5"/>
@@ -5888,20 +5893,20 @@
         <v>31</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
@@ -5924,17 +5929,17 @@
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
       <c r="X76" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y76" s="6">
         <v>0</v>
       </c>
       <c r="Z76" s="3"/>
       <c r="AA76" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AB76" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AC76" s="5"/>
       <c r="AD76" s="5"/>
@@ -5950,20 +5955,20 @@
         <v>31</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
@@ -5986,14 +5991,14 @@
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
       <c r="X77" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y77" s="6">
         <v>0</v>
       </c>
       <c r="Z77" s="3"/>
       <c r="AA77" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB77" s="5"/>
       <c r="AC77" s="5"/>
@@ -6010,14 +6015,14 @@
         <v>31</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
@@ -6042,14 +6047,14 @@
       <c r="V78" s="4"/>
       <c r="W78" s="4"/>
       <c r="X78" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y78" s="6">
         <v>0</v>
       </c>
       <c r="Z78" s="3"/>
       <c r="AA78" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB78" s="5"/>
       <c r="AC78" s="5"/>
@@ -6066,14 +6071,14 @@
         <v>31</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
@@ -6098,14 +6103,14 @@
       <c r="V79" s="4"/>
       <c r="W79" s="4"/>
       <c r="X79" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y79" s="6">
         <v>0</v>
       </c>
       <c r="Z79" s="3"/>
       <c r="AA79" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB79" s="5"/>
       <c r="AC79" s="5"/>
@@ -6122,14 +6127,14 @@
         <v>31</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
@@ -6154,14 +6159,14 @@
       <c r="V80" s="4"/>
       <c r="W80" s="4"/>
       <c r="X80" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y80" s="6">
         <v>0</v>
       </c>
       <c r="Z80" s="3"/>
       <c r="AA80" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB80" s="5"/>
       <c r="AC80" s="5"/>
@@ -6178,14 +6183,14 @@
         <v>31</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
@@ -6210,14 +6215,14 @@
       <c r="V81" s="4"/>
       <c r="W81" s="4"/>
       <c r="X81" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y81" s="6">
         <v>0</v>
       </c>
       <c r="Z81" s="3"/>
       <c r="AA81" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB81" s="5"/>
       <c r="AC81" s="5"/>
@@ -6234,14 +6239,14 @@
         <v>31</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
@@ -6266,14 +6271,14 @@
       <c r="V82" s="4"/>
       <c r="W82" s="4"/>
       <c r="X82" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y82" s="6">
         <v>0</v>
       </c>
       <c r="Z82" s="3"/>
       <c r="AA82" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB82" s="5"/>
       <c r="AC82" s="5"/>
@@ -6290,14 +6295,14 @@
         <v>31</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
@@ -6322,14 +6327,14 @@
       <c r="V83" s="4"/>
       <c r="W83" s="4"/>
       <c r="X83" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y83" s="6">
         <v>0</v>
       </c>
       <c r="Z83" s="3"/>
       <c r="AA83" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB83" s="5"/>
       <c r="AC83" s="5"/>
@@ -6346,14 +6351,14 @@
         <v>31</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
@@ -6378,14 +6383,14 @@
       <c r="V84" s="4"/>
       <c r="W84" s="4"/>
       <c r="X84" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y84" s="6">
         <v>0</v>
       </c>
       <c r="Z84" s="3"/>
       <c r="AA84" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB84" s="5"/>
       <c r="AC84" s="5"/>
@@ -6402,14 +6407,14 @@
         <v>31</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
@@ -6434,14 +6439,14 @@
       <c r="V85" s="4"/>
       <c r="W85" s="4"/>
       <c r="X85" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y85" s="6">
         <v>0</v>
       </c>
       <c r="Z85" s="3"/>
       <c r="AA85" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB85" s="5"/>
       <c r="AC85" s="5"/>
@@ -6458,14 +6463,14 @@
         <v>31</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
@@ -6490,14 +6495,14 @@
       <c r="V86" s="4"/>
       <c r="W86" s="4"/>
       <c r="X86" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y86" s="6">
         <v>0</v>
       </c>
       <c r="Z86" s="3"/>
       <c r="AA86" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB86" s="5"/>
       <c r="AC86" s="5"/>
@@ -6514,14 +6519,14 @@
         <v>31</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
@@ -6546,14 +6551,14 @@
       <c r="V87" s="4"/>
       <c r="W87" s="4"/>
       <c r="X87" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y87" s="6">
         <v>0</v>
       </c>
       <c r="Z87" s="3"/>
       <c r="AA87" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB87" s="5"/>
       <c r="AC87" s="5"/>
@@ -6570,14 +6575,14 @@
         <v>31</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
@@ -6602,14 +6607,14 @@
       <c r="V88" s="4"/>
       <c r="W88" s="4"/>
       <c r="X88" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y88" s="6">
         <v>0</v>
       </c>
       <c r="Z88" s="3"/>
       <c r="AA88" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB88" s="5"/>
       <c r="AC88" s="5"/>
@@ -6626,14 +6631,14 @@
         <v>31</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
@@ -6658,14 +6663,14 @@
       <c r="V89" s="4"/>
       <c r="W89" s="4"/>
       <c r="X89" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y89" s="6">
         <v>0</v>
       </c>
       <c r="Z89" s="3"/>
       <c r="AA89" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB89" s="5"/>
       <c r="AC89" s="5"/>
@@ -6682,14 +6687,14 @@
         <v>31</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
@@ -6714,14 +6719,14 @@
       <c r="V90" s="4"/>
       <c r="W90" s="4"/>
       <c r="X90" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y90" s="6">
         <v>0</v>
       </c>
       <c r="Z90" s="3"/>
       <c r="AA90" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB90" s="5"/>
       <c r="AC90" s="5"/>
@@ -6738,20 +6743,20 @@
         <v>31</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
@@ -6774,14 +6779,14 @@
       <c r="V91" s="4"/>
       <c r="W91" s="4"/>
       <c r="X91" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y91" s="6">
         <v>0</v>
       </c>
       <c r="Z91" s="3"/>
       <c r="AA91" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB91" s="5"/>
       <c r="AC91" s="5"/>
@@ -6798,20 +6803,20 @@
         <v>31</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
@@ -6834,14 +6839,14 @@
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
       <c r="X92" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y92" s="6">
         <v>0</v>
       </c>
       <c r="Z92" s="3"/>
       <c r="AA92" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB92" s="5"/>
       <c r="AC92" s="5"/>
@@ -6858,20 +6863,20 @@
         <v>31</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
@@ -6894,14 +6899,14 @@
       <c r="V93" s="4"/>
       <c r="W93" s="4"/>
       <c r="X93" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y93" s="6">
         <v>0</v>
       </c>
       <c r="Z93" s="3"/>
       <c r="AA93" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB93" s="5"/>
       <c r="AC93" s="5"/>
@@ -6918,20 +6923,20 @@
         <v>31</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
@@ -6954,17 +6959,17 @@
       <c r="V94" s="4"/>
       <c r="W94" s="4"/>
       <c r="X94" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y94" s="6">
         <v>0</v>
       </c>
       <c r="Z94" s="3"/>
       <c r="AA94" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AB94" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC94" s="5"/>
       <c r="AD94" s="5"/>
@@ -6980,20 +6985,20 @@
         <v>31</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
@@ -7016,14 +7021,14 @@
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
       <c r="X95" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y95" s="6">
         <v>0</v>
       </c>
       <c r="Z95" s="3"/>
       <c r="AA95" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB95" s="5"/>
       <c r="AC95" s="5"/>
@@ -7040,20 +7045,20 @@
         <v>31</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
@@ -7076,14 +7081,14 @@
       <c r="V96" s="4"/>
       <c r="W96" s="4"/>
       <c r="X96" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y96" s="6">
         <v>0</v>
       </c>
       <c r="Z96" s="3"/>
       <c r="AA96" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB96" s="5"/>
       <c r="AC96" s="5"/>
@@ -7100,20 +7105,20 @@
         <v>31</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
@@ -7136,17 +7141,17 @@
       <c r="V97" s="4"/>
       <c r="W97" s="4"/>
       <c r="X97" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y97" s="6">
         <v>0</v>
       </c>
       <c r="Z97" s="3"/>
       <c r="AA97" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AB97" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC97" s="5"/>
       <c r="AD97" s="5"/>
@@ -7162,20 +7167,20 @@
         <v>31</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
@@ -7198,14 +7203,14 @@
       <c r="V98" s="4"/>
       <c r="W98" s="4"/>
       <c r="X98" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y98" s="6">
         <v>0</v>
       </c>
       <c r="Z98" s="3"/>
       <c r="AA98" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB98" s="5"/>
       <c r="AC98" s="5"/>
@@ -7222,14 +7227,14 @@
         <v>31</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
@@ -7254,14 +7259,14 @@
       <c r="V99" s="4"/>
       <c r="W99" s="4"/>
       <c r="X99" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y99" s="6">
         <v>0</v>
       </c>
       <c r="Z99" s="3"/>
       <c r="AA99" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB99" s="5"/>
       <c r="AC99" s="5"/>
@@ -7278,14 +7283,14 @@
         <v>31</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
@@ -7310,14 +7315,14 @@
       <c r="V100" s="4"/>
       <c r="W100" s="4"/>
       <c r="X100" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y100" s="6">
         <v>0</v>
       </c>
       <c r="Z100" s="3"/>
       <c r="AA100" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB100" s="5"/>
       <c r="AC100" s="5"/>
@@ -7334,26 +7339,26 @@
         <v>31</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
@@ -7374,14 +7379,14 @@
       <c r="V101" s="4"/>
       <c r="W101" s="4"/>
       <c r="X101" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y101" s="6">
         <v>0</v>
       </c>
       <c r="Z101" s="3"/>
       <c r="AA101" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB101" s="5"/>
       <c r="AC101" s="5"/>
@@ -7398,26 +7403,26 @@
         <v>31</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
@@ -7438,14 +7443,14 @@
       <c r="V102" s="4"/>
       <c r="W102" s="4"/>
       <c r="X102" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y102" s="6">
         <v>0</v>
       </c>
       <c r="Z102" s="3"/>
       <c r="AA102" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB102" s="5"/>
       <c r="AC102" s="5"/>
@@ -7462,26 +7467,26 @@
         <v>31</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
@@ -7502,14 +7507,14 @@
       <c r="V103" s="4"/>
       <c r="W103" s="4"/>
       <c r="X103" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y103" s="6">
         <v>0</v>
       </c>
       <c r="Z103" s="3"/>
       <c r="AA103" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB103" s="5"/>
       <c r="AC103" s="5"/>
@@ -7526,26 +7531,26 @@
         <v>31</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
@@ -7566,17 +7571,17 @@
       <c r="V104" s="4"/>
       <c r="W104" s="4"/>
       <c r="X104" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y104" s="6">
         <v>0</v>
       </c>
       <c r="Z104" s="3"/>
       <c r="AA104" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AB104" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AC104" s="5"/>
       <c r="AD104" s="5"/>
@@ -7592,26 +7597,26 @@
         <v>31</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
@@ -7632,14 +7637,14 @@
       <c r="V105" s="4"/>
       <c r="W105" s="4"/>
       <c r="X105" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y105" s="6">
         <v>0</v>
       </c>
       <c r="Z105" s="3"/>
       <c r="AA105" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB105" s="5"/>
       <c r="AC105" s="5"/>
@@ -7656,26 +7661,26 @@
         <v>31</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
@@ -7696,14 +7701,14 @@
       <c r="V106" s="4"/>
       <c r="W106" s="4"/>
       <c r="X106" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y106" s="6">
         <v>0</v>
       </c>
       <c r="Z106" s="3"/>
       <c r="AA106" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB106" s="5"/>
       <c r="AC106" s="5"/>
@@ -7720,26 +7725,26 @@
         <v>31</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
@@ -7760,17 +7765,17 @@
       <c r="V107" s="4"/>
       <c r="W107" s="4"/>
       <c r="X107" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y107" s="6">
         <v>0</v>
       </c>
       <c r="Z107" s="3"/>
       <c r="AA107" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AB107" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC107" s="5"/>
       <c r="AD107" s="5"/>
@@ -7786,26 +7791,26 @@
         <v>31</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F108" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H108" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="G108" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H108" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="I108" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
@@ -7826,14 +7831,14 @@
       <c r="V108" s="4"/>
       <c r="W108" s="4"/>
       <c r="X108" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y108" s="6">
         <v>0</v>
       </c>
       <c r="Z108" s="3"/>
       <c r="AA108" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB108" s="5"/>
       <c r="AC108" s="5"/>
@@ -7850,26 +7855,26 @@
         <v>31</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F109" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H109" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="G109" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H109" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="I109" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
@@ -7890,14 +7895,14 @@
       <c r="V109" s="4"/>
       <c r="W109" s="4"/>
       <c r="X109" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y109" s="6">
         <v>0</v>
       </c>
       <c r="Z109" s="3"/>
       <c r="AA109" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB109" s="5"/>
       <c r="AC109" s="5"/>
@@ -7914,26 +7919,26 @@
         <v>31</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F110" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H110" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="G110" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H110" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="I110" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
@@ -7954,14 +7959,14 @@
       <c r="V110" s="4"/>
       <c r="W110" s="4"/>
       <c r="X110" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y110" s="6">
         <v>0</v>
       </c>
       <c r="Z110" s="3"/>
       <c r="AA110" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB110" s="5"/>
       <c r="AC110" s="5"/>
@@ -7978,26 +7983,26 @@
         <v>31</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F111" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H111" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="G111" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H111" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="I111" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
@@ -8018,17 +8023,17 @@
       <c r="V111" s="4"/>
       <c r="W111" s="4"/>
       <c r="X111" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y111" s="6">
         <v>0</v>
       </c>
       <c r="Z111" s="3"/>
       <c r="AA111" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AB111" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC111" s="5"/>
       <c r="AD111" s="5"/>
@@ -8044,26 +8049,26 @@
         <v>31</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F112" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H112" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="G112" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H112" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="I112" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
@@ -8084,14 +8089,14 @@
       <c r="V112" s="4"/>
       <c r="W112" s="4"/>
       <c r="X112" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y112" s="6">
         <v>0</v>
       </c>
       <c r="Z112" s="3"/>
       <c r="AA112" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB112" s="5"/>
       <c r="AC112" s="5"/>
@@ -8108,26 +8113,26 @@
         <v>31</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F113" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H113" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="G113" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H113" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="I113" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
@@ -8148,14 +8153,14 @@
       <c r="V113" s="4"/>
       <c r="W113" s="4"/>
       <c r="X113" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y113" s="6">
         <v>0</v>
       </c>
       <c r="Z113" s="3"/>
       <c r="AA113" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB113" s="5"/>
       <c r="AC113" s="5"/>
@@ -8172,26 +8177,26 @@
         <v>31</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F114" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H114" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="G114" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H114" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="I114" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
@@ -8212,17 +8217,17 @@
       <c r="V114" s="4"/>
       <c r="W114" s="4"/>
       <c r="X114" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y114" s="6">
         <v>0</v>
       </c>
       <c r="Z114" s="3"/>
       <c r="AA114" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AB114" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AC114" s="5"/>
       <c r="AD114" s="5"/>
@@ -8238,26 +8243,26 @@
         <v>31</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
@@ -8278,14 +8283,14 @@
       <c r="V115" s="4"/>
       <c r="W115" s="4"/>
       <c r="X115" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y115" s="6">
         <v>0</v>
       </c>
       <c r="Z115" s="3"/>
       <c r="AA115" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB115" s="5"/>
       <c r="AC115" s="5"/>
@@ -8302,26 +8307,26 @@
         <v>31</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
@@ -8342,14 +8347,14 @@
       <c r="V116" s="4"/>
       <c r="W116" s="4"/>
       <c r="X116" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y116" s="6">
         <v>0</v>
       </c>
       <c r="Z116" s="3"/>
       <c r="AA116" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB116" s="5"/>
       <c r="AC116" s="5"/>
@@ -8366,26 +8371,26 @@
         <v>31</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
@@ -8406,14 +8411,14 @@
       <c r="V117" s="4"/>
       <c r="W117" s="4"/>
       <c r="X117" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y117" s="6">
         <v>0</v>
       </c>
       <c r="Z117" s="3"/>
       <c r="AA117" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB117" s="5"/>
       <c r="AC117" s="5"/>
@@ -8430,26 +8435,26 @@
         <v>31</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
@@ -8470,17 +8475,17 @@
       <c r="V118" s="4"/>
       <c r="W118" s="4"/>
       <c r="X118" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y118" s="6">
         <v>0</v>
       </c>
       <c r="Z118" s="3"/>
       <c r="AA118" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AB118" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AC118" s="5"/>
       <c r="AD118" s="5"/>
@@ -8496,26 +8501,26 @@
         <v>31</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
@@ -8536,14 +8541,14 @@
       <c r="V119" s="4"/>
       <c r="W119" s="4"/>
       <c r="X119" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y119" s="6">
         <v>0</v>
       </c>
       <c r="Z119" s="3"/>
       <c r="AA119" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB119" s="5"/>
       <c r="AC119" s="5"/>
@@ -8560,26 +8565,26 @@
         <v>31</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
@@ -8600,14 +8605,14 @@
       <c r="V120" s="4"/>
       <c r="W120" s="4"/>
       <c r="X120" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y120" s="6">
         <v>0</v>
       </c>
       <c r="Z120" s="3"/>
       <c r="AA120" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB120" s="5"/>
       <c r="AC120" s="5"/>
@@ -8624,26 +8629,26 @@
         <v>31</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
@@ -8664,17 +8669,17 @@
       <c r="V121" s="4"/>
       <c r="W121" s="4"/>
       <c r="X121" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y121" s="6">
         <v>0</v>
       </c>
       <c r="Z121" s="3"/>
       <c r="AA121" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AB121" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC121" s="5"/>
       <c r="AD121" s="5"/>
@@ -8690,26 +8695,26 @@
         <v>31</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F122" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H122" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="G122" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H122" s="4" t="s">
-        <v>207</v>
-      </c>
       <c r="I122" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
@@ -8730,14 +8735,14 @@
       <c r="V122" s="4"/>
       <c r="W122" s="4"/>
       <c r="X122" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y122" s="6">
         <v>0</v>
       </c>
       <c r="Z122" s="3"/>
       <c r="AA122" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB122" s="5"/>
       <c r="AC122" s="5"/>
@@ -8754,26 +8759,26 @@
         <v>31</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F123" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H123" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="G123" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H123" s="4" t="s">
-        <v>207</v>
-      </c>
       <c r="I123" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J123" s="4"/>
       <c r="K123" s="4"/>
@@ -8794,14 +8799,14 @@
       <c r="V123" s="4"/>
       <c r="W123" s="4"/>
       <c r="X123" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y123" s="6">
         <v>0</v>
       </c>
       <c r="Z123" s="3"/>
       <c r="AA123" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB123" s="5"/>
       <c r="AC123" s="5"/>
@@ -8818,26 +8823,26 @@
         <v>31</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F124" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H124" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="G124" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H124" s="4" t="s">
-        <v>207</v>
-      </c>
       <c r="I124" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J124" s="4"/>
       <c r="K124" s="4"/>
@@ -8858,14 +8863,14 @@
       <c r="V124" s="4"/>
       <c r="W124" s="4"/>
       <c r="X124" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y124" s="6">
         <v>0</v>
       </c>
       <c r="Z124" s="3"/>
       <c r="AA124" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB124" s="5"/>
       <c r="AC124" s="5"/>
@@ -8882,26 +8887,26 @@
         <v>31</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F125" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H125" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="G125" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H125" s="4" t="s">
-        <v>207</v>
-      </c>
       <c r="I125" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
@@ -8922,17 +8927,17 @@
       <c r="V125" s="4"/>
       <c r="W125" s="4"/>
       <c r="X125" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y125" s="6">
         <v>0</v>
       </c>
       <c r="Z125" s="3"/>
       <c r="AA125" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AB125" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC125" s="5"/>
       <c r="AD125" s="5"/>
@@ -8948,26 +8953,26 @@
         <v>31</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F126" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H126" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="G126" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H126" s="4" t="s">
-        <v>207</v>
-      </c>
       <c r="I126" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
@@ -8988,14 +8993,14 @@
       <c r="V126" s="4"/>
       <c r="W126" s="4"/>
       <c r="X126" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y126" s="6">
         <v>0</v>
       </c>
       <c r="Z126" s="3"/>
       <c r="AA126" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB126" s="5"/>
       <c r="AC126" s="5"/>
@@ -9012,26 +9017,26 @@
         <v>31</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F127" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H127" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="G127" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H127" s="4" t="s">
-        <v>207</v>
-      </c>
       <c r="I127" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
@@ -9052,14 +9057,14 @@
       <c r="V127" s="4"/>
       <c r="W127" s="4"/>
       <c r="X127" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y127" s="6">
         <v>0</v>
       </c>
       <c r="Z127" s="3"/>
       <c r="AA127" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB127" s="5"/>
       <c r="AC127" s="5"/>
@@ -9076,26 +9081,26 @@
         <v>31</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F128" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H128" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="G128" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H128" s="4" t="s">
-        <v>207</v>
-      </c>
       <c r="I128" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
@@ -9116,17 +9121,17 @@
       <c r="V128" s="4"/>
       <c r="W128" s="4"/>
       <c r="X128" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y128" s="6">
         <v>0</v>
       </c>
       <c r="Z128" s="3"/>
       <c r="AA128" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AB128" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AC128" s="5"/>
       <c r="AD128" s="5"/>
@@ -9142,26 +9147,26 @@
         <v>31</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
@@ -9182,14 +9187,14 @@
       <c r="V129" s="4"/>
       <c r="W129" s="4"/>
       <c r="X129" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y129" s="6">
         <v>0</v>
       </c>
       <c r="Z129" s="3"/>
       <c r="AA129" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB129" s="5"/>
       <c r="AC129" s="5"/>
@@ -9206,26 +9211,26 @@
         <v>31</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
@@ -9246,14 +9251,14 @@
       <c r="V130" s="4"/>
       <c r="W130" s="4"/>
       <c r="X130" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y130" s="6">
         <v>0</v>
       </c>
       <c r="Z130" s="3"/>
       <c r="AA130" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB130" s="5"/>
       <c r="AC130" s="5"/>
@@ -9270,26 +9275,26 @@
         <v>31</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J131" s="4"/>
       <c r="K131" s="4"/>
@@ -9310,14 +9315,14 @@
       <c r="V131" s="4"/>
       <c r="W131" s="4"/>
       <c r="X131" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y131" s="6">
         <v>0</v>
       </c>
       <c r="Z131" s="3"/>
       <c r="AA131" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB131" s="5"/>
       <c r="AC131" s="5"/>
@@ -9334,26 +9339,26 @@
         <v>31</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
@@ -9374,17 +9379,17 @@
       <c r="V132" s="4"/>
       <c r="W132" s="4"/>
       <c r="X132" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y132" s="6">
         <v>0</v>
       </c>
       <c r="Z132" s="3"/>
       <c r="AA132" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AB132" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AC132" s="5"/>
       <c r="AD132" s="5"/>
@@ -9400,26 +9405,26 @@
         <v>31</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J133" s="4"/>
       <c r="K133" s="4"/>
@@ -9440,14 +9445,14 @@
       <c r="V133" s="4"/>
       <c r="W133" s="4"/>
       <c r="X133" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y133" s="6">
         <v>0</v>
       </c>
       <c r="Z133" s="3"/>
       <c r="AA133" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB133" s="5"/>
       <c r="AC133" s="5"/>
@@ -9464,26 +9469,26 @@
         <v>31</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I134" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
@@ -9504,14 +9509,14 @@
       <c r="V134" s="4"/>
       <c r="W134" s="4"/>
       <c r="X134" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y134" s="6">
         <v>0</v>
       </c>
       <c r="Z134" s="3"/>
       <c r="AA134" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB134" s="5"/>
       <c r="AC134" s="5"/>
@@ -9528,26 +9533,26 @@
         <v>31</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
@@ -9568,17 +9573,17 @@
       <c r="V135" s="4"/>
       <c r="W135" s="4"/>
       <c r="X135" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y135" s="6">
         <v>0</v>
       </c>
       <c r="Z135" s="3"/>
       <c r="AA135" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AB135" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC135" s="5"/>
       <c r="AD135" s="5"/>
@@ -9594,26 +9599,26 @@
         <v>31</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F136" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H136" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G136" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H136" s="4" t="s">
-        <v>225</v>
-      </c>
       <c r="I136" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
@@ -9634,14 +9639,14 @@
       <c r="V136" s="4"/>
       <c r="W136" s="4"/>
       <c r="X136" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y136" s="6">
         <v>0</v>
       </c>
       <c r="Z136" s="3"/>
       <c r="AA136" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB136" s="5"/>
       <c r="AC136" s="5"/>
@@ -9658,26 +9663,26 @@
         <v>31</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F137" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H137" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G137" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H137" s="4" t="s">
-        <v>225</v>
-      </c>
       <c r="I137" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
@@ -9698,14 +9703,14 @@
       <c r="V137" s="4"/>
       <c r="W137" s="4"/>
       <c r="X137" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y137" s="6">
         <v>0</v>
       </c>
       <c r="Z137" s="3"/>
       <c r="AA137" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB137" s="5"/>
       <c r="AC137" s="5"/>
@@ -9722,26 +9727,26 @@
         <v>31</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F138" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H138" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G138" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H138" s="4" t="s">
-        <v>225</v>
-      </c>
       <c r="I138" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
@@ -9762,14 +9767,14 @@
       <c r="V138" s="4"/>
       <c r="W138" s="4"/>
       <c r="X138" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y138" s="6">
         <v>0</v>
       </c>
       <c r="Z138" s="3"/>
       <c r="AA138" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB138" s="5"/>
       <c r="AC138" s="5"/>
@@ -9786,26 +9791,26 @@
         <v>31</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F139" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H139" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G139" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H139" s="4" t="s">
-        <v>225</v>
-      </c>
       <c r="I139" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
@@ -9826,17 +9831,17 @@
       <c r="V139" s="4"/>
       <c r="W139" s="4"/>
       <c r="X139" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y139" s="6">
         <v>0</v>
       </c>
       <c r="Z139" s="3"/>
       <c r="AA139" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AB139" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC139" s="5"/>
       <c r="AD139" s="5"/>
@@ -9852,26 +9857,26 @@
         <v>31</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F140" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H140" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G140" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H140" s="4" t="s">
-        <v>225</v>
-      </c>
       <c r="I140" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
@@ -9892,14 +9897,14 @@
       <c r="V140" s="4"/>
       <c r="W140" s="4"/>
       <c r="X140" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y140" s="6">
         <v>0</v>
       </c>
       <c r="Z140" s="3"/>
       <c r="AA140" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB140" s="5"/>
       <c r="AC140" s="5"/>
@@ -9916,26 +9921,26 @@
         <v>31</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F141" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H141" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G141" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H141" s="4" t="s">
-        <v>225</v>
-      </c>
       <c r="I141" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
@@ -9956,14 +9961,14 @@
       <c r="V141" s="4"/>
       <c r="W141" s="4"/>
       <c r="X141" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y141" s="6">
         <v>0</v>
       </c>
       <c r="Z141" s="3"/>
       <c r="AA141" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB141" s="5"/>
       <c r="AC141" s="5"/>
@@ -9980,26 +9985,26 @@
         <v>31</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F142" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H142" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G142" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H142" s="4" t="s">
-        <v>225</v>
-      </c>
       <c r="I142" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J142" s="4"/>
       <c r="K142" s="4"/>
@@ -10020,17 +10025,17 @@
       <c r="V142" s="4"/>
       <c r="W142" s="4"/>
       <c r="X142" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y142" s="6">
         <v>0</v>
       </c>
       <c r="Z142" s="3"/>
       <c r="AA142" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AB142" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AC142" s="5"/>
       <c r="AD142" s="5"/>
@@ -10046,14 +10051,14 @@
         <v>31</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
@@ -10078,14 +10083,14 @@
       <c r="V143" s="4"/>
       <c r="W143" s="4"/>
       <c r="X143" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y143" s="6">
         <v>0</v>
       </c>
       <c r="Z143" s="3"/>
       <c r="AA143" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB143" s="5"/>
       <c r="AC143" s="5"/>
@@ -10102,14 +10107,14 @@
         <v>31</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
@@ -10134,14 +10139,14 @@
       <c r="V144" s="4"/>
       <c r="W144" s="4"/>
       <c r="X144" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y144" s="6">
         <v>0</v>
       </c>
       <c r="Z144" s="3"/>
       <c r="AA144" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB144" s="5"/>
       <c r="AC144" s="5"/>
@@ -10158,14 +10163,14 @@
         <v>31</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
@@ -10190,14 +10195,14 @@
       <c r="V145" s="4"/>
       <c r="W145" s="4"/>
       <c r="X145" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y145" s="6">
         <v>0</v>
       </c>
       <c r="Z145" s="3"/>
       <c r="AA145" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB145" s="5"/>
       <c r="AC145" s="5"/>
@@ -10214,14 +10219,14 @@
         <v>31</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
@@ -10246,14 +10251,14 @@
       <c r="V146" s="4"/>
       <c r="W146" s="4"/>
       <c r="X146" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y146" s="6">
         <v>0</v>
       </c>
       <c r="Z146" s="3"/>
       <c r="AA146" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB146" s="5"/>
       <c r="AC146" s="5"/>
@@ -10270,14 +10275,14 @@
         <v>31</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
@@ -10302,14 +10307,14 @@
       <c r="V147" s="4"/>
       <c r="W147" s="4"/>
       <c r="X147" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y147" s="6">
         <v>0</v>
       </c>
       <c r="Z147" s="3"/>
       <c r="AA147" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB147" s="5"/>
       <c r="AC147" s="5"/>
@@ -10326,14 +10331,14 @@
         <v>31</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
@@ -10358,14 +10363,14 @@
       <c r="V148" s="4"/>
       <c r="W148" s="4"/>
       <c r="X148" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y148" s="6">
         <v>0</v>
       </c>
       <c r="Z148" s="3"/>
       <c r="AA148" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB148" s="5"/>
       <c r="AC148" s="5"/>
@@ -10382,14 +10387,14 @@
         <v>31</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
@@ -10414,14 +10419,14 @@
       <c r="V149" s="4"/>
       <c r="W149" s="4"/>
       <c r="X149" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y149" s="6">
         <v>0</v>
       </c>
       <c r="Z149" s="3"/>
       <c r="AA149" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB149" s="5"/>
       <c r="AC149" s="5"/>
@@ -10438,14 +10443,14 @@
         <v>31</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
@@ -10470,14 +10475,14 @@
       <c r="V150" s="4"/>
       <c r="W150" s="4"/>
       <c r="X150" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y150" s="6">
         <v>0</v>
       </c>
       <c r="Z150" s="3"/>
       <c r="AA150" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB150" s="5"/>
       <c r="AC150" s="5"/>
@@ -10494,14 +10499,14 @@
         <v>31</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
@@ -10526,14 +10531,14 @@
       <c r="V151" s="4"/>
       <c r="W151" s="4"/>
       <c r="X151" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y151" s="6">
         <v>0</v>
       </c>
       <c r="Z151" s="3"/>
       <c r="AA151" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB151" s="5"/>
       <c r="AC151" s="5"/>
@@ -10550,14 +10555,14 @@
         <v>31</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
@@ -10582,17 +10587,17 @@
       <c r="V152" s="4"/>
       <c r="W152" s="4"/>
       <c r="X152" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y152" s="6">
         <v>0</v>
       </c>
       <c r="Z152" s="3"/>
       <c r="AA152" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AB152" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AC152" s="5"/>
       <c r="AD152" s="5"/>
@@ -10608,14 +10613,14 @@
         <v>31</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
@@ -10640,14 +10645,14 @@
       <c r="V153" s="4"/>
       <c r="W153" s="4"/>
       <c r="X153" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y153" s="6">
         <v>0</v>
       </c>
       <c r="Z153" s="3"/>
       <c r="AA153" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB153" s="5"/>
       <c r="AC153" s="5"/>
@@ -10664,20 +10669,20 @@
         <v>31</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
@@ -10700,14 +10705,14 @@
       <c r="V154" s="4"/>
       <c r="W154" s="4"/>
       <c r="X154" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y154" s="6">
         <v>0</v>
       </c>
       <c r="Z154" s="3"/>
       <c r="AA154" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB154" s="5"/>
       <c r="AC154" s="5"/>
@@ -10724,20 +10729,20 @@
         <v>31</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
@@ -10760,14 +10765,14 @@
       <c r="V155" s="4"/>
       <c r="W155" s="4"/>
       <c r="X155" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y155" s="6">
         <v>0</v>
       </c>
       <c r="Z155" s="3"/>
       <c r="AA155" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB155" s="5"/>
       <c r="AC155" s="5"/>
@@ -10784,20 +10789,20 @@
         <v>31</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H156" s="4"/>
       <c r="I156" s="4"/>
@@ -10820,14 +10825,14 @@
       <c r="V156" s="4"/>
       <c r="W156" s="4"/>
       <c r="X156" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y156" s="6">
         <v>0</v>
       </c>
       <c r="Z156" s="3"/>
       <c r="AA156" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB156" s="5"/>
       <c r="AC156" s="5"/>
@@ -10844,20 +10849,20 @@
         <v>31</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
@@ -10880,17 +10885,17 @@
       <c r="V157" s="4"/>
       <c r="W157" s="4"/>
       <c r="X157" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y157" s="6">
         <v>0</v>
       </c>
       <c r="Z157" s="3"/>
       <c r="AA157" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AB157" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AC157" s="5"/>
       <c r="AD157" s="5"/>
@@ -10906,20 +10911,20 @@
         <v>31</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
@@ -10942,14 +10947,14 @@
       <c r="V158" s="4"/>
       <c r="W158" s="4"/>
       <c r="X158" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y158" s="6">
         <v>0</v>
       </c>
       <c r="Z158" s="3"/>
       <c r="AA158" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB158" s="5"/>
       <c r="AC158" s="5"/>
@@ -10966,20 +10971,20 @@
         <v>31</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H159" s="4"/>
       <c r="I159" s="4"/>
@@ -11002,14 +11007,14 @@
       <c r="V159" s="4"/>
       <c r="W159" s="4"/>
       <c r="X159" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y159" s="6">
         <v>0</v>
       </c>
       <c r="Z159" s="3"/>
       <c r="AA159" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB159" s="5"/>
       <c r="AC159" s="5"/>
@@ -11026,20 +11031,20 @@
         <v>31</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H160" s="4"/>
       <c r="I160" s="4"/>
@@ -11062,17 +11067,17 @@
       <c r="V160" s="4"/>
       <c r="W160" s="4"/>
       <c r="X160" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y160" s="6">
         <v>0</v>
       </c>
       <c r="Z160" s="3"/>
       <c r="AA160" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AB160" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AC160" s="5"/>
       <c r="AD160" s="5"/>
@@ -11088,20 +11093,20 @@
         <v>31</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
@@ -11124,14 +11129,14 @@
       <c r="V161" s="4"/>
       <c r="W161" s="4"/>
       <c r="X161" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y161" s="6">
         <v>0</v>
       </c>
       <c r="Z161" s="3"/>
       <c r="AA161" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB161" s="5"/>
       <c r="AC161" s="5"/>
@@ -11148,14 +11153,14 @@
         <v>31</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
@@ -11180,14 +11185,14 @@
       <c r="V162" s="4"/>
       <c r="W162" s="4"/>
       <c r="X162" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y162" s="6">
         <v>0</v>
       </c>
       <c r="Z162" s="3"/>
       <c r="AA162" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB162" s="5"/>
       <c r="AC162" s="5"/>
@@ -11204,14 +11209,14 @@
         <v>31</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
@@ -11236,14 +11241,14 @@
       <c r="V163" s="4"/>
       <c r="W163" s="4"/>
       <c r="X163" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y163" s="6">
         <v>0</v>
       </c>
       <c r="Z163" s="3"/>
       <c r="AA163" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB163" s="5"/>
       <c r="AC163" s="5"/>
@@ -11260,14 +11265,14 @@
         <v>31</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
@@ -11292,14 +11297,14 @@
       <c r="V164" s="4"/>
       <c r="W164" s="4"/>
       <c r="X164" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y164" s="6">
         <v>0</v>
       </c>
       <c r="Z164" s="3"/>
       <c r="AA164" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB164" s="5"/>
       <c r="AC164" s="5"/>
@@ -11316,14 +11321,14 @@
         <v>31</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
@@ -11348,14 +11353,14 @@
       <c r="V165" s="4"/>
       <c r="W165" s="4"/>
       <c r="X165" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y165" s="6">
         <v>0</v>
       </c>
       <c r="Z165" s="3"/>
       <c r="AA165" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB165" s="5"/>
       <c r="AC165" s="5"/>
@@ -11372,14 +11377,14 @@
         <v>31</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
@@ -11404,14 +11409,14 @@
       <c r="V166" s="4"/>
       <c r="W166" s="4"/>
       <c r="X166" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y166" s="6">
         <v>0</v>
       </c>
       <c r="Z166" s="3"/>
       <c r="AA166" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB166" s="5"/>
       <c r="AC166" s="5"/>
@@ -11428,14 +11433,14 @@
         <v>31</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
@@ -11460,14 +11465,14 @@
       <c r="V167" s="4"/>
       <c r="W167" s="4"/>
       <c r="X167" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y167" s="6">
         <v>0</v>
       </c>
       <c r="Z167" s="3"/>
       <c r="AA167" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB167" s="5"/>
       <c r="AC167" s="5"/>
@@ -11484,26 +11489,26 @@
         <v>31</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J168" s="4"/>
       <c r="K168" s="4"/>
@@ -11524,14 +11529,14 @@
       <c r="V168" s="4"/>
       <c r="W168" s="4"/>
       <c r="X168" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y168" s="6">
         <v>0</v>
       </c>
       <c r="Z168" s="3"/>
       <c r="AA168" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB168" s="5"/>
       <c r="AC168" s="5"/>
@@ -11548,26 +11553,26 @@
         <v>31</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I169" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J169" s="4"/>
       <c r="K169" s="4"/>
@@ -11588,14 +11593,14 @@
       <c r="V169" s="4"/>
       <c r="W169" s="4"/>
       <c r="X169" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y169" s="6">
         <v>0</v>
       </c>
       <c r="Z169" s="3"/>
       <c r="AA169" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB169" s="5"/>
       <c r="AC169" s="5"/>
@@ -11612,26 +11617,26 @@
         <v>31</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I170" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J170" s="4"/>
       <c r="K170" s="4"/>
@@ -11652,17 +11657,17 @@
       <c r="V170" s="4"/>
       <c r="W170" s="4"/>
       <c r="X170" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y170" s="6">
         <v>0</v>
       </c>
       <c r="Z170" s="3"/>
       <c r="AA170" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AB170" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AC170" s="5"/>
       <c r="AD170" s="5"/>
@@ -11678,26 +11683,26 @@
         <v>31</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J171" s="4"/>
       <c r="K171" s="4"/>
@@ -11718,14 +11723,14 @@
       <c r="V171" s="4"/>
       <c r="W171" s="4"/>
       <c r="X171" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y171" s="6">
         <v>0</v>
       </c>
       <c r="Z171" s="3"/>
       <c r="AA171" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB171" s="10"/>
       <c r="AC171" s="5"/>
@@ -11742,26 +11747,26 @@
         <v>31</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I172" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J172" s="4"/>
       <c r="K172" s="4"/>
@@ -11782,14 +11787,14 @@
       <c r="V172" s="4"/>
       <c r="W172" s="4"/>
       <c r="X172" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y172" s="6">
         <v>0</v>
       </c>
       <c r="Z172" s="3"/>
       <c r="AA172" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB172" s="5"/>
       <c r="AC172" s="5"/>
@@ -11806,26 +11811,26 @@
         <v>31</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I173" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J173" s="4"/>
       <c r="K173" s="4"/>
@@ -11846,17 +11851,17 @@
       <c r="V173" s="4"/>
       <c r="W173" s="4"/>
       <c r="X173" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y173" s="6">
         <v>0</v>
       </c>
       <c r="Z173" s="3"/>
       <c r="AA173" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AB173" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AC173" s="5"/>
       <c r="AD173" s="5"/>
@@ -11872,26 +11877,26 @@
         <v>31</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F174" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H174" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="G174" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H174" s="4" t="s">
-        <v>280</v>
-      </c>
       <c r="I174" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J174" s="4"/>
       <c r="K174" s="4"/>
@@ -11912,14 +11917,14 @@
       <c r="V174" s="4"/>
       <c r="W174" s="4"/>
       <c r="X174" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y174" s="6">
         <v>0</v>
       </c>
       <c r="Z174" s="3"/>
       <c r="AA174" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB174" s="10"/>
       <c r="AC174" s="5"/>
@@ -11936,26 +11941,26 @@
         <v>31</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F175" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H175" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="G175" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H175" s="4" t="s">
-        <v>280</v>
-      </c>
       <c r="I175" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J175" s="4"/>
       <c r="K175" s="4"/>
@@ -11976,14 +11981,14 @@
       <c r="V175" s="4"/>
       <c r="W175" s="4"/>
       <c r="X175" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y175" s="6">
         <v>0</v>
       </c>
       <c r="Z175" s="3"/>
       <c r="AA175" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB175" s="10"/>
       <c r="AC175" s="5"/>
@@ -12000,26 +12005,26 @@
         <v>31</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F176" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H176" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="G176" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H176" s="4" t="s">
-        <v>280</v>
-      </c>
       <c r="I176" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J176" s="4"/>
       <c r="K176" s="4"/>
@@ -12040,17 +12045,17 @@
       <c r="V176" s="4"/>
       <c r="W176" s="4"/>
       <c r="X176" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y176" s="6">
         <v>0</v>
       </c>
       <c r="Z176" s="3"/>
       <c r="AA176" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AB176" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AC176" s="5"/>
       <c r="AD176" s="5"/>
@@ -12066,26 +12071,26 @@
         <v>31</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F177" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H177" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="G177" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H177" s="4" t="s">
-        <v>280</v>
-      </c>
       <c r="I177" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J177" s="4"/>
       <c r="K177" s="4"/>
@@ -12106,14 +12111,14 @@
       <c r="V177" s="4"/>
       <c r="W177" s="4"/>
       <c r="X177" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y177" s="6">
         <v>0</v>
       </c>
       <c r="Z177" s="3"/>
       <c r="AA177" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB177" s="5"/>
       <c r="AC177" s="5"/>
@@ -12130,26 +12135,26 @@
         <v>31</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F178" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H178" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="G178" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H178" s="4" t="s">
-        <v>280</v>
-      </c>
       <c r="I178" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J178" s="4"/>
       <c r="K178" s="4"/>
@@ -12170,14 +12175,14 @@
       <c r="V178" s="4"/>
       <c r="W178" s="4"/>
       <c r="X178" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y178" s="6">
         <v>0</v>
       </c>
       <c r="Z178" s="3"/>
       <c r="AA178" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB178" s="10"/>
       <c r="AC178" s="5"/>
@@ -12194,26 +12199,26 @@
         <v>31</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F179" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H179" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="G179" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H179" s="4" t="s">
-        <v>280</v>
-      </c>
       <c r="I179" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J179" s="4"/>
       <c r="K179" s="4"/>
@@ -12234,17 +12239,17 @@
       <c r="V179" s="4"/>
       <c r="W179" s="4"/>
       <c r="X179" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y179" s="6">
         <v>0</v>
       </c>
       <c r="Z179" s="3"/>
       <c r="AA179" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AB179" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AC179" s="5"/>
       <c r="AD179" s="5"/>
@@ -12260,20 +12265,20 @@
         <v>31</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
@@ -12296,14 +12301,14 @@
       <c r="V180" s="4"/>
       <c r="W180" s="4"/>
       <c r="X180" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y180" s="6">
         <v>0</v>
       </c>
       <c r="Z180" s="3"/>
       <c r="AA180" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB180" s="5"/>
       <c r="AC180" s="5"/>
@@ -12320,20 +12325,20 @@
         <v>31</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
@@ -12356,14 +12361,14 @@
       <c r="V181" s="4"/>
       <c r="W181" s="4"/>
       <c r="X181" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y181" s="6">
         <v>0</v>
       </c>
       <c r="Z181" s="3"/>
       <c r="AA181" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB181" s="5"/>
       <c r="AC181" s="5"/>
@@ -12380,20 +12385,20 @@
         <v>31</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
@@ -12416,17 +12421,17 @@
       <c r="V182" s="4"/>
       <c r="W182" s="4"/>
       <c r="X182" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y182" s="6">
         <v>0</v>
       </c>
       <c r="Z182" s="3"/>
       <c r="AA182" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AB182" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AC182" s="5"/>
       <c r="AD182" s="5"/>
@@ -12442,20 +12447,20 @@
         <v>31</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H183" s="4"/>
       <c r="I183" s="4"/>
@@ -12478,14 +12483,14 @@
       <c r="V183" s="4"/>
       <c r="W183" s="4"/>
       <c r="X183" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y183" s="6">
         <v>0</v>
       </c>
       <c r="Z183" s="3"/>
       <c r="AA183" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB183" s="5"/>
       <c r="AC183" s="5"/>
@@ -12502,14 +12507,14 @@
         <v>31</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F184" s="4"/>
       <c r="G184" s="4"/>
@@ -12534,14 +12539,14 @@
       <c r="V184" s="4"/>
       <c r="W184" s="4"/>
       <c r="X184" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y184" s="6">
         <v>0</v>
       </c>
       <c r="Z184" s="3"/>
       <c r="AA184" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB184" s="5"/>
       <c r="AC184" s="5"/>
@@ -12558,14 +12563,14 @@
         <v>31</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F185" s="4"/>
       <c r="G185" s="4"/>
@@ -12590,14 +12595,14 @@
       <c r="V185" s="4"/>
       <c r="W185" s="4"/>
       <c r="X185" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y185" s="6">
         <v>0</v>
       </c>
       <c r="Z185" s="3"/>
       <c r="AA185" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB185" s="5"/>
       <c r="AC185" s="5"/>
@@ -12614,14 +12619,14 @@
         <v>31</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F186" s="4"/>
       <c r="G186" s="4"/>
@@ -12653,10 +12658,10 @@
       </c>
       <c r="Z186" s="3"/>
       <c r="AA186" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AB186" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AC186" s="5"/>
       <c r="AD186" s="5"/>
@@ -12672,14 +12677,14 @@
         <v>31</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F187" s="4"/>
       <c r="G187" s="4"/>
@@ -12711,10 +12716,10 @@
       </c>
       <c r="Z187" s="3"/>
       <c r="AA187" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AB187" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AC187" s="5"/>
       <c r="AD187" s="5"/>
@@ -12730,14 +12735,14 @@
         <v>31</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F188" s="4"/>
       <c r="G188" s="4"/>
@@ -12769,10 +12774,10 @@
       </c>
       <c r="Z188" s="3"/>
       <c r="AA188" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AB188" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AC188" s="5"/>
       <c r="AD188" s="5"/>
@@ -12788,14 +12793,14 @@
         <v>31</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F189" s="4"/>
       <c r="G189" s="4"/>
@@ -12827,10 +12832,10 @@
       </c>
       <c r="Z189" s="3"/>
       <c r="AA189" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AB189" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AC189" s="5"/>
       <c r="AD189" s="5"/>
@@ -12846,14 +12851,14 @@
         <v>31</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F190" s="4"/>
       <c r="G190" s="4"/>
@@ -12885,10 +12890,10 @@
       </c>
       <c r="Z190" s="3"/>
       <c r="AA190" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AB190" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC190" s="5"/>
       <c r="AD190" s="5"/>
@@ -12904,14 +12909,14 @@
         <v>31</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F191" s="4"/>
       <c r="G191" s="4"/>
@@ -12943,10 +12948,10 @@
       </c>
       <c r="Z191" s="3"/>
       <c r="AA191" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AB191" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC191" s="5"/>
       <c r="AD191" s="5"/>
@@ -12962,14 +12967,14 @@
         <v>31</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F192" s="4"/>
       <c r="G192" s="4"/>
@@ -13001,10 +13006,10 @@
       </c>
       <c r="Z192" s="3"/>
       <c r="AA192" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AB192" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AC192" s="5"/>
       <c r="AD192" s="5"/>
@@ -13020,14 +13025,14 @@
         <v>31</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F193" s="4"/>
       <c r="G193" s="4"/>
@@ -13059,10 +13064,10 @@
       </c>
       <c r="Z193" s="3"/>
       <c r="AA193" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AB193" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AC193" s="5"/>
       <c r="AD193" s="5"/>
@@ -13078,14 +13083,14 @@
         <v>31</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F194" s="4"/>
       <c r="G194" s="4"/>
@@ -13117,10 +13122,10 @@
       </c>
       <c r="Z194" s="3"/>
       <c r="AA194" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AB194" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AC194" s="5"/>
       <c r="AD194" s="5"/>
@@ -13136,14 +13141,14 @@
         <v>31</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F195" s="4"/>
       <c r="G195" s="4"/>
@@ -13175,10 +13180,10 @@
       </c>
       <c r="Z195" s="3"/>
       <c r="AA195" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AB195" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AC195" s="5"/>
       <c r="AD195" s="5"/>
@@ -13194,14 +13199,14 @@
         <v>31</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F196" s="4"/>
       <c r="G196" s="4"/>
@@ -13233,10 +13238,10 @@
       </c>
       <c r="Z196" s="3"/>
       <c r="AA196" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AB196" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AC196" s="5"/>
       <c r="AD196" s="5"/>
@@ -13252,14 +13257,14 @@
         <v>31</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F197" s="4"/>
       <c r="G197" s="4"/>
@@ -13291,10 +13296,10 @@
       </c>
       <c r="Z197" s="3"/>
       <c r="AA197" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AB197" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AC197" s="5"/>
       <c r="AD197" s="5"/>
@@ -13310,14 +13315,14 @@
         <v>31</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F198" s="4"/>
       <c r="G198" s="4"/>
@@ -13349,7 +13354,7 @@
       </c>
       <c r="Z198" s="3"/>
       <c r="AA198" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AB198" s="5"/>
       <c r="AC198" s="5"/>
@@ -13366,14 +13371,14 @@
         <v>31</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F199" s="4"/>
       <c r="G199" s="4"/>
@@ -13405,7 +13410,7 @@
       </c>
       <c r="Z199" s="3"/>
       <c r="AA199" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AB199" s="5"/>
       <c r="AC199" s="5"/>
@@ -13422,14 +13427,14 @@
         <v>31</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F200" s="4"/>
       <c r="G200" s="4"/>
@@ -13461,7 +13466,7 @@
       </c>
       <c r="Z200" s="3"/>
       <c r="AA200" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AB200" s="5"/>
       <c r="AC200" s="5"/>
@@ -13478,14 +13483,14 @@
         <v>31</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F201" s="4"/>
       <c r="G201" s="4"/>
@@ -13517,7 +13522,7 @@
       </c>
       <c r="Z201" s="3"/>
       <c r="AA201" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AB201" s="5"/>
       <c r="AC201" s="5"/>
@@ -13531,17 +13536,17 @@
     </row>
     <row r="202" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F202" s="4"/>
       <c r="G202" s="4"/>
@@ -13569,7 +13574,7 @@
       <c r="Y202" s="4"/>
       <c r="Z202" s="4"/>
       <c r="AA202" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AB202" s="5"/>
       <c r="AC202" s="5"/>
@@ -13583,17 +13588,17 @@
     </row>
     <row r="203" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F203" s="4"/>
       <c r="G203" s="4"/>
@@ -13621,7 +13626,7 @@
       <c r="Y203" s="4"/>
       <c r="Z203" s="4"/>
       <c r="AA203" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AB203" s="5"/>
       <c r="AC203" s="5"/>
@@ -13635,17 +13640,17 @@
     </row>
     <row r="204" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F204" s="4"/>
       <c r="G204" s="4"/>
@@ -13673,7 +13678,7 @@
       <c r="Y204" s="4"/>
       <c r="Z204" s="4"/>
       <c r="AA204" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AB204" s="5"/>
       <c r="AC204" s="5"/>
@@ -13687,17 +13692,17 @@
     </row>
     <row r="205" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F205" s="4"/>
       <c r="G205" s="4"/>
@@ -13725,7 +13730,7 @@
       <c r="Y205" s="4"/>
       <c r="Z205" s="4"/>
       <c r="AA205" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AB205" s="5"/>
       <c r="AC205" s="5"/>
@@ -13739,17 +13744,17 @@
     </row>
     <row r="206" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F206" s="4"/>
       <c r="G206" s="4"/>
@@ -13777,7 +13782,7 @@
       <c r="Y206" s="4"/>
       <c r="Z206" s="4"/>
       <c r="AA206" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AB206" s="5"/>
       <c r="AC206" s="5"/>
@@ -13791,17 +13796,17 @@
     </row>
     <row r="207" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F207" s="4"/>
       <c r="G207" s="4"/>
@@ -13829,7 +13834,7 @@
       <c r="Y207" s="4"/>
       <c r="Z207" s="4"/>
       <c r="AA207" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AB207" s="5"/>
       <c r="AC207" s="5"/>
@@ -13843,17 +13848,17 @@
     </row>
     <row r="208" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F208" s="4"/>
       <c r="G208" s="4"/>
@@ -13881,7 +13886,7 @@
       <c r="Y208" s="4"/>
       <c r="Z208" s="4"/>
       <c r="AA208" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AB208" s="5"/>
       <c r="AC208" s="5"/>
@@ -13895,17 +13900,17 @@
     </row>
     <row r="209" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F209" s="4"/>
       <c r="G209" s="4"/>
@@ -13933,7 +13938,7 @@
       <c r="Y209" s="4"/>
       <c r="Z209" s="4"/>
       <c r="AA209" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AB209" s="5"/>
       <c r="AC209" s="5"/>
@@ -13947,17 +13952,17 @@
     </row>
     <row r="210" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F210" s="4"/>
       <c r="G210" s="4"/>
@@ -13985,7 +13990,7 @@
       <c r="Y210" s="4"/>
       <c r="Z210" s="4"/>
       <c r="AA210" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AB210" s="5"/>
       <c r="AC210" s="5"/>
@@ -13999,17 +14004,17 @@
     </row>
     <row r="211" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F211" s="4"/>
       <c r="G211" s="4"/>
@@ -14037,7 +14042,7 @@
       <c r="Y211" s="4"/>
       <c r="Z211" s="4"/>
       <c r="AA211" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AB211" s="5"/>
       <c r="AC211" s="5"/>
@@ -14051,17 +14056,17 @@
     </row>
     <row r="212" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E212" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F212" s="4"/>
       <c r="G212" s="4"/>
@@ -14089,7 +14094,7 @@
       <c r="Y212" s="4"/>
       <c r="Z212" s="4"/>
       <c r="AA212" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AB212" s="5"/>
       <c r="AC212" s="5"/>
@@ -14103,17 +14108,17 @@
     </row>
     <row r="213" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F213" s="4"/>
       <c r="G213" s="4"/>
@@ -14141,7 +14146,7 @@
       <c r="Y213" s="4"/>
       <c r="Z213" s="4"/>
       <c r="AA213" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AB213" s="5"/>
       <c r="AC213" s="5"/>
@@ -14155,17 +14160,17 @@
     </row>
     <row r="214" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F214" s="4"/>
       <c r="G214" s="4"/>
@@ -14193,7 +14198,7 @@
       <c r="Y214" s="4"/>
       <c r="Z214" s="4"/>
       <c r="AA214" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AB214" s="5"/>
       <c r="AC214" s="5"/>
@@ -14207,17 +14212,17 @@
     </row>
     <row r="215" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F215" s="4"/>
       <c r="G215" s="4"/>
@@ -14245,7 +14250,7 @@
       <c r="Y215" s="4"/>
       <c r="Z215" s="4"/>
       <c r="AA215" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AB215" s="5"/>
       <c r="AC215" s="5"/>
@@ -14453,35 +14458,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -14500,35 +14505,35 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
